--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/12_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/12_455-55R22.xlsx
@@ -1433,100 +1433,100 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.2669486146347392</v>
+        <v>0.2249777582959693</v>
       </c>
       <c r="CI2">
-        <v>0.3223287978607803</v>
+        <v>0.2695762577496729</v>
       </c>
       <c r="CJ2">
-        <v>0.1145363079130303</v>
+        <v>0.1022378216958758</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>0.009304663203275268</v>
       </c>
       <c r="CL2">
-        <v>0.03409398221989002</v>
+        <v>0.03745639972338249</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>0.002857822867674904</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>0.004925485919507793</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>0.005082872498054075</v>
       </c>
       <c r="CP2">
-        <v>0.002190037553847609</v>
+        <v>0.01176367037736587</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>1.363519110457816E-05</v>
       </c>
       <c r="CR2">
-        <v>0.001730587257784922</v>
+        <v>0.01139366810246692</v>
       </c>
       <c r="CS2">
-        <v>0.1549376786564502</v>
+        <v>0.1347736568279998</v>
       </c>
       <c r="CT2">
-        <v>0</v>
+        <v>0.0001756367451645541</v>
       </c>
       <c r="CU2">
-        <v>0.05063323737114604</v>
+        <v>0.0507757121355001</v>
       </c>
       <c r="CV2">
-        <v>0</v>
+        <v>0.007099346328404574</v>
       </c>
       <c r="CW2">
-        <v>0.004712950693591489</v>
+        <v>0.01379541050045922</v>
       </c>
       <c r="CX2">
-        <v>0.01793159680657433</v>
+        <v>0.02444058621326464</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>8.417643049573597E-06</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>0.005781907734067388</v>
       </c>
       <c r="DA2">
-        <v>0.004961187174855878</v>
+        <v>0.01399531909463761</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>6.461167766009255E-05</v>
       </c>
       <c r="DC2">
-        <v>0.0209376856517416</v>
+        <v>0.02686143504238039</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>0.002673279196723928</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>0.005579702131621142</v>
       </c>
       <c r="DF2">
-        <v>0</v>
+        <v>0.001656926074692258</v>
       </c>
       <c r="DG2">
-        <v>0.004057336205568327</v>
+        <v>0.0132674342338117</v>
       </c>
       <c r="DH2">
-        <v>0</v>
+        <v>0.00878364350700651</v>
       </c>
       <c r="DI2">
-        <v>0</v>
+        <v>0.0005844612168661797</v>
       </c>
       <c r="DJ2">
-        <v>0</v>
+        <v>0.0001806803315175779</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>0.003890820092055884</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>0.005816092352536995</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>0.0002048652962300886</v>
       </c>
       <c r="DN2">
         <v>0</v>
@@ -1789,100 +1789,100 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.007761633782800323</v>
+        <v>0.01605415759227604</v>
       </c>
       <c r="CH3">
-        <v>0.1742607829468068</v>
+        <v>0.1459252796043082</v>
       </c>
       <c r="CI3">
-        <v>0.3222927622629421</v>
+        <v>0.2613918110789595</v>
       </c>
       <c r="CJ3">
-        <v>0.08400608921634399</v>
+        <v>0.07552565053424287</v>
       </c>
       <c r="CK3">
-        <v>0.004448714216209044</v>
+        <v>0.01347004480005382</v>
       </c>
       <c r="CL3">
-        <v>0.01652512429871952</v>
+        <v>0.02288977418106199</v>
       </c>
       <c r="CM3">
-        <v>0</v>
+        <v>0.003310311604961581</v>
       </c>
       <c r="CN3">
-        <v>0.01834455015247031</v>
+        <v>0.02430894585990079</v>
       </c>
       <c r="CO3">
-        <v>0.0005118182862332179</v>
+        <v>0.01039922375239232</v>
       </c>
       <c r="CP3">
-        <v>0.01749377673842456</v>
+        <v>0.02364533347260089</v>
       </c>
       <c r="CQ3">
-        <v>0</v>
+        <v>0.001084458004033325</v>
       </c>
       <c r="CR3">
-        <v>0.01832592757464277</v>
+        <v>0.02429442004947255</v>
       </c>
       <c r="CS3">
-        <v>0.1677479890775728</v>
+        <v>0.1408452305381274</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>0.006990113656644464</v>
       </c>
       <c r="CU3">
-        <v>0.07001026517306112</v>
+        <v>0.0646087576785702</v>
       </c>
       <c r="CV3">
-        <v>0.01236221865580689</v>
+        <v>0.01964266313340891</v>
       </c>
       <c r="CW3">
-        <v>0</v>
+        <v>0.00627338423869748</v>
       </c>
       <c r="CX3">
-        <v>0.04726059435227542</v>
+        <v>0.04686377045350316</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>0.000270284179120362</v>
       </c>
       <c r="CZ3">
-        <v>0</v>
+        <v>0.005843181596648577</v>
       </c>
       <c r="DA3">
-        <v>0.009741762482689313</v>
+        <v>0.01759867921460276</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>5.584384360951014E-05</v>
       </c>
       <c r="DC3">
-        <v>0.02036266458658111</v>
+        <v>0.02588309676230855</v>
       </c>
       <c r="DD3">
-        <v>0</v>
+        <v>0.004804338010552469</v>
       </c>
       <c r="DE3">
-        <v>0</v>
+        <v>0.0006990940088819771</v>
       </c>
       <c r="DF3">
-        <v>0</v>
+        <v>0.002030969720290403</v>
       </c>
       <c r="DG3">
-        <v>0.007572888956261446</v>
+        <v>0.01590693460333197</v>
       </c>
       <c r="DH3">
-        <v>0.0009704372401592813</v>
+        <v>0.01075695145503477</v>
       </c>
       <c r="DI3">
-        <v>0</v>
+        <v>7.635980310400446E-05</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>0.001476117620351974</v>
       </c>
       <c r="DK3">
-        <v>0</v>
+        <v>0.0043230156894965</v>
       </c>
       <c r="DL3">
-        <v>0</v>
+        <v>0.002751803259450833</v>
       </c>
       <c r="DM3">
         <v>0</v>
@@ -2154,100 +2154,100 @@
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.1394334263860402</v>
+        <v>0.1196721865236701</v>
       </c>
       <c r="CJ4">
-        <v>0</v>
+        <v>0.00379078349905809</v>
       </c>
       <c r="CK4">
-        <v>0.3065401045915333</v>
+        <v>0.2511109330030337</v>
       </c>
       <c r="CL4">
-        <v>0.0008241197903705752</v>
+        <v>0.01064821629726815</v>
       </c>
       <c r="CM4">
-        <v>0.0003270086172496745</v>
+        <v>0.0102572105627424</v>
       </c>
       <c r="CN4">
-        <v>0.02318287153715201</v>
+        <v>0.02823462477596669</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>0.007017976766069078</v>
       </c>
       <c r="CP4">
-        <v>0.008221677807233298</v>
+        <v>0.01646680932530454</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>5.60438542915847E-05</v>
       </c>
       <c r="CR4">
-        <v>0.04151752705930281</v>
+        <v>0.04265585655940853</v>
       </c>
       <c r="CS4">
-        <v>0</v>
+        <v>6.147148946993795E-05</v>
       </c>
       <c r="CT4">
-        <v>0.1189595447923376</v>
+        <v>0.1035683338162758</v>
       </c>
       <c r="CU4">
-        <v>0.1365039717685407</v>
+        <v>0.1173680066612781</v>
       </c>
       <c r="CV4">
-        <v>0.03537510659893097</v>
+        <v>0.03782449940282823</v>
       </c>
       <c r="CW4">
-        <v>0.01614491902403837</v>
+        <v>0.02269888158461807</v>
       </c>
       <c r="CX4">
-        <v>0.06822966446542007</v>
+        <v>0.06366644628657096</v>
       </c>
       <c r="CY4">
-        <v>0</v>
+        <v>0.0001843430994722521</v>
       </c>
       <c r="CZ4">
-        <v>0.03158269026507425</v>
+        <v>0.03484155189646336</v>
       </c>
       <c r="DA4">
-        <v>0</v>
+        <v>0.006614545370932591</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>0.0001762598416099902</v>
       </c>
       <c r="DC4">
-        <v>0.02622547147363261</v>
+        <v>0.03062779975846153</v>
       </c>
       <c r="DD4">
-        <v>0</v>
+        <v>0.002103471684714524</v>
       </c>
       <c r="DE4">
-        <v>0</v>
+        <v>0.008325746933253447</v>
       </c>
       <c r="DF4">
-        <v>0</v>
+        <v>0.0005050471127641088</v>
       </c>
       <c r="DG4">
-        <v>0</v>
+        <v>0.004053761354086464</v>
       </c>
       <c r="DH4">
-        <v>0.01478435156407626</v>
+        <v>0.021628719198779</v>
       </c>
       <c r="DI4">
-        <v>0.03214754425906741</v>
+        <v>0.03528584114756692</v>
       </c>
       <c r="DJ4">
-        <v>0</v>
+        <v>0.006121756527050846</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>0.001155521678249587</v>
       </c>
       <c r="DL4">
-        <v>0</v>
+        <v>0.006801882048346268</v>
       </c>
       <c r="DM4">
-        <v>0</v>
+        <v>0.005953905332209793</v>
       </c>
       <c r="DN4">
-        <v>0</v>
+        <v>0.0005215666081855738</v>
       </c>
       <c r="DO4">
         <v>0</v>
@@ -2513,100 +2513,100 @@
         <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.203605394793228</v>
+        <v>0.1681583925085048</v>
       </c>
       <c r="CJ5">
-        <v>0</v>
+        <v>0.003381716421389815</v>
       </c>
       <c r="CK5">
-        <v>0.3082576828355844</v>
+        <v>0.2494511188919347</v>
       </c>
       <c r="CL5">
-        <v>0.01030339782758265</v>
+        <v>0.0180035641464265</v>
       </c>
       <c r="CM5">
-        <v>0.03773032822434538</v>
+        <v>0.03930849679519008</v>
       </c>
       <c r="CN5">
-        <v>0.02956120441574965</v>
+        <v>0.03296281282604691</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>3.60071615006932E-06</v>
       </c>
       <c r="CP5">
-        <v>0.001035815403185701</v>
+        <v>0.01080460981532327</v>
       </c>
       <c r="CQ5">
-        <v>0.005206590115208655</v>
+        <v>0.01404442094428954</v>
       </c>
       <c r="CR5">
-        <v>0.01029068963222245</v>
+        <v>0.01799369256246432</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>0.0005035198101016438</v>
       </c>
       <c r="CT5">
-        <v>0.08460382708303539</v>
+        <v>0.07571930623503023</v>
       </c>
       <c r="CU5">
-        <v>0.08110055752858289</v>
+        <v>0.07299800564366386</v>
       </c>
       <c r="CV5">
-        <v>0.04432186595195839</v>
+        <v>0.04442872954843887</v>
       </c>
       <c r="CW5">
-        <v>0.005735244772170803</v>
+        <v>0.01445507396663298</v>
       </c>
       <c r="CX5">
-        <v>0.09827662833627222</v>
+        <v>0.08634018526181785</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>0.001828145465890909</v>
       </c>
       <c r="CZ5">
-        <v>0.009187524794622979</v>
+        <v>0.01713676646006991</v>
       </c>
       <c r="DA5">
-        <v>0.01746112712614082</v>
+        <v>0.02356360817679539</v>
       </c>
       <c r="DB5">
-        <v>0</v>
+        <v>0.000461510984573099</v>
       </c>
       <c r="DC5">
-        <v>0.01199833877744786</v>
+        <v>0.01932017531137013</v>
       </c>
       <c r="DD5">
-        <v>0.005634370942115148</v>
+        <v>0.01437671630413597</v>
       </c>
       <c r="DE5">
-        <v>0.01168144614634196</v>
+        <v>0.01907401666127936</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>0.003845954278829865</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>0.000614518167160948</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>0.006395008016957067</v>
       </c>
       <c r="DI5">
-        <v>0.02400796529420475</v>
+        <v>0.02864911881233556</v>
       </c>
       <c r="DJ5">
-        <v>0</v>
+        <v>0.00448785231023218</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>3.356801685818977E-06</v>
       </c>
       <c r="DL5">
-        <v>0</v>
+        <v>0.003455401519385688</v>
       </c>
       <c r="DM5">
-        <v>0</v>
+        <v>0.007563501145347743</v>
       </c>
       <c r="DN5">
-        <v>0</v>
+        <v>0.0006671034905447868</v>
       </c>
       <c r="DO5">
         <v>0</v>
@@ -2869,100 +2869,100 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.2744254467974087</v>
+        <v>0.2303706899218832</v>
       </c>
       <c r="CI6">
-        <v>0.03806168675814205</v>
+        <v>0.04056451312503274</v>
       </c>
       <c r="CJ6">
-        <v>0.1225653737173593</v>
+        <v>0.1084231465479497</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>0.0001206910458220724</v>
       </c>
       <c r="CL6">
-        <v>0.0341113696500616</v>
+        <v>0.037392306915014</v>
       </c>
       <c r="CM6">
-        <v>0.02927396099844227</v>
+        <v>0.03350774338625926</v>
       </c>
       <c r="CN6">
-        <v>0.01891613647809891</v>
+        <v>0.02519014397164324</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>0.003446687825673967</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>0.001534663045495246</v>
       </c>
       <c r="CQ6">
-        <v>0.01106019313681186</v>
+        <v>0.0188816194732402</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>0.0004910756271179226</v>
       </c>
       <c r="CS6">
-        <v>0.1383570672821516</v>
+        <v>0.1211042825232054</v>
       </c>
       <c r="CT6">
-        <v>0.03391457080232953</v>
+        <v>0.03723427238010964</v>
       </c>
       <c r="CU6">
-        <v>0.1273635829965314</v>
+        <v>0.1122762319727184</v>
       </c>
       <c r="CV6">
-        <v>0</v>
+        <v>2.18826300283937E-07</v>
       </c>
       <c r="CW6">
-        <v>0.1378800257935012</v>
+        <v>0.1207212059419259</v>
       </c>
       <c r="CX6">
-        <v>0.0232594427984623</v>
+        <v>0.0286779306238306</v>
       </c>
       <c r="CY6">
-        <v>0.006495218258618761</v>
+        <v>0.01521582726947954</v>
       </c>
       <c r="CZ6">
-        <v>0.0006755475637552843</v>
+        <v>0.01054248206366118</v>
       </c>
       <c r="DA6">
-        <v>0</v>
+        <v>0.00587468231352364</v>
       </c>
       <c r="DB6">
-        <v>0</v>
+        <v>0.006749384387147781</v>
       </c>
       <c r="DC6">
-        <v>0</v>
+        <v>0.008792124250053287</v>
       </c>
       <c r="DD6">
-        <v>0</v>
+        <v>0.000503357666639423</v>
       </c>
       <c r="DE6">
-        <v>0</v>
+        <v>0.001972028703693788</v>
       </c>
       <c r="DF6">
-        <v>0</v>
+        <v>0.005270231014160762</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>0.002477041657308433</v>
       </c>
       <c r="DH6">
-        <v>0.003640376968325262</v>
+        <v>0.0129233163084829</v>
       </c>
       <c r="DI6">
-        <v>0</v>
+        <v>0.001339479555217731</v>
       </c>
       <c r="DJ6">
-        <v>0</v>
+        <v>0.001280843639323974</v>
       </c>
       <c r="DK6">
-        <v>0</v>
+        <v>0.004550960643992668</v>
       </c>
       <c r="DL6">
-        <v>0</v>
+        <v>0.0001022347785816617</v>
       </c>
       <c r="DM6">
-        <v>0</v>
+        <v>0.002468582595511672</v>
       </c>
       <c r="DN6">
         <v>0</v>
@@ -3228,100 +3228,100 @@
         <v>0</v>
       </c>
       <c r="CH7">
-        <v>0.3110039119940276</v>
+        <v>0.2532391155057309</v>
       </c>
       <c r="CI7">
-        <v>0.04407739272874459</v>
+        <v>0.04447334778652063</v>
       </c>
       <c r="CJ7">
-        <v>0.2308899478034846</v>
+        <v>0.1905812226695157</v>
       </c>
       <c r="CK7">
-        <v>0.0005262817430231448</v>
+        <v>0.01041160995326073</v>
       </c>
       <c r="CL7">
-        <v>0.0003131380398088384</v>
+        <v>0.0102449082371535</v>
       </c>
       <c r="CM7">
-        <v>0.06693310988214181</v>
+        <v>0.06234902140424754</v>
       </c>
       <c r="CN7">
-        <v>0</v>
+        <v>0.002776040593503857</v>
       </c>
       <c r="CO7">
-        <v>0</v>
+        <v>0.007446147438323871</v>
       </c>
       <c r="CP7">
-        <v>0</v>
+        <v>0.0002360193314504686</v>
       </c>
       <c r="CQ7">
-        <v>0.01806704230779561</v>
+        <v>0.0241304055070446</v>
       </c>
       <c r="CR7">
-        <v>0.005161925870394561</v>
+        <v>0.01403719128473547</v>
       </c>
       <c r="CS7">
-        <v>0.1284743773638588</v>
+        <v>0.1104810316203824</v>
       </c>
       <c r="CT7">
-        <v>0.004774895739831419</v>
+        <v>0.013734491341096</v>
       </c>
       <c r="CU7">
-        <v>0.04904672559978313</v>
+        <v>0.04835991025596051</v>
       </c>
       <c r="CV7">
-        <v>0</v>
+        <v>0.00416964577285128</v>
       </c>
       <c r="CW7">
-        <v>0.07697831155665918</v>
+        <v>0.0702054691084591</v>
       </c>
       <c r="CX7">
-        <v>0.008032356879223438</v>
+        <v>0.0162821826587384</v>
       </c>
       <c r="CY7">
-        <v>0.01872542323058787</v>
+        <v>0.02464533148433878</v>
       </c>
       <c r="CZ7">
-        <v>0</v>
+        <v>0.003197731653662381</v>
       </c>
       <c r="DA7">
-        <v>0</v>
+        <v>0.00101894769655745</v>
       </c>
       <c r="DB7">
-        <v>0.01461364068907074</v>
+        <v>0.02142946727820063</v>
       </c>
       <c r="DC7">
-        <v>0</v>
+        <v>0.006775600652958178</v>
       </c>
       <c r="DD7">
-        <v>0.006591140658664256</v>
+        <v>0.01515499375460635</v>
       </c>
       <c r="DE7">
-        <v>0</v>
+        <v>0.002500264862940761</v>
       </c>
       <c r="DF7">
-        <v>0</v>
+        <v>0.003352775509006984</v>
       </c>
       <c r="DG7">
-        <v>0</v>
+        <v>0.00290802737837411</v>
       </c>
       <c r="DH7">
-        <v>0.01579037791290047</v>
+        <v>0.02234980464525121</v>
       </c>
       <c r="DI7">
-        <v>0</v>
+        <v>0.002933116282797513</v>
       </c>
       <c r="DJ7">
-        <v>0</v>
+        <v>1.86415826941827E-06</v>
       </c>
       <c r="DK7">
-        <v>0</v>
+        <v>0.00455591723235476</v>
       </c>
       <c r="DL7">
-        <v>0</v>
+        <v>0.006007758747740272</v>
       </c>
       <c r="DM7">
-        <v>0</v>
+        <v>1.063819396663898E-05</v>
       </c>
       <c r="DN7">
         <v>0</v>
@@ -3587,100 +3587,100 @@
         <v>0</v>
       </c>
       <c r="CH8">
-        <v>0.2430762483051611</v>
+        <v>0.198081402365918</v>
       </c>
       <c r="CI8">
-        <v>0</v>
+        <v>0.004275706466927469</v>
       </c>
       <c r="CJ8">
-        <v>0.237144897913885</v>
+        <v>0.1934919918114391</v>
       </c>
       <c r="CK8">
-        <v>0.008876879534833517</v>
+        <v>0.01686852772817523</v>
       </c>
       <c r="CL8">
-        <v>0</v>
+        <v>0.006590067771226634</v>
       </c>
       <c r="CM8">
-        <v>0.06254827589195705</v>
+        <v>0.05839702573721122</v>
       </c>
       <c r="CN8">
-        <v>0.0354493928874447</v>
+        <v>0.0374291362228065</v>
       </c>
       <c r="CO8">
-        <v>0.01626218325814998</v>
+        <v>0.02258294158335281</v>
       </c>
       <c r="CP8">
-        <v>0</v>
+        <v>0.0007036054836352561</v>
       </c>
       <c r="CQ8">
-        <v>0.01636151311820002</v>
+        <v>0.02265979853463983</v>
       </c>
       <c r="CR8">
-        <v>0.009431969093752027</v>
+        <v>0.01729803091249707</v>
       </c>
       <c r="CS8">
-        <v>0.09166002491513532</v>
+        <v>0.08092237989986947</v>
       </c>
       <c r="CT8">
-        <v>0.04682923978664057</v>
+        <v>0.04623434684471471</v>
       </c>
       <c r="CU8">
-        <v>0.02159749017482787</v>
+        <v>0.02671116066661588</v>
       </c>
       <c r="CV8">
-        <v>0.01927063460790739</v>
+        <v>0.0249107451131393</v>
       </c>
       <c r="CW8">
-        <v>0.1203501329744674</v>
+        <v>0.1031214873628684</v>
       </c>
       <c r="CX8">
-        <v>0</v>
+        <v>0.0006169866489721357</v>
       </c>
       <c r="CY8">
-        <v>0.05330608618740221</v>
+        <v>0.05124583752904758</v>
       </c>
       <c r="CZ8">
-        <v>0</v>
+        <v>0.001199490293247548</v>
       </c>
       <c r="DA8">
-        <v>0</v>
+        <v>0.0002152097591175756</v>
       </c>
       <c r="DB8">
-        <v>0.009883240011930527</v>
+        <v>0.01764720393013972</v>
       </c>
       <c r="DC8">
-        <v>0</v>
+        <v>0.0002446395464405495</v>
       </c>
       <c r="DD8">
-        <v>0.0005947104265507476</v>
+        <v>0.01046016001895371</v>
       </c>
       <c r="DE8">
-        <v>0</v>
+        <v>0.005155446242268155</v>
       </c>
       <c r="DF8">
-        <v>0</v>
+        <v>0.008042341793698161</v>
       </c>
       <c r="DG8">
-        <v>0</v>
+        <v>0.005112826021677111</v>
       </c>
       <c r="DH8">
-        <v>0.006872291123605677</v>
+        <v>0.01531746791801691</v>
       </c>
       <c r="DI8">
-        <v>0</v>
+        <v>0.00747528236025918</v>
       </c>
       <c r="DJ8">
-        <v>0</v>
+        <v>0.0008255348898943177</v>
       </c>
       <c r="DK8">
-        <v>0.0004847897881491093</v>
+        <v>0.01037510840258359</v>
       </c>
       <c r="DL8">
-        <v>0</v>
+        <v>0.005768379599390617</v>
       </c>
       <c r="DM8">
-        <v>0</v>
+        <v>1.973054125632185E-05</v>
       </c>
       <c r="DN8">
         <v>0</v>
@@ -3832,100 +3832,100 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.05396069671075102</v>
+        <v>0.05059154123310714</v>
       </c>
       <c r="AW9">
-        <v>0.1330255272797371</v>
+        <v>0.1100674843873066</v>
       </c>
       <c r="AX9">
-        <v>0.232137109206904</v>
+        <v>0.1846234502978343</v>
       </c>
       <c r="AY9">
-        <v>0.06077829701172539</v>
+        <v>0.05572003142312925</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>0.005287254379638884</v>
       </c>
       <c r="BA9">
-        <v>0.01088588799122898</v>
+        <v>0.01818882998534225</v>
       </c>
       <c r="BB9">
-        <v>0.05442361897942876</v>
+        <v>0.05093977113935689</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>0.00323001095478042</v>
       </c>
       <c r="BD9">
-        <v>0.001180618904343714</v>
+        <v>0.01088811197514997</v>
       </c>
       <c r="BE9">
-        <v>0.01427060603649192</v>
+        <v>0.02073495949203113</v>
       </c>
       <c r="BF9">
-        <v>0.01440694786169528</v>
+        <v>0.02083752163738676</v>
       </c>
       <c r="BG9">
-        <v>0.06223901198095903</v>
+        <v>0.05681884362381847</v>
       </c>
       <c r="BH9">
-        <v>0.1427426407952307</v>
+        <v>0.1173771122826847</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>0.0005994637995832678</v>
       </c>
       <c r="BJ9">
-        <v>0.03720498366728561</v>
+        <v>0.03798717808821047</v>
       </c>
       <c r="BK9">
-        <v>0.02179839937321849</v>
+        <v>0.02639768722254921</v>
       </c>
       <c r="BL9">
-        <v>0.07801884065703402</v>
+        <v>0.06868910485839307</v>
       </c>
       <c r="BM9">
-        <v>0.03629721287548299</v>
+        <v>0.03730431411921496</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>0.001834871306532972</v>
       </c>
       <c r="BO9">
-        <v>0</v>
+        <v>0.007956842224582305</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>0.005998475634110493</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>0.007239940676348388</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>0.003610876776551087</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>0.003501475050870057</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>0.001560497169733459</v>
       </c>
       <c r="BU9">
-        <v>0.002547668127667429</v>
+        <v>0.01191646480042355</v>
       </c>
       <c r="BV9">
-        <v>0.01357468628119551</v>
+        <v>0.02021145892283963</v>
       </c>
       <c r="BW9">
-        <v>0.02137335309684601</v>
+        <v>0.02607794925575022</v>
       </c>
       <c r="BX9">
-        <v>0</v>
+        <v>0.004992021753053369</v>
       </c>
       <c r="BY9">
-        <v>0.0001619365116205327</v>
+        <v>0.01012181556186766</v>
       </c>
       <c r="BZ9">
-        <v>0.008971956651153811</v>
+        <v>0.01674908906938557</v>
       </c>
       <c r="CA9">
-        <v>0</v>
+        <v>0.001945550898433526</v>
       </c>
       <c r="CB9">
         <v>0</v>
@@ -4059,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05866867180360678</v>
+        <v>0.05644232829206049</v>
       </c>
       <c r="E10">
-        <v>0.1046195087457149</v>
+        <v>0.09467701459934753</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.003669866939727705</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.007304816395099724</v>
       </c>
       <c r="J10">
-        <v>0.02480574504749838</v>
+        <v>0.02826572764390175</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.004304138299309938</v>
       </c>
       <c r="L10">
-        <v>0.02813962302498246</v>
+        <v>0.03103977458490679</v>
       </c>
       <c r="M10">
-        <v>0.04748775332993636</v>
+        <v>0.04713893059754778</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.040408960125007E-05</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -4101,58 +4101,58 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.008555511802140467</v>
+        <v>0.01474426401225366</v>
       </c>
       <c r="S10">
-        <v>0.02541289087504352</v>
+        <v>0.02877092040651047</v>
       </c>
       <c r="T10">
-        <v>0.07268685680628711</v>
+        <v>0.06810655340400486</v>
       </c>
       <c r="U10">
-        <v>0.00819487490691868</v>
+        <v>0.01444418594018261</v>
       </c>
       <c r="V10">
-        <v>0.009254756357590719</v>
+        <v>0.01532609011181746</v>
       </c>
       <c r="W10">
-        <v>0.1366811441946888</v>
+        <v>0.1213548001516441</v>
       </c>
       <c r="X10">
-        <v>0.1800208974158319</v>
+        <v>0.1574168608086315</v>
       </c>
       <c r="Y10">
-        <v>0.1591722477170684</v>
+        <v>0.1400691554302283</v>
       </c>
       <c r="Z10">
-        <v>0.06164180976915384</v>
+        <v>0.05891621135983128</v>
       </c>
       <c r="AA10">
-        <v>0.004644628406403803</v>
+        <v>0.01149010348393166</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.004251762577489132</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.002366976837269733</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.006597604513331674</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.002118927917615176</v>
       </c>
       <c r="AG10">
-        <v>0.007068601792844674</v>
+        <v>0.01350703871765859</v>
       </c>
       <c r="AH10">
-        <v>0.01691738979470905</v>
+        <v>0.02170199978512899</v>
       </c>
       <c r="AI10">
-        <v>0.04602708820958002</v>
+        <v>0.04592354310096787</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -4670,100 +4670,100 @@
         <v>0</v>
       </c>
       <c r="CJ11">
-        <v>0.3245724846825674</v>
+        <v>0.2617457971327486</v>
       </c>
       <c r="CK11">
-        <v>0.01383036096057339</v>
+        <v>0.02072714234559451</v>
       </c>
       <c r="CL11">
-        <v>0.2315192478789536</v>
+        <v>0.1895715914300729</v>
       </c>
       <c r="CM11">
-        <v>0.03199583121405297</v>
+        <v>0.03481669400221733</v>
       </c>
       <c r="CN11">
-        <v>0.02316011323926413</v>
+        <v>0.02796351029202453</v>
       </c>
       <c r="CO11">
-        <v>0.01852044096901208</v>
+        <v>0.02436487501259955</v>
       </c>
       <c r="CP11">
-        <v>0.00563019581692072</v>
+        <v>0.01436690785828741</v>
       </c>
       <c r="CQ11">
-        <v>0</v>
+        <v>0.009898095935438309</v>
       </c>
       <c r="CR11">
-        <v>0</v>
+        <v>0.0005388689754388296</v>
       </c>
       <c r="CS11">
-        <v>0</v>
+        <v>0.005761496737508212</v>
       </c>
       <c r="CT11">
-        <v>0.03770990979214323</v>
+        <v>0.03924866323684714</v>
       </c>
       <c r="CU11">
-        <v>0.1182465862263074</v>
+        <v>0.1017147401970358</v>
       </c>
       <c r="CV11">
-        <v>7.499698684852306E-05</v>
+        <v>0.01005816936779222</v>
       </c>
       <c r="CW11">
-        <v>0.04983568596566165</v>
+        <v>0.0486536908738668</v>
       </c>
       <c r="CX11">
-        <v>0.004805137816335444</v>
+        <v>0.01372697411824402</v>
       </c>
       <c r="CY11">
-        <v>0.05943435016114795</v>
+        <v>0.05609863301572932</v>
       </c>
       <c r="CZ11">
-        <v>0.004308746888783456</v>
+        <v>0.01334196203113425</v>
       </c>
       <c r="DA11">
-        <v>0.06142237023119435</v>
+        <v>0.05764058657269579</v>
       </c>
       <c r="DB11">
-        <v>0</v>
+        <v>3.860252651799622E-05</v>
       </c>
       <c r="DC11">
-        <v>0</v>
+        <v>0.0008383843049554961</v>
       </c>
       <c r="DD11">
-        <v>0.001421829131117787</v>
+        <v>0.01110280299437544</v>
       </c>
       <c r="DE11">
-        <v>0</v>
+        <v>0.002581093408670482</v>
       </c>
       <c r="DF11">
-        <v>0.007310770893808191</v>
+        <v>0.01567040008988011</v>
       </c>
       <c r="DG11">
-        <v>0.001437877752422947</v>
+        <v>0.01111525066986863</v>
       </c>
       <c r="DH11">
-        <v>0</v>
+        <v>0.0003659886794237279</v>
       </c>
       <c r="DI11">
-        <v>0</v>
+        <v>0.001869527999785427</v>
       </c>
       <c r="DJ11">
-        <v>0.004763063392884867</v>
+        <v>0.01369434023900183</v>
       </c>
       <c r="DK11">
-        <v>0</v>
+        <v>0.004439701961061493</v>
       </c>
       <c r="DL11">
-        <v>0</v>
+        <v>0.0008454600438758443</v>
       </c>
       <c r="DM11">
-        <v>0</v>
+        <v>0.003871851741447134</v>
       </c>
       <c r="DN11">
-        <v>0</v>
+        <v>0.002795286808893945</v>
       </c>
       <c r="DO11">
-        <v>0</v>
+        <v>0.0005329093969666564</v>
       </c>
     </row>
   </sheetData>
@@ -5395,97 +5395,97 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.2669486146347392</v>
+        <v>0.2249777582959693</v>
       </c>
       <c r="CI2">
-        <v>0.5892774124955195</v>
+        <v>0.4945540160456422</v>
       </c>
       <c r="CJ2">
-        <v>0.7038137204085497</v>
+        <v>0.596791837741518</v>
       </c>
       <c r="CK2">
-        <v>0.7038137204085497</v>
+        <v>0.6060965009447933</v>
       </c>
       <c r="CL2">
-        <v>0.7379077026284397</v>
+        <v>0.6435529006681757</v>
       </c>
       <c r="CM2">
-        <v>0.7379077026284397</v>
+        <v>0.6464107235358506</v>
       </c>
       <c r="CN2">
-        <v>0.7379077026284397</v>
+        <v>0.6513362094553584</v>
       </c>
       <c r="CO2">
-        <v>0.7379077026284397</v>
+        <v>0.6564190819534125</v>
       </c>
       <c r="CP2">
-        <v>0.7400977401822874</v>
+        <v>0.6681827523307784</v>
       </c>
       <c r="CQ2">
-        <v>0.7400977401822874</v>
+        <v>0.6681963875218829</v>
       </c>
       <c r="CR2">
-        <v>0.7418283274400723</v>
+        <v>0.6795900556243498</v>
       </c>
       <c r="CS2">
-        <v>0.8967660060965225</v>
+        <v>0.8143637124523496</v>
       </c>
       <c r="CT2">
-        <v>0.8967660060965225</v>
+        <v>0.8145393491975141</v>
       </c>
       <c r="CU2">
-        <v>0.9473992434676685</v>
+        <v>0.8653150613330143</v>
       </c>
       <c r="CV2">
-        <v>0.9473992434676685</v>
+        <v>0.8724144076614189</v>
       </c>
       <c r="CW2">
-        <v>0.9521121941612599</v>
+        <v>0.886209818161878</v>
       </c>
       <c r="CX2">
-        <v>0.9700437909678342</v>
+        <v>0.9106504043751427</v>
       </c>
       <c r="CY2">
-        <v>0.9700437909678342</v>
+        <v>0.9106588220181923</v>
       </c>
       <c r="CZ2">
-        <v>0.9700437909678342</v>
+        <v>0.9164407297522597</v>
       </c>
       <c r="DA2">
-        <v>0.97500497814269</v>
+        <v>0.9304360488468972</v>
       </c>
       <c r="DB2">
-        <v>0.97500497814269</v>
+        <v>0.9305006605245574</v>
       </c>
       <c r="DC2">
-        <v>0.9959426637944316</v>
+        <v>0.9573620955669377</v>
       </c>
       <c r="DD2">
-        <v>0.9959426637944316</v>
+        <v>0.9600353747636616</v>
       </c>
       <c r="DE2">
-        <v>0.9959426637944316</v>
+        <v>0.9656150768952828</v>
       </c>
       <c r="DF2">
-        <v>0.9959426637944316</v>
+        <v>0.9672720029699751</v>
       </c>
       <c r="DG2">
-        <v>1</v>
+        <v>0.9805394372037868</v>
       </c>
       <c r="DH2">
-        <v>1</v>
+        <v>0.9893230807107933</v>
       </c>
       <c r="DI2">
-        <v>1</v>
+        <v>0.9899075419276595</v>
       </c>
       <c r="DJ2">
-        <v>1</v>
+        <v>0.990088222259177</v>
       </c>
       <c r="DK2">
-        <v>1</v>
+        <v>0.9939790423512329</v>
       </c>
       <c r="DL2">
-        <v>1</v>
+        <v>0.9997951347037699</v>
       </c>
       <c r="DM2">
         <v>1</v>
@@ -5751,97 +5751,97 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.007761633782800323</v>
+        <v>0.01605415759227604</v>
       </c>
       <c r="CH3">
-        <v>0.1820224167296071</v>
+        <v>0.1619794371965842</v>
       </c>
       <c r="CI3">
-        <v>0.5043151789925492</v>
+        <v>0.4233712482755437</v>
       </c>
       <c r="CJ3">
-        <v>0.5883212682088932</v>
+        <v>0.4988968988097865</v>
       </c>
       <c r="CK3">
-        <v>0.5927699824251023</v>
+        <v>0.5123669436098404</v>
       </c>
       <c r="CL3">
-        <v>0.6092951067238218</v>
+        <v>0.5352567177909023</v>
       </c>
       <c r="CM3">
-        <v>0.6092951067238218</v>
+        <v>0.5385670293958639</v>
       </c>
       <c r="CN3">
-        <v>0.6276396568762921</v>
+        <v>0.5628759752557646</v>
       </c>
       <c r="CO3">
-        <v>0.6281514751625253</v>
+        <v>0.5732751990081569</v>
       </c>
       <c r="CP3">
-        <v>0.6456452519009499</v>
+        <v>0.5969205324807578</v>
       </c>
       <c r="CQ3">
-        <v>0.6456452519009499</v>
+        <v>0.5980049904847912</v>
       </c>
       <c r="CR3">
-        <v>0.6639711794755927</v>
+        <v>0.6222994105342637</v>
       </c>
       <c r="CS3">
-        <v>0.8317191685531655</v>
+        <v>0.7631446410723912</v>
       </c>
       <c r="CT3">
-        <v>0.8317191685531655</v>
+        <v>0.7701347547290357</v>
       </c>
       <c r="CU3">
-        <v>0.9017294337262266</v>
+        <v>0.8347435124076059</v>
       </c>
       <c r="CV3">
-        <v>0.9140916523820335</v>
+        <v>0.8543861755410148</v>
       </c>
       <c r="CW3">
-        <v>0.9140916523820335</v>
+        <v>0.8606595597797123</v>
       </c>
       <c r="CX3">
-        <v>0.961352246734309</v>
+        <v>0.9075233302332155</v>
       </c>
       <c r="CY3">
-        <v>0.961352246734309</v>
+        <v>0.9077936144123359</v>
       </c>
       <c r="CZ3">
-        <v>0.961352246734309</v>
+        <v>0.9136367960089844</v>
       </c>
       <c r="DA3">
-        <v>0.9710940092169983</v>
+        <v>0.9312354752235872</v>
       </c>
       <c r="DB3">
-        <v>0.9710940092169983</v>
+        <v>0.9312913190671966</v>
       </c>
       <c r="DC3">
-        <v>0.9914566738035794</v>
+        <v>0.9571744158295052</v>
       </c>
       <c r="DD3">
-        <v>0.9914566738035794</v>
+        <v>0.9619787538400577</v>
       </c>
       <c r="DE3">
-        <v>0.9914566738035794</v>
+        <v>0.9626778478489397</v>
       </c>
       <c r="DF3">
-        <v>0.9914566738035794</v>
+        <v>0.9647088175692301</v>
       </c>
       <c r="DG3">
-        <v>0.9990295627598408</v>
+        <v>0.980615752172562</v>
       </c>
       <c r="DH3">
-        <v>1</v>
+        <v>0.9913727036275968</v>
       </c>
       <c r="DI3">
-        <v>1</v>
+        <v>0.9914490634307008</v>
       </c>
       <c r="DJ3">
-        <v>1</v>
+        <v>0.9929251810510528</v>
       </c>
       <c r="DK3">
-        <v>1</v>
+        <v>0.9972481967405492</v>
       </c>
       <c r="DL3">
         <v>1</v>
@@ -6116,97 +6116,97 @@
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.1394334263860402</v>
+        <v>0.1196721865236701</v>
       </c>
       <c r="CJ4">
-        <v>0.1394334263860402</v>
+        <v>0.1234629700227281</v>
       </c>
       <c r="CK4">
-        <v>0.4459735309775735</v>
+        <v>0.3745739030257618</v>
       </c>
       <c r="CL4">
-        <v>0.4467976507679441</v>
+        <v>0.38522211932303</v>
       </c>
       <c r="CM4">
-        <v>0.4471246593851937</v>
+        <v>0.3954793298857723</v>
       </c>
       <c r="CN4">
-        <v>0.4703075309223458</v>
+        <v>0.423713954661739</v>
       </c>
       <c r="CO4">
-        <v>0.4703075309223458</v>
+        <v>0.4307319314278081</v>
       </c>
       <c r="CP4">
-        <v>0.4785292087295791</v>
+        <v>0.4471987407531126</v>
       </c>
       <c r="CQ4">
-        <v>0.4785292087295791</v>
+        <v>0.4472547846074042</v>
       </c>
       <c r="CR4">
-        <v>0.5200467357888819</v>
+        <v>0.4899106411668127</v>
       </c>
       <c r="CS4">
-        <v>0.5200467357888819</v>
+        <v>0.4899721126562827</v>
       </c>
       <c r="CT4">
-        <v>0.6390062805812196</v>
+        <v>0.5935404464725584</v>
       </c>
       <c r="CU4">
-        <v>0.7755102523497603</v>
+        <v>0.7109084531338365</v>
       </c>
       <c r="CV4">
-        <v>0.8108853589486913</v>
+        <v>0.7487329525366648</v>
       </c>
       <c r="CW4">
-        <v>0.8270302779727297</v>
+        <v>0.7714318341212829</v>
       </c>
       <c r="CX4">
-        <v>0.8952599424381498</v>
+        <v>0.8350982804078538</v>
       </c>
       <c r="CY4">
-        <v>0.8952599424381498</v>
+        <v>0.8352826235073261</v>
       </c>
       <c r="CZ4">
-        <v>0.926842632703224</v>
+        <v>0.8701241754037894</v>
       </c>
       <c r="DA4">
-        <v>0.926842632703224</v>
+        <v>0.876738720774722</v>
       </c>
       <c r="DB4">
-        <v>0.926842632703224</v>
+        <v>0.876914980616332</v>
       </c>
       <c r="DC4">
-        <v>0.9530681041768566</v>
+        <v>0.9075427803747935</v>
       </c>
       <c r="DD4">
-        <v>0.9530681041768566</v>
+        <v>0.909646252059508</v>
       </c>
       <c r="DE4">
-        <v>0.9530681041768566</v>
+        <v>0.9179719989927615</v>
       </c>
       <c r="DF4">
-        <v>0.9530681041768566</v>
+        <v>0.9184770461055256</v>
       </c>
       <c r="DG4">
-        <v>0.9530681041768566</v>
+        <v>0.922530807459612</v>
       </c>
       <c r="DH4">
-        <v>0.9678524557409328</v>
+        <v>0.944159526658391</v>
       </c>
       <c r="DI4">
-        <v>1</v>
+        <v>0.9794453678059579</v>
       </c>
       <c r="DJ4">
-        <v>1</v>
+        <v>0.9855671243330087</v>
       </c>
       <c r="DK4">
-        <v>1</v>
+        <v>0.9867226460112584</v>
       </c>
       <c r="DL4">
-        <v>1</v>
+        <v>0.9935245280596047</v>
       </c>
       <c r="DM4">
-        <v>1</v>
+        <v>0.9994784333918144</v>
       </c>
       <c r="DN4">
         <v>1</v>
@@ -6475,103 +6475,103 @@
         <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.203605394793228</v>
+        <v>0.1681583925085048</v>
       </c>
       <c r="CJ5">
-        <v>0.203605394793228</v>
+        <v>0.1715401089298946</v>
       </c>
       <c r="CK5">
-        <v>0.5118630776288123</v>
+        <v>0.4209912278218294</v>
       </c>
       <c r="CL5">
-        <v>0.5221664754563949</v>
+        <v>0.4389947919682559</v>
       </c>
       <c r="CM5">
-        <v>0.5598968036807404</v>
+        <v>0.478303288763446</v>
       </c>
       <c r="CN5">
-        <v>0.58945800809649</v>
+        <v>0.5112661015894928</v>
       </c>
       <c r="CO5">
-        <v>0.58945800809649</v>
+        <v>0.5112697023056428</v>
       </c>
       <c r="CP5">
-        <v>0.5904938234996756</v>
+        <v>0.5220743121209661</v>
       </c>
       <c r="CQ5">
-        <v>0.5957004136148842</v>
+        <v>0.5361187330652557</v>
       </c>
       <c r="CR5">
-        <v>0.6059911032471067</v>
+        <v>0.55411242562772</v>
       </c>
       <c r="CS5">
-        <v>0.6059911032471067</v>
+        <v>0.5546159454378217</v>
       </c>
       <c r="CT5">
-        <v>0.6905949303301421</v>
+        <v>0.6303352516728519</v>
       </c>
       <c r="CU5">
-        <v>0.771695487858725</v>
+        <v>0.7033332573165157</v>
       </c>
       <c r="CV5">
-        <v>0.8160173538106834</v>
+        <v>0.7477619868649547</v>
       </c>
       <c r="CW5">
-        <v>0.8217525985828542</v>
+        <v>0.7622170608315877</v>
       </c>
       <c r="CX5">
-        <v>0.9200292269191265</v>
+        <v>0.8485572460934055</v>
       </c>
       <c r="CY5">
-        <v>0.9200292269191265</v>
+        <v>0.8503853915592965</v>
       </c>
       <c r="CZ5">
-        <v>0.9292167517137494</v>
+        <v>0.8675221580193664</v>
       </c>
       <c r="DA5">
-        <v>0.9466778788398902</v>
+        <v>0.8910857661961618</v>
       </c>
       <c r="DB5">
-        <v>0.9466778788398902</v>
+        <v>0.8915472771807349</v>
       </c>
       <c r="DC5">
-        <v>0.958676217617338</v>
+        <v>0.910867452492105</v>
       </c>
       <c r="DD5">
-        <v>0.9643105885594532</v>
+        <v>0.9252441687962409</v>
       </c>
       <c r="DE5">
-        <v>0.9759920347057951</v>
+        <v>0.9443181854575203</v>
       </c>
       <c r="DF5">
-        <v>0.9759920347057951</v>
+        <v>0.9481641397363502</v>
       </c>
       <c r="DG5">
-        <v>0.9759920347057951</v>
+        <v>0.9487786579035111</v>
       </c>
       <c r="DH5">
-        <v>0.9759920347057951</v>
+        <v>0.9551736659204682</v>
       </c>
       <c r="DI5">
-        <v>0.9999999999999999</v>
+        <v>0.9838227847328037</v>
       </c>
       <c r="DJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9883106370430359</v>
       </c>
       <c r="DK5">
-        <v>0.9999999999999999</v>
+        <v>0.9883139938447217</v>
       </c>
       <c r="DL5">
-        <v>0.9999999999999999</v>
+        <v>0.9917693953641075</v>
       </c>
       <c r="DM5">
-        <v>0.9999999999999999</v>
+        <v>0.9993328965094552</v>
       </c>
       <c r="DN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:119">
@@ -6831,97 +6831,97 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.2744254467974087</v>
+        <v>0.2303706899218832</v>
       </c>
       <c r="CI6">
-        <v>0.3124871335555507</v>
+        <v>0.2709352030469159</v>
       </c>
       <c r="CJ6">
-        <v>0.43505250727291</v>
+        <v>0.3793583495948656</v>
       </c>
       <c r="CK6">
-        <v>0.43505250727291</v>
+        <v>0.3794790406406877</v>
       </c>
       <c r="CL6">
-        <v>0.4691638769229716</v>
+        <v>0.4168713475557017</v>
       </c>
       <c r="CM6">
-        <v>0.4984378379214139</v>
+        <v>0.4503790909419609</v>
       </c>
       <c r="CN6">
-        <v>0.5173539743995128</v>
+        <v>0.4755692349136042</v>
       </c>
       <c r="CO6">
-        <v>0.5173539743995128</v>
+        <v>0.4790159227392782</v>
       </c>
       <c r="CP6">
-        <v>0.5173539743995128</v>
+        <v>0.4805505857847734</v>
       </c>
       <c r="CQ6">
-        <v>0.5284141675363246</v>
+        <v>0.4994322052580136</v>
       </c>
       <c r="CR6">
-        <v>0.5284141675363246</v>
+        <v>0.4999232808851315</v>
       </c>
       <c r="CS6">
-        <v>0.6667712348184762</v>
+        <v>0.6210275634083369</v>
       </c>
       <c r="CT6">
-        <v>0.7006858056208057</v>
+        <v>0.6582618357884465</v>
       </c>
       <c r="CU6">
-        <v>0.8280493886173371</v>
+        <v>0.7705380677611648</v>
       </c>
       <c r="CV6">
-        <v>0.8280493886173371</v>
+        <v>0.7705382865874651</v>
       </c>
       <c r="CW6">
-        <v>0.9659294144108383</v>
+        <v>0.8912594925293911</v>
       </c>
       <c r="CX6">
-        <v>0.9891888572093006</v>
+        <v>0.9199374231532217</v>
       </c>
       <c r="CY6">
-        <v>0.9956840754679194</v>
+        <v>0.9351532504227013</v>
       </c>
       <c r="CZ6">
-        <v>0.9963596230316747</v>
+        <v>0.9456957324863624</v>
       </c>
       <c r="DA6">
-        <v>0.9963596230316747</v>
+        <v>0.951570414799886</v>
       </c>
       <c r="DB6">
-        <v>0.9963596230316747</v>
+        <v>0.9583197991870338</v>
       </c>
       <c r="DC6">
-        <v>0.9963596230316747</v>
+        <v>0.9671119234370871</v>
       </c>
       <c r="DD6">
-        <v>0.9963596230316747</v>
+        <v>0.9676152811037265</v>
       </c>
       <c r="DE6">
-        <v>0.9963596230316747</v>
+        <v>0.9695873098074204</v>
       </c>
       <c r="DF6">
-        <v>0.9963596230316747</v>
+        <v>0.9748575408215812</v>
       </c>
       <c r="DG6">
-        <v>0.9963596230316747</v>
+        <v>0.9773345824788896</v>
       </c>
       <c r="DH6">
-        <v>1</v>
+        <v>0.9902578987873725</v>
       </c>
       <c r="DI6">
-        <v>1</v>
+        <v>0.9915973783425902</v>
       </c>
       <c r="DJ6">
-        <v>1</v>
+        <v>0.9928782219819142</v>
       </c>
       <c r="DK6">
-        <v>1</v>
+        <v>0.9974291826259069</v>
       </c>
       <c r="DL6">
-        <v>1</v>
+        <v>0.9975314174044885</v>
       </c>
       <c r="DM6">
         <v>1</v>
@@ -7190,97 +7190,97 @@
         <v>0</v>
       </c>
       <c r="CH7">
-        <v>0.3110039119940276</v>
+        <v>0.2532391155057309</v>
       </c>
       <c r="CI7">
-        <v>0.3550813047227722</v>
+        <v>0.2977124632922515</v>
       </c>
       <c r="CJ7">
-        <v>0.5859712525262568</v>
+        <v>0.4882936859617672</v>
       </c>
       <c r="CK7">
-        <v>0.58649753426928</v>
+        <v>0.4987052959150279</v>
       </c>
       <c r="CL7">
-        <v>0.5868106723090888</v>
+        <v>0.5089502041521814</v>
       </c>
       <c r="CM7">
-        <v>0.6537437821912306</v>
+        <v>0.571299225556429</v>
       </c>
       <c r="CN7">
-        <v>0.6537437821912306</v>
+        <v>0.5740752661499329</v>
       </c>
       <c r="CO7">
-        <v>0.6537437821912306</v>
+        <v>0.5815214135882567</v>
       </c>
       <c r="CP7">
-        <v>0.6537437821912306</v>
+        <v>0.5817574329197072</v>
       </c>
       <c r="CQ7">
-        <v>0.6718108244990263</v>
+        <v>0.6058878384267518</v>
       </c>
       <c r="CR7">
-        <v>0.6769727503694208</v>
+        <v>0.6199250297114872</v>
       </c>
       <c r="CS7">
-        <v>0.8054471277332796</v>
+        <v>0.7304060613318696</v>
       </c>
       <c r="CT7">
-        <v>0.810222023473111</v>
+        <v>0.7441405526729655</v>
       </c>
       <c r="CU7">
-        <v>0.8592687490728942</v>
+        <v>0.7925004629289261</v>
       </c>
       <c r="CV7">
-        <v>0.8592687490728942</v>
+        <v>0.7966701087017773</v>
       </c>
       <c r="CW7">
-        <v>0.9362470606295534</v>
+        <v>0.8668755778102364</v>
       </c>
       <c r="CX7">
-        <v>0.9442794175087769</v>
+        <v>0.8831577604689748</v>
       </c>
       <c r="CY7">
-        <v>0.9630048407393648</v>
+        <v>0.9078030919533135</v>
       </c>
       <c r="CZ7">
-        <v>0.9630048407393648</v>
+        <v>0.9110008236069759</v>
       </c>
       <c r="DA7">
-        <v>0.9630048407393648</v>
+        <v>0.9120197713035333</v>
       </c>
       <c r="DB7">
-        <v>0.9776184814284355</v>
+        <v>0.9334492385817339</v>
       </c>
       <c r="DC7">
-        <v>0.9776184814284355</v>
+        <v>0.940224839234692</v>
       </c>
       <c r="DD7">
-        <v>0.9842096220870998</v>
+        <v>0.9553798329892984</v>
       </c>
       <c r="DE7">
-        <v>0.9842096220870998</v>
+        <v>0.9578800978522392</v>
       </c>
       <c r="DF7">
-        <v>0.9842096220870998</v>
+        <v>0.9612328733612462</v>
       </c>
       <c r="DG7">
-        <v>0.9842096220870998</v>
+        <v>0.9641409007396203</v>
       </c>
       <c r="DH7">
-        <v>1</v>
+        <v>0.9864907053848715</v>
       </c>
       <c r="DI7">
-        <v>1</v>
+        <v>0.989423821667669</v>
       </c>
       <c r="DJ7">
-        <v>1</v>
+        <v>0.9894256858259384</v>
       </c>
       <c r="DK7">
-        <v>1</v>
+        <v>0.9939816030582931</v>
       </c>
       <c r="DL7">
-        <v>1</v>
+        <v>0.9999893618060334</v>
       </c>
       <c r="DM7">
         <v>1</v>
@@ -7549,106 +7549,106 @@
         <v>0</v>
       </c>
       <c r="CH8">
-        <v>0.2430762483051611</v>
+        <v>0.198081402365918</v>
       </c>
       <c r="CI8">
-        <v>0.2430762483051611</v>
+        <v>0.2023571088328455</v>
       </c>
       <c r="CJ8">
-        <v>0.4802211462190461</v>
+        <v>0.3958491006442846</v>
       </c>
       <c r="CK8">
-        <v>0.4890980257538796</v>
+        <v>0.4127176283724598</v>
       </c>
       <c r="CL8">
-        <v>0.4890980257538796</v>
+        <v>0.4193076961436864</v>
       </c>
       <c r="CM8">
-        <v>0.5516463016458366</v>
+        <v>0.4777047218808976</v>
       </c>
       <c r="CN8">
-        <v>0.5870956945332814</v>
+        <v>0.5151338581037042</v>
       </c>
       <c r="CO8">
-        <v>0.6033578777914314</v>
+        <v>0.537716799687057</v>
       </c>
       <c r="CP8">
-        <v>0.6033578777914314</v>
+        <v>0.5384204051706922</v>
       </c>
       <c r="CQ8">
-        <v>0.6197193909096314</v>
+        <v>0.5610802037053321</v>
       </c>
       <c r="CR8">
-        <v>0.6291513600033833</v>
+        <v>0.5783782346178291</v>
       </c>
       <c r="CS8">
-        <v>0.7208113849185187</v>
+        <v>0.6593006145176986</v>
       </c>
       <c r="CT8">
-        <v>0.7676406247051593</v>
+        <v>0.7055349613624133</v>
       </c>
       <c r="CU8">
-        <v>0.7892381148799872</v>
+        <v>0.7322461220290292</v>
       </c>
       <c r="CV8">
-        <v>0.8085087494878945</v>
+        <v>0.7571568671421685</v>
       </c>
       <c r="CW8">
-        <v>0.9288588824623619</v>
+        <v>0.8602783545050369</v>
       </c>
       <c r="CX8">
-        <v>0.9288588824623619</v>
+        <v>0.860895341154009</v>
       </c>
       <c r="CY8">
-        <v>0.9821649686497641</v>
+        <v>0.9121411786830566</v>
       </c>
       <c r="CZ8">
-        <v>0.9821649686497641</v>
+        <v>0.9133406689763041</v>
       </c>
       <c r="DA8">
-        <v>0.9821649686497641</v>
+        <v>0.9135558787354217</v>
       </c>
       <c r="DB8">
-        <v>0.9920482086616946</v>
+        <v>0.9312030826655614</v>
       </c>
       <c r="DC8">
-        <v>0.9920482086616946</v>
+        <v>0.9314477222120019</v>
       </c>
       <c r="DD8">
-        <v>0.9926429190882454</v>
+        <v>0.9419078822309556</v>
       </c>
       <c r="DE8">
-        <v>0.9926429190882454</v>
+        <v>0.9470633284732237</v>
       </c>
       <c r="DF8">
-        <v>0.9926429190882454</v>
+        <v>0.9551056702669218</v>
       </c>
       <c r="DG8">
-        <v>0.9926429190882454</v>
+        <v>0.9602184962885989</v>
       </c>
       <c r="DH8">
-        <v>0.9995152102118511</v>
+        <v>0.9755359642066158</v>
       </c>
       <c r="DI8">
-        <v>0.9995152102118511</v>
+        <v>0.983011246566875</v>
       </c>
       <c r="DJ8">
-        <v>0.9995152102118511</v>
+        <v>0.9838367814567693</v>
       </c>
       <c r="DK8">
-        <v>1</v>
+        <v>0.9942118898593529</v>
       </c>
       <c r="DL8">
-        <v>1</v>
+        <v>0.9999802694587435</v>
       </c>
       <c r="DM8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:119">
@@ -7794,97 +7794,97 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.05396069671075102</v>
+        <v>0.05059154123310714</v>
       </c>
       <c r="AW9">
-        <v>0.1869862239904881</v>
+        <v>0.1606590256204138</v>
       </c>
       <c r="AX9">
-        <v>0.4191233331973921</v>
+        <v>0.3452824759182481</v>
       </c>
       <c r="AY9">
-        <v>0.4799016302091175</v>
+        <v>0.4010025073413773</v>
       </c>
       <c r="AZ9">
-        <v>0.4799016302091175</v>
+        <v>0.4062897617210162</v>
       </c>
       <c r="BA9">
-        <v>0.4907875182003465</v>
+        <v>0.4244785917063585</v>
       </c>
       <c r="BB9">
-        <v>0.5452111371797752</v>
+        <v>0.4754183628457154</v>
       </c>
       <c r="BC9">
-        <v>0.5452111371797752</v>
+        <v>0.4786483738004958</v>
       </c>
       <c r="BD9">
-        <v>0.5463917560841189</v>
+        <v>0.4895364857756458</v>
       </c>
       <c r="BE9">
-        <v>0.5606623621206108</v>
+        <v>0.5102714452676769</v>
       </c>
       <c r="BF9">
-        <v>0.5750693099823061</v>
+        <v>0.5311089669050636</v>
       </c>
       <c r="BG9">
-        <v>0.6373083219632651</v>
+        <v>0.5879278105288821</v>
       </c>
       <c r="BH9">
-        <v>0.7800509627584958</v>
+        <v>0.7053049228115669</v>
       </c>
       <c r="BI9">
-        <v>0.7800509627584958</v>
+        <v>0.7059043866111502</v>
       </c>
       <c r="BJ9">
-        <v>0.8172559464257815</v>
+        <v>0.7438915646993607</v>
       </c>
       <c r="BK9">
-        <v>0.839054345799</v>
+        <v>0.7702892519219099</v>
       </c>
       <c r="BL9">
-        <v>0.917073186456034</v>
+        <v>0.838978356780303</v>
       </c>
       <c r="BM9">
-        <v>0.953370399331517</v>
+        <v>0.8762826708995179</v>
       </c>
       <c r="BN9">
-        <v>0.953370399331517</v>
+        <v>0.8781175422060509</v>
       </c>
       <c r="BO9">
-        <v>0.953370399331517</v>
+        <v>0.8860743844306331</v>
       </c>
       <c r="BP9">
-        <v>0.953370399331517</v>
+        <v>0.8920728600647436</v>
       </c>
       <c r="BQ9">
-        <v>0.953370399331517</v>
+        <v>0.899312800741092</v>
       </c>
       <c r="BR9">
-        <v>0.953370399331517</v>
+        <v>0.9029236775176431</v>
       </c>
       <c r="BS9">
-        <v>0.953370399331517</v>
+        <v>0.9064251525685132</v>
       </c>
       <c r="BT9">
-        <v>0.953370399331517</v>
+        <v>0.9079856497382467</v>
       </c>
       <c r="BU9">
-        <v>0.9559180674591844</v>
+        <v>0.9199021145386702</v>
       </c>
       <c r="BV9">
-        <v>0.9694927537403799</v>
+        <v>0.9401135734615098</v>
       </c>
       <c r="BW9">
-        <v>0.9908661068372259</v>
+        <v>0.9661915227172601</v>
       </c>
       <c r="BX9">
-        <v>0.9908661068372259</v>
+        <v>0.9711835444703134</v>
       </c>
       <c r="BY9">
-        <v>0.9910280433488464</v>
+        <v>0.9813053600321811</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9980544491015666</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -8021,352 +8021,352 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05866867180360678</v>
+        <v>0.05644232829206049</v>
       </c>
       <c r="E10">
-        <v>0.1632881805493217</v>
+        <v>0.151119342891408</v>
       </c>
       <c r="F10">
-        <v>0.1632881805493217</v>
+        <v>0.1547892098311357</v>
       </c>
       <c r="G10">
-        <v>0.1632881805493217</v>
+        <v>0.1547892098311357</v>
       </c>
       <c r="H10">
-        <v>0.1632881805493217</v>
+        <v>0.1547892098311357</v>
       </c>
       <c r="I10">
-        <v>0.1632881805493217</v>
+        <v>0.1620940262262354</v>
       </c>
       <c r="J10">
-        <v>0.1880939255968201</v>
+        <v>0.1903597538701372</v>
       </c>
       <c r="K10">
-        <v>0.1880939255968201</v>
+        <v>0.1946638921694472</v>
       </c>
       <c r="L10">
-        <v>0.2162335486218026</v>
+        <v>0.2257036667543539</v>
       </c>
       <c r="M10">
-        <v>0.2637213019517389</v>
+        <v>0.2728425973519017</v>
       </c>
       <c r="N10">
-        <v>0.2637213019517389</v>
+        <v>0.272893001441503</v>
       </c>
       <c r="O10">
-        <v>0.2637213019517389</v>
+        <v>0.272893001441503</v>
       </c>
       <c r="P10">
-        <v>0.2637213019517389</v>
+        <v>0.272893001441503</v>
       </c>
       <c r="Q10">
-        <v>0.2637213019517389</v>
+        <v>0.272893001441503</v>
       </c>
       <c r="R10">
-        <v>0.2722768137538794</v>
+        <v>0.2876372654537566</v>
       </c>
       <c r="S10">
-        <v>0.2976897046289229</v>
+        <v>0.3164081858602671</v>
       </c>
       <c r="T10">
-        <v>0.37037656143521</v>
+        <v>0.3845147392642719</v>
       </c>
       <c r="U10">
-        <v>0.3785714363421287</v>
+        <v>0.3989589252044545</v>
       </c>
       <c r="V10">
-        <v>0.3878261926997194</v>
+        <v>0.414285015316272</v>
       </c>
       <c r="W10">
-        <v>0.5245073368944082</v>
+        <v>0.5356398154679161</v>
       </c>
       <c r="X10">
-        <v>0.7045282343102401</v>
+        <v>0.6930566762765475</v>
       </c>
       <c r="Y10">
-        <v>0.8637004820273085</v>
+        <v>0.8331258317067759</v>
       </c>
       <c r="Z10">
-        <v>0.9253422917964624</v>
+        <v>0.8920420430666072</v>
       </c>
       <c r="AA10">
-        <v>0.9299869202028662</v>
+        <v>0.9035321465505388</v>
       </c>
       <c r="AB10">
-        <v>0.9299869202028662</v>
+        <v>0.907783909128028</v>
       </c>
       <c r="AC10">
-        <v>0.9299869202028662</v>
+        <v>0.907783909128028</v>
       </c>
       <c r="AD10">
-        <v>0.9299869202028662</v>
+        <v>0.9101508859652977</v>
       </c>
       <c r="AE10">
-        <v>0.9299869202028662</v>
+        <v>0.9167484904786294</v>
       </c>
       <c r="AF10">
-        <v>0.9299869202028662</v>
+        <v>0.9188674183962445</v>
       </c>
       <c r="AG10">
-        <v>0.9370555219957108</v>
+        <v>0.9323744571139031</v>
       </c>
       <c r="AH10">
-        <v>0.9539729117904199</v>
+        <v>0.9540764568990321</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CP10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CQ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CR10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CS10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CT10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CU10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CV10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CW10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CX10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CY10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CZ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DA10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DB10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DC10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:119">
@@ -8632,97 +8632,97 @@
         <v>0</v>
       </c>
       <c r="CJ11">
-        <v>0.3245724846825674</v>
+        <v>0.2617457971327486</v>
       </c>
       <c r="CK11">
-        <v>0.3384028456431408</v>
+        <v>0.2824729394783432</v>
       </c>
       <c r="CL11">
-        <v>0.5699220935220943</v>
+        <v>0.4720445309084161</v>
       </c>
       <c r="CM11">
-        <v>0.6019179247361472</v>
+        <v>0.5068612249106335</v>
       </c>
       <c r="CN11">
-        <v>0.6250780379754114</v>
+        <v>0.5348247352026579</v>
       </c>
       <c r="CO11">
-        <v>0.6435984789444235</v>
+        <v>0.5591896102152575</v>
       </c>
       <c r="CP11">
-        <v>0.6492286747613442</v>
+        <v>0.5735565180735449</v>
       </c>
       <c r="CQ11">
-        <v>0.6492286747613442</v>
+        <v>0.5834546140089832</v>
       </c>
       <c r="CR11">
-        <v>0.6492286747613442</v>
+        <v>0.5839934829844221</v>
       </c>
       <c r="CS11">
-        <v>0.6492286747613442</v>
+        <v>0.5897549797219304</v>
       </c>
       <c r="CT11">
-        <v>0.6869385845534874</v>
+        <v>0.6290036429587775</v>
       </c>
       <c r="CU11">
-        <v>0.8051851707797949</v>
+        <v>0.7307183831558134</v>
       </c>
       <c r="CV11">
-        <v>0.8052601677666434</v>
+        <v>0.7407765525236056</v>
       </c>
       <c r="CW11">
-        <v>0.8550958537323051</v>
+        <v>0.7894302433974725</v>
       </c>
       <c r="CX11">
-        <v>0.8599009915486405</v>
+        <v>0.8031572175157164</v>
       </c>
       <c r="CY11">
-        <v>0.9193353417097885</v>
+        <v>0.8592558505314458</v>
       </c>
       <c r="CZ11">
-        <v>0.9236440885985719</v>
+        <v>0.8725978125625801</v>
       </c>
       <c r="DA11">
-        <v>0.9850664588297663</v>
+        <v>0.9302383991352758</v>
       </c>
       <c r="DB11">
-        <v>0.9850664588297663</v>
+        <v>0.9302770016617938</v>
       </c>
       <c r="DC11">
-        <v>0.9850664588297663</v>
+        <v>0.9311153859667494</v>
       </c>
       <c r="DD11">
-        <v>0.9864882879608841</v>
+        <v>0.9422181889611247</v>
       </c>
       <c r="DE11">
-        <v>0.9864882879608841</v>
+        <v>0.9447992823697953</v>
       </c>
       <c r="DF11">
-        <v>0.9937990588546922</v>
+        <v>0.9604696824596753</v>
       </c>
       <c r="DG11">
-        <v>0.9952369366071152</v>
+        <v>0.971584933129544</v>
       </c>
       <c r="DH11">
-        <v>0.9952369366071152</v>
+        <v>0.9719509218089677</v>
       </c>
       <c r="DI11">
-        <v>0.9952369366071152</v>
+        <v>0.9738204498087532</v>
       </c>
       <c r="DJ11">
-        <v>1</v>
+        <v>0.987514790047755</v>
       </c>
       <c r="DK11">
-        <v>1</v>
+        <v>0.9919544920088165</v>
       </c>
       <c r="DL11">
-        <v>1</v>
+        <v>0.9927999520526923</v>
       </c>
       <c r="DM11">
-        <v>1</v>
+        <v>0.9966718037941394</v>
       </c>
       <c r="DN11">
-        <v>1</v>
+        <v>0.9994670906030334</v>
       </c>
       <c r="DO11">
         <v>1</v>
@@ -8793,16 +8793,16 @@
         <v>83</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5892774124955195</v>
+        <v>0.596791837741518</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -8834,16 +8834,16 @@
         <v>83</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5043151789925492</v>
+        <v>0.5123669436098404</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -8875,16 +8875,16 @@
         <v>84</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5200467357888819</v>
+        <v>0.5935404464725584</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -8916,16 +8916,16 @@
         <v>84</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5118630776288123</v>
+        <v>0.5112661015894928</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -8957,16 +8957,16 @@
         <v>83</v>
       </c>
       <c r="D6">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5173539743995128</v>
+        <v>0.6210275634083369</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -8998,16 +8998,16 @@
         <v>83</v>
       </c>
       <c r="D7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5859712525262568</v>
+        <v>0.5089502041521814</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -9039,16 +9039,16 @@
         <v>83</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5516463016458366</v>
+        <v>0.5151338581037042</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -9080,16 +9080,16 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5452111371797752</v>
+        <v>0.5102714452676769</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>12</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5245073368944082</v>
+        <v>0.5356398154679161</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -9162,16 +9162,16 @@
         <v>85</v>
       </c>
       <c r="D11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5699220935220943</v>
+        <v>0.5068612249106335</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>12</v>
@@ -9257,16 +9257,16 @@
         <v>83</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7038137204085497</v>
+        <v>0.8143637124523496</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8317191685531655</v>
+        <v>0.7631446410723912</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7755102523497603</v>
+        <v>0.7109084531338365</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.771695487858725</v>
+        <v>0.7033332573165157</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -9421,16 +9421,16 @@
         <v>83</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7006858056208057</v>
+        <v>0.7705380677611648</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8054471277332796</v>
+        <v>0.7304060613318696</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -9503,16 +9503,16 @@
         <v>83</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7208113849185187</v>
+        <v>0.7055349613624133</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7800509627584958</v>
+        <v>0.7053049228115669</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -9585,16 +9585,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8331258317067759</v>
+      </c>
+      <c r="G10">
         <v>23</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7045282343102401</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
       </c>
       <c r="H10">
         <v>12</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8051851707797949</v>
+        <v>0.7307183831558134</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8967660060965225</v>
+        <v>0.8143637124523496</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -9762,16 +9762,16 @@
         <v>83</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8317191685531655</v>
+        <v>0.8347435124076059</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -9803,16 +9803,16 @@
         <v>84</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8108853589486913</v>
+        <v>0.8350982804078538</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -9844,16 +9844,16 @@
         <v>84</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8160173538106834</v>
+        <v>0.8485572460934055</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -9885,16 +9885,16 @@
         <v>83</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8280493886173371</v>
+        <v>0.8912594925293911</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -9926,16 +9926,16 @@
         <v>83</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8054471277332796</v>
+        <v>0.8668755778102364</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -9967,16 +9967,16 @@
         <v>83</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8085087494878945</v>
+        <v>0.8602783545050369</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -10008,16 +10008,16 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8172559464257815</v>
+        <v>0.838978356780303</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <v>12</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8637004820273085</v>
+        <v>0.8331258317067759</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -10090,16 +10090,16 @@
         <v>85</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8051851707797949</v>
+        <v>0.8031572175157164</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>12</v>
@@ -10185,16 +10185,16 @@
         <v>83</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9473992434676685</v>
+        <v>0.9106504043751427</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -10226,16 +10226,16 @@
         <v>83</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9017294337262266</v>
+        <v>0.9075233302332155</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -10267,16 +10267,16 @@
         <v>84</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.926842632703224</v>
+        <v>0.9075427803747935</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -10308,16 +10308,16 @@
         <v>84</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9200292269191265</v>
+        <v>0.910867452492105</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -10349,16 +10349,16 @@
         <v>83</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9659294144108383</v>
+        <v>0.9199374231532217</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -10390,16 +10390,16 @@
         <v>83</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9362470606295534</v>
+        <v>0.9078030919533135</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -10431,16 +10431,16 @@
         <v>83</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9288588824623619</v>
+        <v>0.9121411786830566</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -10472,16 +10472,16 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.917073186456034</v>
+        <v>0.9029236775176431</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>12</v>
@@ -10513,16 +10513,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.9035321465505388</v>
+      </c>
+      <c r="G10">
         <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9253422917964624</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
       </c>
       <c r="H10">
         <v>12</v>
@@ -10554,16 +10554,16 @@
         <v>85</v>
       </c>
       <c r="D11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9193353417097885</v>
+        <v>0.9302383991352758</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>12</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/12_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/12_455-55R22.xlsx
@@ -19,7 +19,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="150">
+  <si>
+    <t>Signal_Value_1</t>
+  </si>
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
   <si>
     <t>Signal_Value_7</t>
   </si>
@@ -370,9 +388,6 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
-  </si>
-  <si>
-    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -811,15 +826,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DO11"/>
+  <dimension ref="A1:DT11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:119">
+    <row r="1" spans="1:124">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1175,10 +1190,25 @@
       <c r="DO1" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:119">
+    <row r="2" spans="1:124">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1433,111 +1463,126 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.2249777582959693</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.2695762577496729</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.1022378216958758</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.009304663203275268</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.03745639972338249</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.002857822867674904</v>
+        <v>0.004546480677277204</v>
       </c>
       <c r="CN2">
-        <v>0.004925485919507793</v>
+        <v>0.2240007912535153</v>
       </c>
       <c r="CO2">
-        <v>0.005082872498054075</v>
+        <v>0.2684056214999196</v>
       </c>
       <c r="CP2">
-        <v>0.01176367037736587</v>
+        <v>0.1017938534429886</v>
       </c>
       <c r="CQ2">
-        <v>1.363519110457816E-05</v>
+        <v>0.009264257656702194</v>
       </c>
       <c r="CR2">
-        <v>0.01139366810246692</v>
+        <v>0.03729374511994128</v>
       </c>
       <c r="CS2">
-        <v>0.1347736568279998</v>
+        <v>0.002845412757555412</v>
       </c>
       <c r="CT2">
-        <v>0.0001756367451645541</v>
+        <v>0.004904096972227504</v>
       </c>
       <c r="CU2">
-        <v>0.0507757121355001</v>
+        <v>0.005060800098768001</v>
       </c>
       <c r="CV2">
-        <v>0.007099346328404574</v>
+        <v>0.01171258657982061</v>
       </c>
       <c r="CW2">
-        <v>0.01379541050045922</v>
+        <v>1.357598021889936E-05</v>
       </c>
       <c r="CX2">
-        <v>0.02444058621326464</v>
+        <v>0.01134419104165398</v>
       </c>
       <c r="CY2">
-        <v>8.417643049573597E-06</v>
+        <v>0.134188401548059</v>
       </c>
       <c r="CZ2">
-        <v>0.005781907734067388</v>
+        <v>0.0001748740417188032</v>
       </c>
       <c r="DA2">
-        <v>0.01399531909463761</v>
+        <v>0.05055521835118453</v>
       </c>
       <c r="DB2">
-        <v>6.461167766009255E-05</v>
+        <v>0.00706851738140843</v>
       </c>
       <c r="DC2">
-        <v>0.02686143504238039</v>
+        <v>0.01373550386125118</v>
       </c>
       <c r="DD2">
-        <v>0.002673279196723928</v>
+        <v>0.02433445284519542</v>
       </c>
       <c r="DE2">
-        <v>0.005579702131621142</v>
+        <v>8.381089392461608E-06</v>
       </c>
       <c r="DF2">
-        <v>0.001656926074692258</v>
+        <v>0.005756799770767024</v>
       </c>
       <c r="DG2">
-        <v>0.0132674342338117</v>
+        <v>0.01393454435135787</v>
       </c>
       <c r="DH2">
-        <v>0.00878364350700651</v>
+        <v>6.433110112617347E-05</v>
       </c>
       <c r="DI2">
-        <v>0.0005844612168661797</v>
+        <v>0.0267447891261432</v>
       </c>
       <c r="DJ2">
-        <v>0.0001806803315175779</v>
+        <v>0.002661670468420034</v>
       </c>
       <c r="DK2">
-        <v>0.003890820092055884</v>
+        <v>0.005555472247162374</v>
       </c>
       <c r="DL2">
-        <v>0.005816092352536995</v>
+        <v>0.001649730864912332</v>
       </c>
       <c r="DM2">
-        <v>0.0002048652962300886</v>
+        <v>0.01320982033418653</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>0.008745500491074594</v>
       </c>
       <c r="DO2">
+        <v>0.0005819231911040082</v>
+      </c>
+      <c r="DP2">
+        <v>0.0001798957262728226</v>
+      </c>
+      <c r="DQ2">
+        <v>0.003873924186314591</v>
+      </c>
+      <c r="DR2">
+        <v>0.005790835942359676</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:119">
+    <row r="3" spans="1:124">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1789,114 +1834,129 @@
         <v>0</v>
       </c>
       <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
         <v>0.01605415759227604</v>
       </c>
-      <c r="CH3">
+      <c r="CN3">
         <v>0.1459252796043082</v>
       </c>
-      <c r="CI3">
+      <c r="CO3">
         <v>0.2613918110789595</v>
       </c>
-      <c r="CJ3">
+      <c r="CP3">
         <v>0.07552565053424287</v>
       </c>
-      <c r="CK3">
+      <c r="CQ3">
         <v>0.01347004480005382</v>
       </c>
-      <c r="CL3">
+      <c r="CR3">
         <v>0.02288977418106199</v>
       </c>
-      <c r="CM3">
+      <c r="CS3">
         <v>0.003310311604961581</v>
       </c>
-      <c r="CN3">
+      <c r="CT3">
         <v>0.02430894585990079</v>
       </c>
-      <c r="CO3">
+      <c r="CU3">
         <v>0.01039922375239232</v>
       </c>
-      <c r="CP3">
+      <c r="CV3">
         <v>0.02364533347260089</v>
       </c>
-      <c r="CQ3">
+      <c r="CW3">
         <v>0.001084458004033325</v>
       </c>
-      <c r="CR3">
+      <c r="CX3">
         <v>0.02429442004947255</v>
       </c>
-      <c r="CS3">
+      <c r="CY3">
         <v>0.1408452305381274</v>
       </c>
-      <c r="CT3">
+      <c r="CZ3">
         <v>0.006990113656644464</v>
       </c>
-      <c r="CU3">
+      <c r="DA3">
         <v>0.0646087576785702</v>
       </c>
-      <c r="CV3">
+      <c r="DB3">
         <v>0.01964266313340891</v>
       </c>
-      <c r="CW3">
+      <c r="DC3">
         <v>0.00627338423869748</v>
       </c>
-      <c r="CX3">
+      <c r="DD3">
         <v>0.04686377045350316</v>
       </c>
-      <c r="CY3">
+      <c r="DE3">
         <v>0.000270284179120362</v>
       </c>
-      <c r="CZ3">
+      <c r="DF3">
         <v>0.005843181596648577</v>
       </c>
-      <c r="DA3">
+      <c r="DG3">
         <v>0.01759867921460276</v>
       </c>
-      <c r="DB3">
+      <c r="DH3">
         <v>5.584384360951014E-05</v>
       </c>
-      <c r="DC3">
+      <c r="DI3">
         <v>0.02588309676230855</v>
       </c>
-      <c r="DD3">
+      <c r="DJ3">
         <v>0.004804338010552469</v>
       </c>
-      <c r="DE3">
+      <c r="DK3">
         <v>0.0006990940088819771</v>
       </c>
-      <c r="DF3">
+      <c r="DL3">
         <v>0.002030969720290403</v>
       </c>
-      <c r="DG3">
+      <c r="DM3">
         <v>0.01590693460333197</v>
       </c>
-      <c r="DH3">
+      <c r="DN3">
         <v>0.01075695145503477</v>
       </c>
-      <c r="DI3">
+      <c r="DO3">
         <v>7.635980310400446E-05</v>
       </c>
-      <c r="DJ3">
+      <c r="DP3">
         <v>0.001476117620351974</v>
       </c>
-      <c r="DK3">
+      <c r="DQ3">
         <v>0.0043230156894965</v>
       </c>
-      <c r="DL3">
+      <c r="DR3">
         <v>0.002751803259450833</v>
       </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:119">
+    <row r="4" spans="1:124">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2154,108 +2214,123 @@
         <v>0</v>
       </c>
       <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
         <v>0.1196721865236701</v>
       </c>
-      <c r="CJ4">
+      <c r="CP4">
         <v>0.00379078349905809</v>
       </c>
-      <c r="CK4">
+      <c r="CQ4">
         <v>0.2511109330030337</v>
       </c>
-      <c r="CL4">
+      <c r="CR4">
         <v>0.01064821629726815</v>
       </c>
-      <c r="CM4">
+      <c r="CS4">
         <v>0.0102572105627424</v>
       </c>
-      <c r="CN4">
+      <c r="CT4">
         <v>0.02823462477596669</v>
       </c>
-      <c r="CO4">
+      <c r="CU4">
         <v>0.007017976766069078</v>
       </c>
-      <c r="CP4">
+      <c r="CV4">
         <v>0.01646680932530454</v>
       </c>
-      <c r="CQ4">
+      <c r="CW4">
         <v>5.60438542915847E-05</v>
       </c>
-      <c r="CR4">
+      <c r="CX4">
         <v>0.04265585655940853</v>
       </c>
-      <c r="CS4">
+      <c r="CY4">
         <v>6.147148946993795E-05</v>
       </c>
-      <c r="CT4">
+      <c r="CZ4">
         <v>0.1035683338162758</v>
       </c>
-      <c r="CU4">
+      <c r="DA4">
         <v>0.1173680066612781</v>
       </c>
-      <c r="CV4">
+      <c r="DB4">
         <v>0.03782449940282823</v>
       </c>
-      <c r="CW4">
+      <c r="DC4">
         <v>0.02269888158461807</v>
       </c>
-      <c r="CX4">
+      <c r="DD4">
         <v>0.06366644628657096</v>
       </c>
-      <c r="CY4">
+      <c r="DE4">
         <v>0.0001843430994722521</v>
       </c>
-      <c r="CZ4">
+      <c r="DF4">
         <v>0.03484155189646336</v>
       </c>
-      <c r="DA4">
+      <c r="DG4">
         <v>0.006614545370932591</v>
       </c>
-      <c r="DB4">
+      <c r="DH4">
         <v>0.0001762598416099902</v>
       </c>
-      <c r="DC4">
+      <c r="DI4">
         <v>0.03062779975846153</v>
       </c>
-      <c r="DD4">
+      <c r="DJ4">
         <v>0.002103471684714524</v>
       </c>
-      <c r="DE4">
+      <c r="DK4">
         <v>0.008325746933253447</v>
       </c>
-      <c r="DF4">
+      <c r="DL4">
         <v>0.0005050471127641088</v>
       </c>
-      <c r="DG4">
+      <c r="DM4">
         <v>0.004053761354086464</v>
       </c>
-      <c r="DH4">
+      <c r="DN4">
         <v>0.021628719198779</v>
       </c>
-      <c r="DI4">
+      <c r="DO4">
         <v>0.03528584114756692</v>
       </c>
-      <c r="DJ4">
+      <c r="DP4">
         <v>0.006121756527050846</v>
       </c>
-      <c r="DK4">
+      <c r="DQ4">
         <v>0.001155521678249587</v>
       </c>
-      <c r="DL4">
+      <c r="DR4">
         <v>0.006801882048346268</v>
       </c>
-      <c r="DM4">
+      <c r="DS4">
         <v>0.005953905332209793</v>
       </c>
-      <c r="DN4">
+      <c r="DT4">
         <v>0.0005215666081855738</v>
       </c>
-      <c r="DO4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:119">
+    <row r="5" spans="1:124">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2357,100 +2432,100 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.06835113802420623</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.07042088267348547</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.04707580394688869</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.02895377354060665</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.01752301559851747</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.002371592144345073</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>0.001792051695414691</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.005502844822812429</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.007007471985163698</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.005842789802377655</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.004499169233778921</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.01476084290155099</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.003779198992887778</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.01011959965174278</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.02377105852524519</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.02483962922963618</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.02860888863521987</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.03460611325527548</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.02869378474326559</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.05355410811259905</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.04649143504314698</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.01264866459881002</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.002812435615501873</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>7.879349158565027E-06</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.008837096344627723</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.01353147659829572</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.03615191748879139</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.07162384154775385</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.09089082163459564</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.08310162745565919</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.07575330378893322</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.07607574301970609</v>
       </c>
       <c r="BO5">
         <v>0</v>
@@ -2513,108 +2588,123 @@
         <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.1681583925085048</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.003381716421389815</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.2494511188919347</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0180035641464265</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.03930849679519008</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.03296281282604691</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>3.60071615006932E-06</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.01080460981532327</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.01404442094428954</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.01799369256246432</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0005035198101016438</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.07571930623503023</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.07299800564366386</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.04442872954843887</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01445507396663298</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.08634018526181785</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.001828145465890909</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.01713676646006991</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.02356360817679539</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.000461510984573099</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01932017531137013</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.01437671630413597</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01907401666127936</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.003845954278829865</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.000614518167160948</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.006395008016957067</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.02864911881233556</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.00448785231023218</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>3.356801685818977E-06</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.003455401519385688</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.007563501145347743</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0006671034905447868</v>
+        <v>0</v>
       </c>
       <c r="DO5">
         <v>0</v>
       </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:119">
+    <row r="6" spans="1:124">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2869,111 +2959,126 @@
         <v>0</v>
       </c>
       <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
         <v>0.2303706899218832</v>
       </c>
-      <c r="CI6">
+      <c r="CO6">
         <v>0.04056451312503274</v>
       </c>
-      <c r="CJ6">
+      <c r="CP6">
         <v>0.1084231465479497</v>
       </c>
-      <c r="CK6">
+      <c r="CQ6">
         <v>0.0001206910458220724</v>
       </c>
-      <c r="CL6">
+      <c r="CR6">
         <v>0.037392306915014</v>
       </c>
-      <c r="CM6">
+      <c r="CS6">
         <v>0.03350774338625926</v>
       </c>
-      <c r="CN6">
+      <c r="CT6">
         <v>0.02519014397164324</v>
       </c>
-      <c r="CO6">
+      <c r="CU6">
         <v>0.003446687825673967</v>
       </c>
-      <c r="CP6">
+      <c r="CV6">
         <v>0.001534663045495246</v>
       </c>
-      <c r="CQ6">
+      <c r="CW6">
         <v>0.0188816194732402</v>
       </c>
-      <c r="CR6">
+      <c r="CX6">
         <v>0.0004910756271179226</v>
       </c>
-      <c r="CS6">
+      <c r="CY6">
         <v>0.1211042825232054</v>
       </c>
-      <c r="CT6">
+      <c r="CZ6">
         <v>0.03723427238010964</v>
       </c>
-      <c r="CU6">
+      <c r="DA6">
         <v>0.1122762319727184</v>
       </c>
-      <c r="CV6">
+      <c r="DB6">
         <v>2.18826300283937E-07</v>
       </c>
-      <c r="CW6">
+      <c r="DC6">
         <v>0.1207212059419259</v>
       </c>
-      <c r="CX6">
+      <c r="DD6">
         <v>0.0286779306238306</v>
       </c>
-      <c r="CY6">
+      <c r="DE6">
         <v>0.01521582726947954</v>
       </c>
-      <c r="CZ6">
+      <c r="DF6">
         <v>0.01054248206366118</v>
       </c>
-      <c r="DA6">
+      <c r="DG6">
         <v>0.00587468231352364</v>
       </c>
-      <c r="DB6">
+      <c r="DH6">
         <v>0.006749384387147781</v>
       </c>
-      <c r="DC6">
+      <c r="DI6">
         <v>0.008792124250053287</v>
       </c>
-      <c r="DD6">
+      <c r="DJ6">
         <v>0.000503357666639423</v>
       </c>
-      <c r="DE6">
+      <c r="DK6">
         <v>0.001972028703693788</v>
       </c>
-      <c r="DF6">
+      <c r="DL6">
         <v>0.005270231014160762</v>
       </c>
-      <c r="DG6">
+      <c r="DM6">
         <v>0.002477041657308433</v>
       </c>
-      <c r="DH6">
+      <c r="DN6">
         <v>0.0129233163084829</v>
       </c>
-      <c r="DI6">
+      <c r="DO6">
         <v>0.001339479555217731</v>
       </c>
-      <c r="DJ6">
+      <c r="DP6">
         <v>0.001280843639323974</v>
       </c>
-      <c r="DK6">
+      <c r="DQ6">
         <v>0.004550960643992668</v>
       </c>
-      <c r="DL6">
+      <c r="DR6">
         <v>0.0001022347785816617</v>
       </c>
-      <c r="DM6">
+      <c r="DS6">
         <v>0.002468582595511672</v>
       </c>
-      <c r="DN6">
-        <v>0</v>
-      </c>
-      <c r="DO6">
+      <c r="DT6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:119">
+    <row r="7" spans="1:124">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3228,111 +3333,126 @@
         <v>0</v>
       </c>
       <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
         <v>0.2532391155057309</v>
       </c>
-      <c r="CI7">
+      <c r="CO7">
         <v>0.04447334778652063</v>
       </c>
-      <c r="CJ7">
+      <c r="CP7">
         <v>0.1905812226695157</v>
       </c>
-      <c r="CK7">
+      <c r="CQ7">
         <v>0.01041160995326073</v>
       </c>
-      <c r="CL7">
+      <c r="CR7">
         <v>0.0102449082371535</v>
       </c>
-      <c r="CM7">
+      <c r="CS7">
         <v>0.06234902140424754</v>
       </c>
-      <c r="CN7">
+      <c r="CT7">
         <v>0.002776040593503857</v>
       </c>
-      <c r="CO7">
+      <c r="CU7">
         <v>0.007446147438323871</v>
       </c>
-      <c r="CP7">
+      <c r="CV7">
         <v>0.0002360193314504686</v>
       </c>
-      <c r="CQ7">
+      <c r="CW7">
         <v>0.0241304055070446</v>
       </c>
-      <c r="CR7">
+      <c r="CX7">
         <v>0.01403719128473547</v>
       </c>
-      <c r="CS7">
+      <c r="CY7">
         <v>0.1104810316203824</v>
       </c>
-      <c r="CT7">
+      <c r="CZ7">
         <v>0.013734491341096</v>
       </c>
-      <c r="CU7">
+      <c r="DA7">
         <v>0.04835991025596051</v>
       </c>
-      <c r="CV7">
+      <c r="DB7">
         <v>0.00416964577285128</v>
       </c>
-      <c r="CW7">
+      <c r="DC7">
         <v>0.0702054691084591</v>
       </c>
-      <c r="CX7">
+      <c r="DD7">
         <v>0.0162821826587384</v>
       </c>
-      <c r="CY7">
+      <c r="DE7">
         <v>0.02464533148433878</v>
       </c>
-      <c r="CZ7">
+      <c r="DF7">
         <v>0.003197731653662381</v>
       </c>
-      <c r="DA7">
+      <c r="DG7">
         <v>0.00101894769655745</v>
       </c>
-      <c r="DB7">
+      <c r="DH7">
         <v>0.02142946727820063</v>
       </c>
-      <c r="DC7">
+      <c r="DI7">
         <v>0.006775600652958178</v>
       </c>
-      <c r="DD7">
+      <c r="DJ7">
         <v>0.01515499375460635</v>
       </c>
-      <c r="DE7">
+      <c r="DK7">
         <v>0.002500264862940761</v>
       </c>
-      <c r="DF7">
+      <c r="DL7">
         <v>0.003352775509006984</v>
       </c>
-      <c r="DG7">
+      <c r="DM7">
         <v>0.00290802737837411</v>
       </c>
-      <c r="DH7">
+      <c r="DN7">
         <v>0.02234980464525121</v>
       </c>
-      <c r="DI7">
+      <c r="DO7">
         <v>0.002933116282797513</v>
       </c>
-      <c r="DJ7">
+      <c r="DP7">
         <v>1.86415826941827E-06</v>
       </c>
-      <c r="DK7">
+      <c r="DQ7">
         <v>0.00455591723235476</v>
       </c>
-      <c r="DL7">
+      <c r="DR7">
         <v>0.006007758747740272</v>
       </c>
-      <c r="DM7">
+      <c r="DS7">
         <v>1.063819396663898E-05</v>
       </c>
-      <c r="DN7">
-        <v>0</v>
-      </c>
-      <c r="DO7">
+      <c r="DT7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:119">
+    <row r="8" spans="1:124">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3365,100 +3485,100 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04453808306353588</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07966658774189161</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.08949800241514846</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.06687754694467672</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.0455299790969853</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.02358551965464756</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.008499555057721495</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.0007990228933060298</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>4.703159472885875E-05</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.001180130685179458</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.004498675120088619</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.006542938791989634</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.01296922837025632</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.01544102244482485</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.01744988338244436</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.01203179108645844</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.01703469743123796</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.02385101765181822</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.03872242829908961</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.08597745219700875</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.09142231421483206</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.07086521894952454</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.04747283908777748</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.01436706732307596</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.002571767474047455</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1.833855783197678E-07</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.002588946160365951</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.01440763158675214</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.02603160557618052</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.03919620402425852</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.05481982260577604</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.04151580568879285</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3587,100 +3707,100 @@
         <v>0</v>
       </c>
       <c r="CH8">
-        <v>0.198081402365918</v>
+        <v>0</v>
       </c>
       <c r="CI8">
-        <v>0.004275706466927469</v>
+        <v>0</v>
       </c>
       <c r="CJ8">
-        <v>0.1934919918114391</v>
+        <v>0</v>
       </c>
       <c r="CK8">
-        <v>0.01686852772817523</v>
+        <v>0</v>
       </c>
       <c r="CL8">
-        <v>0.006590067771226634</v>
+        <v>0</v>
       </c>
       <c r="CM8">
-        <v>0.05839702573721122</v>
+        <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.0374291362228065</v>
+        <v>0</v>
       </c>
       <c r="CO8">
-        <v>0.02258294158335281</v>
+        <v>0</v>
       </c>
       <c r="CP8">
-        <v>0.0007036054836352561</v>
+        <v>0</v>
       </c>
       <c r="CQ8">
-        <v>0.02265979853463983</v>
+        <v>0</v>
       </c>
       <c r="CR8">
-        <v>0.01729803091249707</v>
+        <v>0</v>
       </c>
       <c r="CS8">
-        <v>0.08092237989986947</v>
+        <v>0</v>
       </c>
       <c r="CT8">
-        <v>0.04623434684471471</v>
+        <v>0</v>
       </c>
       <c r="CU8">
-        <v>0.02671116066661588</v>
+        <v>0</v>
       </c>
       <c r="CV8">
-        <v>0.0249107451131393</v>
+        <v>0</v>
       </c>
       <c r="CW8">
-        <v>0.1031214873628684</v>
+        <v>0</v>
       </c>
       <c r="CX8">
-        <v>0.0006169866489721357</v>
+        <v>0</v>
       </c>
       <c r="CY8">
-        <v>0.05124583752904758</v>
+        <v>0</v>
       </c>
       <c r="CZ8">
-        <v>0.001199490293247548</v>
+        <v>0</v>
       </c>
       <c r="DA8">
-        <v>0.0002152097591175756</v>
+        <v>0</v>
       </c>
       <c r="DB8">
-        <v>0.01764720393013972</v>
+        <v>0</v>
       </c>
       <c r="DC8">
-        <v>0.0002446395464405495</v>
+        <v>0</v>
       </c>
       <c r="DD8">
-        <v>0.01046016001895371</v>
+        <v>0</v>
       </c>
       <c r="DE8">
-        <v>0.005155446242268155</v>
+        <v>0</v>
       </c>
       <c r="DF8">
-        <v>0.008042341793698161</v>
+        <v>0</v>
       </c>
       <c r="DG8">
-        <v>0.005112826021677111</v>
+        <v>0</v>
       </c>
       <c r="DH8">
-        <v>0.01531746791801691</v>
+        <v>0</v>
       </c>
       <c r="DI8">
-        <v>0.00747528236025918</v>
+        <v>0</v>
       </c>
       <c r="DJ8">
-        <v>0.0008255348898943177</v>
+        <v>0</v>
       </c>
       <c r="DK8">
-        <v>0.01037510840258359</v>
+        <v>0</v>
       </c>
       <c r="DL8">
-        <v>0.005768379599390617</v>
+        <v>0</v>
       </c>
       <c r="DM8">
-        <v>1.973054125632185E-05</v>
+        <v>0</v>
       </c>
       <c r="DN8">
         <v>0</v>
@@ -3688,10 +3808,25 @@
       <c r="DO8">
         <v>0</v>
       </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:119">
+    <row r="9" spans="1:124">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3832,106 +3967,106 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.05059154123310714</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>0.1100674843873066</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.1846234502978343</v>
+        <v>0.005129016987520089</v>
       </c>
       <c r="AY9">
-        <v>0.05572003142312925</v>
+        <v>0.004707600534112215</v>
       </c>
       <c r="AZ9">
-        <v>0.005287254379638884</v>
+        <v>0.003021227680150901</v>
       </c>
       <c r="BA9">
-        <v>0.01818882998534225</v>
+        <v>0.002279647289287325</v>
       </c>
       <c r="BB9">
-        <v>0.05093977113935689</v>
+        <v>0.05156918787431752</v>
       </c>
       <c r="BC9">
-        <v>0.00323001095478042</v>
+        <v>0.1121944626092571</v>
       </c>
       <c r="BD9">
-        <v>0.01088811197514997</v>
+        <v>0.1881911711395593</v>
       </c>
       <c r="BE9">
-        <v>0.02073495949203113</v>
+        <v>0.0567967826001286</v>
       </c>
       <c r="BF9">
-        <v>0.02083752163738676</v>
+        <v>0.005389426923892115</v>
       </c>
       <c r="BG9">
-        <v>0.05681884362381847</v>
+        <v>0.01854031657992498</v>
       </c>
       <c r="BH9">
-        <v>0.1173771122826847</v>
+        <v>0.05192414708333045</v>
       </c>
       <c r="BI9">
-        <v>0.0005994637995832678</v>
+        <v>0.003292428688734477</v>
       </c>
       <c r="BJ9">
-        <v>0.03798717808821047</v>
+        <v>0.0110985172295102</v>
       </c>
       <c r="BK9">
-        <v>0.02639768722254921</v>
+        <v>0.02113564828325838</v>
       </c>
       <c r="BL9">
-        <v>0.06868910485839307</v>
+        <v>0.02124019237133563</v>
       </c>
       <c r="BM9">
-        <v>0.03730431411921496</v>
+        <v>0.05791682858874245</v>
       </c>
       <c r="BN9">
-        <v>0.001834871306532972</v>
+        <v>0.1196453440222437</v>
       </c>
       <c r="BO9">
-        <v>0.007956842224582305</v>
+        <v>0.0006110480240584509</v>
       </c>
       <c r="BP9">
-        <v>0.005998475634110493</v>
+        <v>0.03872125410490822</v>
       </c>
       <c r="BQ9">
-        <v>0.007239940676348388</v>
+        <v>0.02690780432157047</v>
       </c>
       <c r="BR9">
-        <v>0.003610876776551087</v>
+        <v>0.07001647443472472</v>
       </c>
       <c r="BS9">
-        <v>0.003501475050870057</v>
+        <v>0.03802519426068495</v>
       </c>
       <c r="BT9">
-        <v>0.001560497169733459</v>
+        <v>0.001870328929016142</v>
       </c>
       <c r="BU9">
-        <v>0.01191646480042355</v>
+        <v>0.008110602712717289</v>
       </c>
       <c r="BV9">
-        <v>0.02021145892283963</v>
+        <v>0.006114392038575213</v>
       </c>
       <c r="BW9">
-        <v>0.02607794925575022</v>
+        <v>0.007379847536512641</v>
       </c>
       <c r="BX9">
-        <v>0.004992021753053369</v>
+        <v>0.003680654479826701</v>
       </c>
       <c r="BY9">
-        <v>0.01012181556186766</v>
+        <v>0.003569138641251544</v>
       </c>
       <c r="BZ9">
-        <v>0.01674908906938557</v>
+        <v>0.001590652701259545</v>
       </c>
       <c r="CA9">
-        <v>0.001945550898433526</v>
+        <v>0.01214674226387453</v>
       </c>
       <c r="CB9">
-        <v>0</v>
+        <v>0.02060203142662698</v>
       </c>
       <c r="CC9">
-        <v>0</v>
+        <v>0.02658188763908721</v>
       </c>
       <c r="CD9">
         <v>0</v>
@@ -4047,10 +4182,25 @@
       <c r="DO9">
         <v>0</v>
       </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:119">
+    <row r="10" spans="1:124">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4059,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05644232829206049</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09467701459934753</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.003669866939727705</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4074,103 +4224,103 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.007304816395099724</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02826572764390175</v>
+        <v>0.05454271441714955</v>
       </c>
       <c r="K10">
-        <v>0.004304138299309938</v>
+        <v>0.08942973238123272</v>
       </c>
       <c r="L10">
-        <v>0.03103977458490679</v>
+        <v>0.006390787854675473</v>
       </c>
       <c r="M10">
-        <v>0.04713893059754778</v>
+        <v>2.40625869022165E-05</v>
       </c>
       <c r="N10">
-        <v>5.040408960125007E-05</v>
+        <v>0.002597991480019888</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.009707476421934076</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.02883313842955305</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.006969525081339511</v>
       </c>
       <c r="R10">
-        <v>0.01474426401225366</v>
+        <v>0.03136430148621472</v>
       </c>
       <c r="S10">
-        <v>0.02877092040651047</v>
+        <v>0.04605388310081633</v>
       </c>
       <c r="T10">
-        <v>0.06810655340400486</v>
+        <v>0.003088229950633576</v>
       </c>
       <c r="U10">
-        <v>0.01444418594018261</v>
+        <v>0.002738177661671809</v>
       </c>
       <c r="V10">
-        <v>0.01532609011181746</v>
+        <v>0.003042239031151469</v>
       </c>
       <c r="W10">
-        <v>0.1213548001516441</v>
+        <v>4.13696728341874E-09</v>
       </c>
       <c r="X10">
-        <v>0.1574168608086315</v>
+        <v>0.01649555729113791</v>
       </c>
       <c r="Y10">
-        <v>0.1400691554302283</v>
+        <v>0.02929409863837517</v>
       </c>
       <c r="Z10">
-        <v>0.05891621135983128</v>
+        <v>0.06518566903032647</v>
       </c>
       <c r="AA10">
-        <v>0.01149010348393166</v>
+        <v>0.01622175279312704</v>
       </c>
       <c r="AB10">
-        <v>0.004251762577489132</v>
+        <v>0.01702644114420057</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.1137717232197334</v>
       </c>
       <c r="AD10">
-        <v>0.002366976837269733</v>
+        <v>0.1466763414988273</v>
       </c>
       <c r="AE10">
-        <v>0.006597604513331674</v>
+        <v>0.1308475282503548</v>
       </c>
       <c r="AF10">
-        <v>0.002118927917615176</v>
+        <v>0.05679999468702616</v>
       </c>
       <c r="AG10">
-        <v>0.01350703871765859</v>
+        <v>0.0135263173738238</v>
       </c>
       <c r="AH10">
-        <v>0.02170199978512899</v>
+        <v>0.006921735157463609</v>
       </c>
       <c r="AI10">
-        <v>0.04592354310096787</v>
+        <v>5.510495318011567E-05</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.005201973330492636</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.009062185038467101</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.004975642531112947</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.01536665824038436</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.02284410297938601</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.0449449098223191</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -4406,10 +4556,25 @@
       <c r="DO10">
         <v>0</v>
       </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:119">
+    <row r="11" spans="1:124">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4418,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.03756375979388741</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.02796316433221049</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.01615696316745353</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4436,22 +4601,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01925320281646503</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.03153102585260432</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.02543895044446732</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1037841662769563</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06931013604938162</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.007440099970724883</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -4466,25 +4631,25 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.003583130988132328</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.07272184536607444</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.1671392863177428</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.1970804135844841</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.1300875938121924</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.06233781455614531</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.02860844667107781</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -4670,100 +4835,115 @@
         <v>0</v>
       </c>
       <c r="CJ11">
-        <v>0.2617457971327486</v>
+        <v>0</v>
       </c>
       <c r="CK11">
-        <v>0.02072714234559451</v>
+        <v>0</v>
       </c>
       <c r="CL11">
-        <v>0.1895715914300729</v>
+        <v>0</v>
       </c>
       <c r="CM11">
-        <v>0.03481669400221733</v>
+        <v>0</v>
       </c>
       <c r="CN11">
-        <v>0.02796351029202453</v>
+        <v>0</v>
       </c>
       <c r="CO11">
-        <v>0.02436487501259955</v>
+        <v>0</v>
       </c>
       <c r="CP11">
-        <v>0.01436690785828741</v>
+        <v>0</v>
       </c>
       <c r="CQ11">
-        <v>0.009898095935438309</v>
+        <v>0</v>
       </c>
       <c r="CR11">
-        <v>0.0005388689754388296</v>
+        <v>0</v>
       </c>
       <c r="CS11">
-        <v>0.005761496737508212</v>
+        <v>0</v>
       </c>
       <c r="CT11">
-        <v>0.03924866323684714</v>
+        <v>0</v>
       </c>
       <c r="CU11">
-        <v>0.1017147401970358</v>
+        <v>0</v>
       </c>
       <c r="CV11">
-        <v>0.01005816936779222</v>
+        <v>0</v>
       </c>
       <c r="CW11">
-        <v>0.0486536908738668</v>
+        <v>0</v>
       </c>
       <c r="CX11">
-        <v>0.01372697411824402</v>
+        <v>0</v>
       </c>
       <c r="CY11">
-        <v>0.05609863301572932</v>
+        <v>0</v>
       </c>
       <c r="CZ11">
-        <v>0.01334196203113425</v>
+        <v>0</v>
       </c>
       <c r="DA11">
-        <v>0.05764058657269579</v>
+        <v>0</v>
       </c>
       <c r="DB11">
-        <v>3.860252651799622E-05</v>
+        <v>0</v>
       </c>
       <c r="DC11">
-        <v>0.0008383843049554961</v>
+        <v>0</v>
       </c>
       <c r="DD11">
-        <v>0.01110280299437544</v>
+        <v>0</v>
       </c>
       <c r="DE11">
-        <v>0.002581093408670482</v>
+        <v>0</v>
       </c>
       <c r="DF11">
-        <v>0.01567040008988011</v>
+        <v>0</v>
       </c>
       <c r="DG11">
-        <v>0.01111525066986863</v>
+        <v>0</v>
       </c>
       <c r="DH11">
-        <v>0.0003659886794237279</v>
+        <v>0</v>
       </c>
       <c r="DI11">
-        <v>0.001869527999785427</v>
+        <v>0</v>
       </c>
       <c r="DJ11">
-        <v>0.01369434023900183</v>
+        <v>0</v>
       </c>
       <c r="DK11">
-        <v>0.004439701961061493</v>
+        <v>0</v>
       </c>
       <c r="DL11">
-        <v>0.0008454600438758443</v>
+        <v>0</v>
       </c>
       <c r="DM11">
-        <v>0.003871851741447134</v>
+        <v>0</v>
       </c>
       <c r="DN11">
-        <v>0.002795286808893945</v>
+        <v>0</v>
       </c>
       <c r="DO11">
-        <v>0.0005329093969666564</v>
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
+      </c>
+      <c r="DT11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4773,15 +4953,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DO11"/>
+  <dimension ref="A1:DT11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:119">
+    <row r="1" spans="1:124">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5137,10 +5317,25 @@
       <c r="DO1" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:119">
+    <row r="2" spans="1:124">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5395,111 +5590,126 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.2249777582959693</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.4945540160456422</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.596791837741518</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.6060965009447933</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.6435529006681757</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.6464107235358506</v>
+        <v>0.004546480677277204</v>
       </c>
       <c r="CN2">
-        <v>0.6513362094553584</v>
+        <v>0.2285472719307925</v>
       </c>
       <c r="CO2">
-        <v>0.6564190819534125</v>
+        <v>0.4969528934307121</v>
       </c>
       <c r="CP2">
-        <v>0.6681827523307784</v>
+        <v>0.5987467468737008</v>
       </c>
       <c r="CQ2">
-        <v>0.6681963875218829</v>
+        <v>0.608011004530403</v>
       </c>
       <c r="CR2">
-        <v>0.6795900556243498</v>
+        <v>0.6453047496503443</v>
       </c>
       <c r="CS2">
-        <v>0.8143637124523496</v>
+        <v>0.6481501624078998</v>
       </c>
       <c r="CT2">
-        <v>0.8145393491975141</v>
+        <v>0.6530542593801273</v>
       </c>
       <c r="CU2">
-        <v>0.8653150613330143</v>
+        <v>0.6581150594788953</v>
       </c>
       <c r="CV2">
-        <v>0.8724144076614189</v>
+        <v>0.6698276460587159</v>
       </c>
       <c r="CW2">
-        <v>0.886209818161878</v>
+        <v>0.6698412220389348</v>
       </c>
       <c r="CX2">
-        <v>0.9106504043751427</v>
+        <v>0.6811854130805888</v>
       </c>
       <c r="CY2">
-        <v>0.9106588220181923</v>
+        <v>0.8153738146286478</v>
       </c>
       <c r="CZ2">
-        <v>0.9164407297522597</v>
+        <v>0.8155486886703666</v>
       </c>
       <c r="DA2">
-        <v>0.9304360488468972</v>
+        <v>0.866103907021551</v>
       </c>
       <c r="DB2">
-        <v>0.9305006605245574</v>
+        <v>0.8731724244029595</v>
       </c>
       <c r="DC2">
-        <v>0.9573620955669377</v>
+        <v>0.8869079282642107</v>
       </c>
       <c r="DD2">
-        <v>0.9600353747636616</v>
+        <v>0.9112423811094061</v>
       </c>
       <c r="DE2">
-        <v>0.9656150768952828</v>
+        <v>0.9112507621987986</v>
       </c>
       <c r="DF2">
-        <v>0.9672720029699751</v>
+        <v>0.9170075619695657</v>
       </c>
       <c r="DG2">
-        <v>0.9805394372037868</v>
+        <v>0.9309421063209236</v>
       </c>
       <c r="DH2">
-        <v>0.9893230807107933</v>
+        <v>0.9310064374220497</v>
       </c>
       <c r="DI2">
-        <v>0.9899075419276595</v>
+        <v>0.9577512265481929</v>
       </c>
       <c r="DJ2">
-        <v>0.990088222259177</v>
+        <v>0.9604128970166129</v>
       </c>
       <c r="DK2">
-        <v>0.9939790423512329</v>
+        <v>0.9659683692637753</v>
       </c>
       <c r="DL2">
-        <v>0.9997951347037699</v>
+        <v>0.9676181001286877</v>
       </c>
       <c r="DM2">
-        <v>1</v>
+        <v>0.9808279204628741</v>
       </c>
       <c r="DN2">
-        <v>1</v>
+        <v>0.9895734209539487</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0.9901553441450528</v>
+      </c>
+      <c r="DP2">
+        <v>0.9903352398713257</v>
+      </c>
+      <c r="DQ2">
+        <v>0.9942091640576403</v>
+      </c>
+      <c r="DR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DT2">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:119">
+    <row r="3" spans="1:124">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5751,114 +5961,129 @@
         <v>0</v>
       </c>
       <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
         <v>0.01605415759227604</v>
       </c>
-      <c r="CH3">
+      <c r="CN3">
         <v>0.1619794371965842</v>
       </c>
-      <c r="CI3">
+      <c r="CO3">
         <v>0.4233712482755437</v>
       </c>
-      <c r="CJ3">
+      <c r="CP3">
         <v>0.4988968988097865</v>
       </c>
-      <c r="CK3">
+      <c r="CQ3">
         <v>0.5123669436098404</v>
       </c>
-      <c r="CL3">
+      <c r="CR3">
         <v>0.5352567177909023</v>
       </c>
-      <c r="CM3">
+      <c r="CS3">
         <v>0.5385670293958639</v>
       </c>
-      <c r="CN3">
+      <c r="CT3">
         <v>0.5628759752557646</v>
       </c>
-      <c r="CO3">
+      <c r="CU3">
         <v>0.5732751990081569</v>
       </c>
-      <c r="CP3">
+      <c r="CV3">
         <v>0.5969205324807578</v>
       </c>
-      <c r="CQ3">
+      <c r="CW3">
         <v>0.5980049904847912</v>
       </c>
-      <c r="CR3">
+      <c r="CX3">
         <v>0.6222994105342637</v>
       </c>
-      <c r="CS3">
+      <c r="CY3">
         <v>0.7631446410723912</v>
       </c>
-      <c r="CT3">
+      <c r="CZ3">
         <v>0.7701347547290357</v>
       </c>
-      <c r="CU3">
+      <c r="DA3">
         <v>0.8347435124076059</v>
       </c>
-      <c r="CV3">
+      <c r="DB3">
         <v>0.8543861755410148</v>
       </c>
-      <c r="CW3">
+      <c r="DC3">
         <v>0.8606595597797123</v>
       </c>
-      <c r="CX3">
+      <c r="DD3">
         <v>0.9075233302332155</v>
       </c>
-      <c r="CY3">
+      <c r="DE3">
         <v>0.9077936144123359</v>
       </c>
-      <c r="CZ3">
+      <c r="DF3">
         <v>0.9136367960089844</v>
       </c>
-      <c r="DA3">
+      <c r="DG3">
         <v>0.9312354752235872</v>
       </c>
-      <c r="DB3">
+      <c r="DH3">
         <v>0.9312913190671966</v>
       </c>
-      <c r="DC3">
+      <c r="DI3">
         <v>0.9571744158295052</v>
       </c>
-      <c r="DD3">
+      <c r="DJ3">
         <v>0.9619787538400577</v>
       </c>
-      <c r="DE3">
+      <c r="DK3">
         <v>0.9626778478489397</v>
       </c>
-      <c r="DF3">
+      <c r="DL3">
         <v>0.9647088175692301</v>
       </c>
-      <c r="DG3">
+      <c r="DM3">
         <v>0.980615752172562</v>
       </c>
-      <c r="DH3">
+      <c r="DN3">
         <v>0.9913727036275968</v>
       </c>
-      <c r="DI3">
+      <c r="DO3">
         <v>0.9914490634307008</v>
       </c>
-      <c r="DJ3">
+      <c r="DP3">
         <v>0.9929251810510528</v>
       </c>
-      <c r="DK3">
+      <c r="DQ3">
         <v>0.9972481967405492</v>
       </c>
-      <c r="DL3">
-        <v>1</v>
-      </c>
-      <c r="DM3">
-        <v>1</v>
-      </c>
-      <c r="DN3">
-        <v>1</v>
-      </c>
-      <c r="DO3">
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
+        <v>1</v>
+      </c>
+      <c r="DT3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:119">
+    <row r="4" spans="1:124">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6116,108 +6341,123 @@
         <v>0</v>
       </c>
       <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
         <v>0.1196721865236701</v>
       </c>
-      <c r="CJ4">
+      <c r="CP4">
         <v>0.1234629700227281</v>
       </c>
-      <c r="CK4">
+      <c r="CQ4">
         <v>0.3745739030257618</v>
       </c>
-      <c r="CL4">
+      <c r="CR4">
         <v>0.38522211932303</v>
       </c>
-      <c r="CM4">
+      <c r="CS4">
         <v>0.3954793298857723</v>
       </c>
-      <c r="CN4">
+      <c r="CT4">
         <v>0.423713954661739</v>
       </c>
-      <c r="CO4">
+      <c r="CU4">
         <v>0.4307319314278081</v>
       </c>
-      <c r="CP4">
+      <c r="CV4">
         <v>0.4471987407531126</v>
       </c>
-      <c r="CQ4">
+      <c r="CW4">
         <v>0.4472547846074042</v>
       </c>
-      <c r="CR4">
+      <c r="CX4">
         <v>0.4899106411668127</v>
       </c>
-      <c r="CS4">
+      <c r="CY4">
         <v>0.4899721126562827</v>
       </c>
-      <c r="CT4">
+      <c r="CZ4">
         <v>0.5935404464725584</v>
       </c>
-      <c r="CU4">
+      <c r="DA4">
         <v>0.7109084531338365</v>
       </c>
-      <c r="CV4">
+      <c r="DB4">
         <v>0.7487329525366648</v>
       </c>
-      <c r="CW4">
+      <c r="DC4">
         <v>0.7714318341212829</v>
       </c>
-      <c r="CX4">
+      <c r="DD4">
         <v>0.8350982804078538</v>
       </c>
-      <c r="CY4">
+      <c r="DE4">
         <v>0.8352826235073261</v>
       </c>
-      <c r="CZ4">
+      <c r="DF4">
         <v>0.8701241754037894</v>
       </c>
-      <c r="DA4">
+      <c r="DG4">
         <v>0.876738720774722</v>
       </c>
-      <c r="DB4">
+      <c r="DH4">
         <v>0.876914980616332</v>
       </c>
-      <c r="DC4">
+      <c r="DI4">
         <v>0.9075427803747935</v>
       </c>
-      <c r="DD4">
+      <c r="DJ4">
         <v>0.909646252059508</v>
       </c>
-      <c r="DE4">
+      <c r="DK4">
         <v>0.9179719989927615</v>
       </c>
-      <c r="DF4">
+      <c r="DL4">
         <v>0.9184770461055256</v>
       </c>
-      <c r="DG4">
+      <c r="DM4">
         <v>0.922530807459612</v>
       </c>
-      <c r="DH4">
+      <c r="DN4">
         <v>0.944159526658391</v>
       </c>
-      <c r="DI4">
+      <c r="DO4">
         <v>0.9794453678059579</v>
       </c>
-      <c r="DJ4">
+      <c r="DP4">
         <v>0.9855671243330087</v>
       </c>
-      <c r="DK4">
+      <c r="DQ4">
         <v>0.9867226460112584</v>
       </c>
-      <c r="DL4">
+      <c r="DR4">
         <v>0.9935245280596047</v>
       </c>
-      <c r="DM4">
+      <c r="DS4">
         <v>0.9994784333918144</v>
       </c>
-      <c r="DN4">
-        <v>1</v>
-      </c>
-      <c r="DO4">
+      <c r="DT4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:119">
+    <row r="5" spans="1:124">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6319,264 +6559,279 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.06835113802420623</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.1387720206976917</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.1858478246445804</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.214801598185187</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.2323246137837045</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.2346962059280496</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>0.2364882576234643</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.2419911024462767</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.2489985744314404</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.254841364233818</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.2593405334675969</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.2741013763691479</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.2778805753620357</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.2880001750137785</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.3117712335390237</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.3366108627686599</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.3652197514038797</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.3998258646591552</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.4285196494024208</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.4820737575150199</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.5285651925581668</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.5412138571569768</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.5440262927724786</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.5440341721216372</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.5528712684662649</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.5664027450645606</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.602554662553352</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.6741785041011058</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.7650693257357014</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.8481709531913606</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.9239242569802938</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI5">
-        <v>0.1681583925085048</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ5">
-        <v>0.1715401089298946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK5">
-        <v>0.4209912278218294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL5">
-        <v>0.4389947919682559</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM5">
-        <v>0.478303288763446</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN5">
-        <v>0.5112661015894928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO5">
-        <v>0.5112697023056428</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP5">
-        <v>0.5220743121209661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ5">
-        <v>0.5361187330652557</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR5">
-        <v>0.55411242562772</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS5">
-        <v>0.5546159454378217</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT5">
-        <v>0.6303352516728519</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU5">
-        <v>0.7033332573165157</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV5">
-        <v>0.7477619868649547</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW5">
-        <v>0.7622170608315877</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX5">
-        <v>0.8485572460934055</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY5">
-        <v>0.8503853915592965</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ5">
-        <v>0.8675221580193664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA5">
-        <v>0.8910857661961618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB5">
-        <v>0.8915472771807349</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC5">
-        <v>0.910867452492105</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD5">
-        <v>0.9252441687962409</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE5">
-        <v>0.9443181854575203</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF5">
-        <v>0.9481641397363502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG5">
-        <v>0.9487786579035111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH5">
-        <v>0.9551736659204682</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI5">
-        <v>0.9838227847328037</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ5">
-        <v>0.9883106370430359</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK5">
-        <v>0.9883139938447217</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL5">
-        <v>0.9917693953641075</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM5">
-        <v>0.9993328965094552</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DP5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DQ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DR5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DS5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DT5">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:119">
+    <row r="6" spans="1:124">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6831,111 +7086,126 @@
         <v>0</v>
       </c>
       <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
         <v>0.2303706899218832</v>
       </c>
-      <c r="CI6">
+      <c r="CO6">
         <v>0.2709352030469159</v>
       </c>
-      <c r="CJ6">
+      <c r="CP6">
         <v>0.3793583495948656</v>
       </c>
-      <c r="CK6">
+      <c r="CQ6">
         <v>0.3794790406406877</v>
       </c>
-      <c r="CL6">
+      <c r="CR6">
         <v>0.4168713475557017</v>
       </c>
-      <c r="CM6">
+      <c r="CS6">
         <v>0.4503790909419609</v>
       </c>
-      <c r="CN6">
+      <c r="CT6">
         <v>0.4755692349136042</v>
       </c>
-      <c r="CO6">
+      <c r="CU6">
         <v>0.4790159227392782</v>
       </c>
-      <c r="CP6">
+      <c r="CV6">
         <v>0.4805505857847734</v>
       </c>
-      <c r="CQ6">
+      <c r="CW6">
         <v>0.4994322052580136</v>
       </c>
-      <c r="CR6">
+      <c r="CX6">
         <v>0.4999232808851315</v>
       </c>
-      <c r="CS6">
+      <c r="CY6">
         <v>0.6210275634083369</v>
       </c>
-      <c r="CT6">
+      <c r="CZ6">
         <v>0.6582618357884465</v>
       </c>
-      <c r="CU6">
+      <c r="DA6">
         <v>0.7705380677611648</v>
       </c>
-      <c r="CV6">
+      <c r="DB6">
         <v>0.7705382865874651</v>
       </c>
-      <c r="CW6">
+      <c r="DC6">
         <v>0.8912594925293911</v>
       </c>
-      <c r="CX6">
+      <c r="DD6">
         <v>0.9199374231532217</v>
       </c>
-      <c r="CY6">
+      <c r="DE6">
         <v>0.9351532504227013</v>
       </c>
-      <c r="CZ6">
+      <c r="DF6">
         <v>0.9456957324863624</v>
       </c>
-      <c r="DA6">
+      <c r="DG6">
         <v>0.951570414799886</v>
       </c>
-      <c r="DB6">
+      <c r="DH6">
         <v>0.9583197991870338</v>
       </c>
-      <c r="DC6">
+      <c r="DI6">
         <v>0.9671119234370871</v>
       </c>
-      <c r="DD6">
+      <c r="DJ6">
         <v>0.9676152811037265</v>
       </c>
-      <c r="DE6">
+      <c r="DK6">
         <v>0.9695873098074204</v>
       </c>
-      <c r="DF6">
+      <c r="DL6">
         <v>0.9748575408215812</v>
       </c>
-      <c r="DG6">
+      <c r="DM6">
         <v>0.9773345824788896</v>
       </c>
-      <c r="DH6">
+      <c r="DN6">
         <v>0.9902578987873725</v>
       </c>
-      <c r="DI6">
+      <c r="DO6">
         <v>0.9915973783425902</v>
       </c>
-      <c r="DJ6">
+      <c r="DP6">
         <v>0.9928782219819142</v>
       </c>
-      <c r="DK6">
+      <c r="DQ6">
         <v>0.9974291826259069</v>
       </c>
-      <c r="DL6">
+      <c r="DR6">
         <v>0.9975314174044885</v>
       </c>
-      <c r="DM6">
-        <v>1</v>
-      </c>
-      <c r="DN6">
-        <v>1</v>
-      </c>
-      <c r="DO6">
+      <c r="DS6">
+        <v>1</v>
+      </c>
+      <c r="DT6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:119">
+    <row r="7" spans="1:124">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7190,111 +7460,126 @@
         <v>0</v>
       </c>
       <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
         <v>0.2532391155057309</v>
       </c>
-      <c r="CI7">
+      <c r="CO7">
         <v>0.2977124632922515</v>
       </c>
-      <c r="CJ7">
+      <c r="CP7">
         <v>0.4882936859617672</v>
       </c>
-      <c r="CK7">
+      <c r="CQ7">
         <v>0.4987052959150279</v>
       </c>
-      <c r="CL7">
+      <c r="CR7">
         <v>0.5089502041521814</v>
       </c>
-      <c r="CM7">
+      <c r="CS7">
         <v>0.571299225556429</v>
       </c>
-      <c r="CN7">
+      <c r="CT7">
         <v>0.5740752661499329</v>
       </c>
-      <c r="CO7">
+      <c r="CU7">
         <v>0.5815214135882567</v>
       </c>
-      <c r="CP7">
+      <c r="CV7">
         <v>0.5817574329197072</v>
       </c>
-      <c r="CQ7">
+      <c r="CW7">
         <v>0.6058878384267518</v>
       </c>
-      <c r="CR7">
+      <c r="CX7">
         <v>0.6199250297114872</v>
       </c>
-      <c r="CS7">
+      <c r="CY7">
         <v>0.7304060613318696</v>
       </c>
-      <c r="CT7">
+      <c r="CZ7">
         <v>0.7441405526729655</v>
       </c>
-      <c r="CU7">
+      <c r="DA7">
         <v>0.7925004629289261</v>
       </c>
-      <c r="CV7">
+      <c r="DB7">
         <v>0.7966701087017773</v>
       </c>
-      <c r="CW7">
+      <c r="DC7">
         <v>0.8668755778102364</v>
       </c>
-      <c r="CX7">
+      <c r="DD7">
         <v>0.8831577604689748</v>
       </c>
-      <c r="CY7">
+      <c r="DE7">
         <v>0.9078030919533135</v>
       </c>
-      <c r="CZ7">
+      <c r="DF7">
         <v>0.9110008236069759</v>
       </c>
-      <c r="DA7">
+      <c r="DG7">
         <v>0.9120197713035333</v>
       </c>
-      <c r="DB7">
+      <c r="DH7">
         <v>0.9334492385817339</v>
       </c>
-      <c r="DC7">
+      <c r="DI7">
         <v>0.940224839234692</v>
       </c>
-      <c r="DD7">
+      <c r="DJ7">
         <v>0.9553798329892984</v>
       </c>
-      <c r="DE7">
+      <c r="DK7">
         <v>0.9578800978522392</v>
       </c>
-      <c r="DF7">
+      <c r="DL7">
         <v>0.9612328733612462</v>
       </c>
-      <c r="DG7">
+      <c r="DM7">
         <v>0.9641409007396203</v>
       </c>
-      <c r="DH7">
+      <c r="DN7">
         <v>0.9864907053848715</v>
       </c>
-      <c r="DI7">
+      <c r="DO7">
         <v>0.989423821667669</v>
       </c>
-      <c r="DJ7">
+      <c r="DP7">
         <v>0.9894256858259384</v>
       </c>
-      <c r="DK7">
+      <c r="DQ7">
         <v>0.9939816030582931</v>
       </c>
-      <c r="DL7">
+      <c r="DR7">
         <v>0.9999893618060334</v>
       </c>
-      <c r="DM7">
-        <v>1</v>
-      </c>
-      <c r="DN7">
-        <v>1</v>
-      </c>
-      <c r="DO7">
+      <c r="DS7">
+        <v>1</v>
+      </c>
+      <c r="DT7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:119">
+    <row r="8" spans="1:124">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7327,319 +7612,319 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04453808306353588</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1242046708054275</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.213702673220576</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.2805802201652527</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.326110199262238</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.3496957189168856</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.358195273974607</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.3589942968679131</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.3590413284626419</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.3602214591478214</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.36472013426791</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.3712630730598996</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.384232301430156</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.3996733238749808</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.4171232072574252</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.4291549983438836</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.4461896957751216</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.4700407134269398</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.5087631417260294</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.5947405939230381</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.6861629081378702</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.7570281270873948</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.8045009661751722</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.8188680334982481</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.8214398009722955</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.8214399843578738</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.8240289305182398</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.838436562104992</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.8644681676811725</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.903664371705431</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.958484194311207</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG8">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH8">
-        <v>0.198081402365918</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI8">
-        <v>0.2023571088328455</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ8">
-        <v>0.3958491006442846</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK8">
-        <v>0.4127176283724598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL8">
-        <v>0.4193076961436864</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM8">
-        <v>0.4777047218808976</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN8">
-        <v>0.5151338581037042</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO8">
-        <v>0.537716799687057</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP8">
-        <v>0.5384204051706922</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ8">
-        <v>0.5610802037053321</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR8">
-        <v>0.5783782346178291</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS8">
-        <v>0.6593006145176986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT8">
-        <v>0.7055349613624133</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU8">
-        <v>0.7322461220290292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV8">
-        <v>0.7571568671421685</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW8">
-        <v>0.8602783545050369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX8">
-        <v>0.860895341154009</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY8">
-        <v>0.9121411786830566</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ8">
-        <v>0.9133406689763041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA8">
-        <v>0.9135558787354217</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB8">
-        <v>0.9312030826655614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC8">
-        <v>0.9314477222120019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD8">
-        <v>0.9419078822309556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE8">
-        <v>0.9470633284732237</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF8">
-        <v>0.9551056702669218</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG8">
-        <v>0.9602184962885989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH8">
-        <v>0.9755359642066158</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI8">
-        <v>0.983011246566875</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ8">
-        <v>0.9838367814567693</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK8">
-        <v>0.9942118898593529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL8">
-        <v>0.9999802694587435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM8">
         <v>0.9999999999999999</v>
@@ -7650,10 +7935,25 @@
       <c r="DO8">
         <v>0.9999999999999999</v>
       </c>
+      <c r="DP8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DQ8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DR8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DS8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DT8">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:119">
+    <row r="9" spans="1:124">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7794,103 +8094,103 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.05059154123310714</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>0.1606590256204138</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.3452824759182481</v>
+        <v>0.005129016987520089</v>
       </c>
       <c r="AY9">
-        <v>0.4010025073413773</v>
+        <v>0.009836617521632304</v>
       </c>
       <c r="AZ9">
-        <v>0.4062897617210162</v>
+        <v>0.0128578452017832</v>
       </c>
       <c r="BA9">
-        <v>0.4244785917063585</v>
+        <v>0.01513749249107053</v>
       </c>
       <c r="BB9">
-        <v>0.4754183628457154</v>
+        <v>0.06670668036538804</v>
       </c>
       <c r="BC9">
-        <v>0.4786483738004958</v>
+        <v>0.1789011429746451</v>
       </c>
       <c r="BD9">
-        <v>0.4895364857756458</v>
+        <v>0.3670923141142044</v>
       </c>
       <c r="BE9">
-        <v>0.5102714452676769</v>
+        <v>0.423889096714333</v>
       </c>
       <c r="BF9">
-        <v>0.5311089669050636</v>
+        <v>0.4292785236382251</v>
       </c>
       <c r="BG9">
-        <v>0.5879278105288821</v>
+        <v>0.4478188402181501</v>
       </c>
       <c r="BH9">
-        <v>0.7053049228115669</v>
+        <v>0.4997429873014805</v>
       </c>
       <c r="BI9">
-        <v>0.7059043866111502</v>
+        <v>0.5030354159902151</v>
       </c>
       <c r="BJ9">
-        <v>0.7438915646993607</v>
+        <v>0.5141339332197252</v>
       </c>
       <c r="BK9">
-        <v>0.7702892519219099</v>
+        <v>0.5352695815029836</v>
       </c>
       <c r="BL9">
-        <v>0.838978356780303</v>
+        <v>0.5565097738743193</v>
       </c>
       <c r="BM9">
-        <v>0.8762826708995179</v>
+        <v>0.6144266024630618</v>
       </c>
       <c r="BN9">
-        <v>0.8781175422060509</v>
+        <v>0.7340719464853055</v>
       </c>
       <c r="BO9">
-        <v>0.8860743844306331</v>
+        <v>0.7346829945093639</v>
       </c>
       <c r="BP9">
-        <v>0.8920728600647436</v>
+        <v>0.7734042486142721</v>
       </c>
       <c r="BQ9">
-        <v>0.899312800741092</v>
+        <v>0.8003120529358426</v>
       </c>
       <c r="BR9">
-        <v>0.9029236775176431</v>
+        <v>0.8703285273705673</v>
       </c>
       <c r="BS9">
-        <v>0.9064251525685132</v>
+        <v>0.9083537216312523</v>
       </c>
       <c r="BT9">
-        <v>0.9079856497382467</v>
+        <v>0.9102240505602684</v>
       </c>
       <c r="BU9">
-        <v>0.9199021145386702</v>
+        <v>0.9183346532729857</v>
       </c>
       <c r="BV9">
-        <v>0.9401135734615098</v>
+        <v>0.9244490453115609</v>
       </c>
       <c r="BW9">
-        <v>0.9661915227172601</v>
+        <v>0.9318288928480736</v>
       </c>
       <c r="BX9">
-        <v>0.9711835444703134</v>
+        <v>0.9355095473279003</v>
       </c>
       <c r="BY9">
-        <v>0.9813053600321811</v>
+        <v>0.9390786859691518</v>
       </c>
       <c r="BZ9">
-        <v>0.9980544491015666</v>
+        <v>0.9406693386704114</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0.9528160809342859</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0.9734181123609129</v>
       </c>
       <c r="CC9">
         <v>1</v>
@@ -8009,10 +8309,25 @@
       <c r="DO9">
         <v>1</v>
       </c>
+      <c r="DP9">
+        <v>1</v>
+      </c>
+      <c r="DQ9">
+        <v>1</v>
+      </c>
+      <c r="DR9">
+        <v>1</v>
+      </c>
+      <c r="DS9">
+        <v>1</v>
+      </c>
+      <c r="DT9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:119">
+    <row r="10" spans="1:124">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8021,115 +8336,115 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05644232829206049</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.151119342891408</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1547892098311357</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1547892098311357</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.1547892098311357</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1620940262262354</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1903597538701372</v>
+        <v>0.05454271441714955</v>
       </c>
       <c r="K10">
-        <v>0.1946638921694472</v>
+        <v>0.1439724467983823</v>
       </c>
       <c r="L10">
-        <v>0.2257036667543539</v>
+        <v>0.1503632346530578</v>
       </c>
       <c r="M10">
-        <v>0.2728425973519017</v>
+        <v>0.15038729723996</v>
       </c>
       <c r="N10">
-        <v>0.272893001441503</v>
+        <v>0.1529852887199799</v>
       </c>
       <c r="O10">
-        <v>0.272893001441503</v>
+        <v>0.1626927651419139</v>
       </c>
       <c r="P10">
-        <v>0.272893001441503</v>
+        <v>0.191525903571467</v>
       </c>
       <c r="Q10">
-        <v>0.272893001441503</v>
+        <v>0.1984954286528065</v>
       </c>
       <c r="R10">
-        <v>0.2876372654537566</v>
+        <v>0.2298597301390212</v>
       </c>
       <c r="S10">
-        <v>0.3164081858602671</v>
+        <v>0.2759136132398375</v>
       </c>
       <c r="T10">
-        <v>0.3845147392642719</v>
+        <v>0.2790018431904711</v>
       </c>
       <c r="U10">
-        <v>0.3989589252044545</v>
+        <v>0.2817400208521429</v>
       </c>
       <c r="V10">
-        <v>0.414285015316272</v>
+        <v>0.2847822598832944</v>
       </c>
       <c r="W10">
-        <v>0.5356398154679161</v>
+        <v>0.2847822640202616</v>
       </c>
       <c r="X10">
-        <v>0.6930566762765475</v>
+        <v>0.3012778213113996</v>
       </c>
       <c r="Y10">
-        <v>0.8331258317067759</v>
+        <v>0.3305719199497748</v>
       </c>
       <c r="Z10">
-        <v>0.8920420430666072</v>
+        <v>0.3957575889801012</v>
       </c>
       <c r="AA10">
-        <v>0.9035321465505388</v>
+        <v>0.4119793417732283</v>
       </c>
       <c r="AB10">
-        <v>0.907783909128028</v>
+        <v>0.4290057829174289</v>
       </c>
       <c r="AC10">
-        <v>0.907783909128028</v>
+        <v>0.5427775061371622</v>
       </c>
       <c r="AD10">
-        <v>0.9101508859652977</v>
+        <v>0.6894538476359895</v>
       </c>
       <c r="AE10">
-        <v>0.9167484904786294</v>
+        <v>0.8203013758863442</v>
       </c>
       <c r="AF10">
-        <v>0.9188674183962445</v>
+        <v>0.8771013705733703</v>
       </c>
       <c r="AG10">
-        <v>0.9323744571139031</v>
+        <v>0.8906276879471942</v>
       </c>
       <c r="AH10">
-        <v>0.9540764568990321</v>
+        <v>0.8975494231046578</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.8976045280578379</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9028065013883305</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9118686864267976</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.9168443289579106</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0.9322109871982949</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0.9550550901776809</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -8368,10 +8683,25 @@
       <c r="DO10">
         <v>1</v>
       </c>
+      <c r="DP10">
+        <v>1</v>
+      </c>
+      <c r="DQ10">
+        <v>1</v>
+      </c>
+      <c r="DR10">
+        <v>1</v>
+      </c>
+      <c r="DS10">
+        <v>1</v>
+      </c>
+      <c r="DT10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:119">
+    <row r="11" spans="1:124">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8380,351 +8710,366 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.03756375979388741</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0655269241260979</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.08168388729355143</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.08168388729355143</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08168388729355143</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.08168388729355143</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1009370901100165</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1324681159626208</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1579070664070881</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2616912326840444</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3310013687334261</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.3384414687041509</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3384414687041509</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.3384414687041509</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.3384414687041509</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.3384414687041509</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.3420245996922833</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.4147464450583577</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.5818857313761006</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.7789661449605847</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.9090537387727771</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.9713915533289224</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ11">
-        <v>0.2617457971327486</v>
+        <v>1</v>
       </c>
       <c r="CK11">
-        <v>0.2824729394783432</v>
+        <v>1</v>
       </c>
       <c r="CL11">
-        <v>0.4720445309084161</v>
+        <v>1</v>
       </c>
       <c r="CM11">
-        <v>0.5068612249106335</v>
+        <v>1</v>
       </c>
       <c r="CN11">
-        <v>0.5348247352026579</v>
+        <v>1</v>
       </c>
       <c r="CO11">
-        <v>0.5591896102152575</v>
+        <v>1</v>
       </c>
       <c r="CP11">
-        <v>0.5735565180735449</v>
+        <v>1</v>
       </c>
       <c r="CQ11">
-        <v>0.5834546140089832</v>
+        <v>1</v>
       </c>
       <c r="CR11">
-        <v>0.5839934829844221</v>
+        <v>1</v>
       </c>
       <c r="CS11">
-        <v>0.5897549797219304</v>
+        <v>1</v>
       </c>
       <c r="CT11">
-        <v>0.6290036429587775</v>
+        <v>1</v>
       </c>
       <c r="CU11">
-        <v>0.7307183831558134</v>
+        <v>1</v>
       </c>
       <c r="CV11">
-        <v>0.7407765525236056</v>
+        <v>1</v>
       </c>
       <c r="CW11">
-        <v>0.7894302433974725</v>
+        <v>1</v>
       </c>
       <c r="CX11">
-        <v>0.8031572175157164</v>
+        <v>1</v>
       </c>
       <c r="CY11">
-        <v>0.8592558505314458</v>
+        <v>1</v>
       </c>
       <c r="CZ11">
-        <v>0.8725978125625801</v>
+        <v>1</v>
       </c>
       <c r="DA11">
-        <v>0.9302383991352758</v>
+        <v>1</v>
       </c>
       <c r="DB11">
-        <v>0.9302770016617938</v>
+        <v>1</v>
       </c>
       <c r="DC11">
-        <v>0.9311153859667494</v>
+        <v>1</v>
       </c>
       <c r="DD11">
-        <v>0.9422181889611247</v>
+        <v>1</v>
       </c>
       <c r="DE11">
-        <v>0.9447992823697953</v>
+        <v>1</v>
       </c>
       <c r="DF11">
-        <v>0.9604696824596753</v>
+        <v>1</v>
       </c>
       <c r="DG11">
-        <v>0.971584933129544</v>
+        <v>1</v>
       </c>
       <c r="DH11">
-        <v>0.9719509218089677</v>
+        <v>1</v>
       </c>
       <c r="DI11">
-        <v>0.9738204498087532</v>
+        <v>1</v>
       </c>
       <c r="DJ11">
-        <v>0.987514790047755</v>
+        <v>1</v>
       </c>
       <c r="DK11">
-        <v>0.9919544920088165</v>
+        <v>1</v>
       </c>
       <c r="DL11">
-        <v>0.9927999520526923</v>
+        <v>1</v>
       </c>
       <c r="DM11">
-        <v>0.9966718037941394</v>
+        <v>1</v>
       </c>
       <c r="DN11">
-        <v>0.9994670906030334</v>
+        <v>1</v>
       </c>
       <c r="DO11">
+        <v>1</v>
+      </c>
+      <c r="DP11">
+        <v>1</v>
+      </c>
+      <c r="DQ11">
+        <v>1</v>
+      </c>
+      <c r="DR11">
+        <v>1</v>
+      </c>
+      <c r="DS11">
+        <v>1</v>
+      </c>
+      <c r="DT11">
         <v>1</v>
       </c>
     </row>
@@ -8743,63 +9088,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.596791837741518</v>
+        <v>0.5987467468737008</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -8811,30 +9156,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -8852,30 +9197,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -8893,39 +9238,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5112661015894928</v>
+        <v>0.5285651925581668</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -8934,30 +9279,30 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -8975,30 +9320,30 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9016,39 +9361,39 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5151338581037042</v>
+        <v>0.5087631417260294</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -9057,39 +9402,39 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0128578452017832</v>
       </c>
       <c r="F9">
-        <v>0.5102714452676769</v>
+        <v>0.5030354159902151</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>12</v>
@@ -9098,36 +9443,36 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5356398154679161</v>
+        <v>0.5427775061371622</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -9139,39 +9484,39 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5068612249106335</v>
+        <v>0.5818857313761006</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>12</v>
@@ -9180,16 +9525,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -9207,63 +9552,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8143637124523496</v>
+        <v>0.8153738146286478</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -9275,30 +9620,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9316,30 +9661,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9357,39 +9702,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7033332573165157</v>
+        <v>0.7650693257357014</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -9398,30 +9743,30 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -9439,30 +9784,30 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9480,39 +9825,39 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7055349613624133</v>
+        <v>0.7570281270873948</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -9521,36 +9866,36 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0128578452017832</v>
       </c>
       <c r="F9">
-        <v>0.7053049228115669</v>
+        <v>0.7340719464853055</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -9562,36 +9907,36 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8331258317067759</v>
+        <v>0.8203013758863442</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -9603,39 +9948,39 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7307183831558134</v>
+        <v>0.7789661449605847</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>12</v>
@@ -9644,16 +9989,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -9671,63 +10016,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8143637124523496</v>
+        <v>0.8153738146286478</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -9739,30 +10084,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9780,30 +10125,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9821,39 +10166,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8485572460934055</v>
+        <v>0.8481709531913606</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -9862,30 +10207,30 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -9903,30 +10248,30 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9944,39 +10289,39 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8602783545050369</v>
+        <v>0.8045009661751722</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -9985,39 +10330,39 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0128578452017832</v>
       </c>
       <c r="F9">
-        <v>0.838978356780303</v>
+        <v>0.8003120529358426</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>12</v>
@@ -10026,36 +10371,36 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8331258317067759</v>
+        <v>0.8203013758863442</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -10067,39 +10412,39 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8031572175157164</v>
+        <v>0.9090537387727771</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>12</v>
@@ -10108,16 +10453,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -10135,63 +10480,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9106504043751427</v>
+        <v>0.9112423811094061</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -10203,30 +10548,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10244,30 +10589,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -10285,39 +10630,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.910867452492105</v>
+        <v>0.9239242569802938</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -10326,30 +10671,30 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -10367,30 +10712,30 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10408,39 +10753,39 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9121411786830566</v>
+        <v>0.903664371705431</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -10449,39 +10794,39 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0128578452017832</v>
       </c>
       <c r="F9">
-        <v>0.9029236775176431</v>
+        <v>0.9083537216312523</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>12</v>
@@ -10490,39 +10835,39 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9035321465505388</v>
+        <v>0.9028065013883305</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>12</v>
@@ -10531,39 +10876,39 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9302383991352758</v>
+        <v>0.9090537387727771</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>12</v>
@@ -10572,16 +10917,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/12_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/12_455-55R22.xlsx
@@ -408,40 +408,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -451,9 +454,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -1433,100 +1433,100 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.2249777582959693</v>
+        <v>0.3047491211860124</v>
       </c>
       <c r="CI2">
-        <v>0.2695762577496729</v>
+        <v>0.3744563207841319</v>
       </c>
       <c r="CJ2">
-        <v>0.1022378216958758</v>
+        <v>0.1129073022000434</v>
       </c>
       <c r="CK2">
-        <v>0.009304663203275268</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.03745639972338249</v>
+        <v>0.01165431012630232</v>
       </c>
       <c r="CM2">
-        <v>0.002857822867674904</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.004925485919507793</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.005082872498054075</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.01176367037736587</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>1.363519110457816E-05</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01139366810246692</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.1347736568279998</v>
+        <v>0.1637606264469902</v>
       </c>
       <c r="CT2">
-        <v>0.0001756367451645541</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0507757121355001</v>
+        <v>0.0324723192565196</v>
       </c>
       <c r="CV2">
-        <v>0.007099346328404574</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01379541050045922</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.02444058621326464</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>8.417643049573597E-06</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.005781907734067388</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01399531909463761</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>6.461167766009255E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.02686143504238039</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.002673279196723928</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.005579702131621142</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.001656926074692258</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.0132674342338117</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.00878364350700651</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0005844612168661797</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0001806803315175779</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.003890820092055884</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.005816092352536995</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0002048652962300886</v>
+        <v>0</v>
       </c>
       <c r="DN2">
         <v>0</v>
@@ -1792,100 +1792,100 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.1479818478787089</v>
+        <v>0.208813990958931</v>
       </c>
       <c r="CI3">
-        <v>0.2650756834505651</v>
+        <v>0.4168016476780347</v>
       </c>
       <c r="CJ3">
-        <v>0.07659005594236251</v>
+        <v>0.08200448436704529</v>
       </c>
       <c r="CK3">
-        <v>0.01365988213917466</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.02321236656201623</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.003356964808872546</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.02465153904851867</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.01054578309910426</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.02397857417489206</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.001099741592538775</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.02463680852153297</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.1428302041733386</v>
+        <v>0.1996633956496317</v>
       </c>
       <c r="CT3">
-        <v>0.007088627402992534</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.06551930807566718</v>
+        <v>0.06234009387478088</v>
       </c>
       <c r="CV3">
-        <v>0.01991949301466354</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.006361796904641412</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.04752423547913006</v>
+        <v>0.0303763874715764</v>
       </c>
       <c r="CY3">
-        <v>0.0002740933742739271</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.00592553128907894</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.01784670262385884</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>5.663086747130661E-05</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.02624787492678387</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.004872046972007204</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0007089465482321764</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.002059592779326806</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01613111575369115</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.0109085523644295</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>7.743596447185659E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.001496920984070251</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.004383941232629689</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.002790585239489691</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.002187116811464971</v>
+        <v>0</v>
       </c>
       <c r="DN3">
         <v>0</v>
@@ -2154,100 +2154,100 @@
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.1196721865236701</v>
+        <v>0.1671051085991076</v>
       </c>
       <c r="CJ4">
-        <v>0.00379078349905809</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.2511109330030337</v>
+        <v>0.4120426623272856</v>
       </c>
       <c r="CL4">
-        <v>0.01064821629726815</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0102572105627424</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.02823462477596669</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.007017976766069078</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.01646680932530454</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>5.60438542915847E-05</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.04265585655940853</v>
+        <v>0.02358432828239834</v>
       </c>
       <c r="CS4">
-        <v>6.147148946993795E-05</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.1035683338162758</v>
+        <v>0.1370954014663076</v>
       </c>
       <c r="CU4">
-        <v>0.1173680066612781</v>
+        <v>0.1628112440122856</v>
       </c>
       <c r="CV4">
-        <v>0.03782449940282823</v>
+        <v>0.01458104093511905</v>
       </c>
       <c r="CW4">
-        <v>0.02269888158461807</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.06366644628657096</v>
+        <v>0.06273779396890761</v>
       </c>
       <c r="CY4">
-        <v>0.0001843430994722521</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.03484155189646336</v>
+        <v>0.009022285357491172</v>
       </c>
       <c r="DA4">
-        <v>0.006614545370932591</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0001762598416099902</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.03062779975846153</v>
+        <v>0.001169911774020542</v>
       </c>
       <c r="DD4">
-        <v>0.002103471684714524</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.008325746933253447</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0005050471127641088</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.004053761354086464</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.021628719198779</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.03528584114756692</v>
+        <v>0.009850223277076523</v>
       </c>
       <c r="DJ4">
-        <v>0.006121756527050846</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001155521678249587</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.006801882048346268</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.005953905332209793</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0005215666081855738</v>
+        <v>0</v>
       </c>
       <c r="DO4">
         <v>0</v>
@@ -2513,100 +2513,100 @@
         <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.1681583925085048</v>
+        <v>0.2609878969724378</v>
       </c>
       <c r="CJ5">
-        <v>0.003381716421389815</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.2494511188919347</v>
+        <v>0.4145537955960857</v>
       </c>
       <c r="CL5">
-        <v>0.0180035641464265</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.03930849679519008</v>
+        <v>0.0175842014259234</v>
       </c>
       <c r="CN5">
-        <v>0.03296281282604691</v>
+        <v>0.005596896971317508</v>
       </c>
       <c r="CO5">
-        <v>3.60071615006932E-06</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.01080460981532327</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.01404442094428954</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.01799369256246432</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0005035198101016438</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.07571930623503023</v>
+        <v>0.08636598449554833</v>
       </c>
       <c r="CU5">
-        <v>0.07299800564366386</v>
+        <v>0.08122531583637267</v>
       </c>
       <c r="CV5">
-        <v>0.04442872954843887</v>
+        <v>0.02725656916281305</v>
       </c>
       <c r="CW5">
-        <v>0.01445507396663298</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.08634018526181785</v>
+        <v>0.1064293395395015</v>
       </c>
       <c r="CY5">
-        <v>0.001828145465890909</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.01713676646006991</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.02356360817679539</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.000461510984573099</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01932017531137013</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.01437671630413597</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01907401666127936</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.003845954278829865</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.000614518167160948</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.006395008016957067</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.02864911881233556</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.00448785231023218</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>3.356801685818977E-06</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.003455401519385688</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.007563501145347743</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0006671034905447868</v>
+        <v>0</v>
       </c>
       <c r="DO5">
         <v>0</v>
@@ -2869,100 +2869,100 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.2303706899218832</v>
+        <v>0.3505469830983896</v>
       </c>
       <c r="CI6">
-        <v>0.04056451312503274</v>
+        <v>0.01848253457293261</v>
       </c>
       <c r="CJ6">
-        <v>0.1084231465479497</v>
+        <v>0.1372006925672828</v>
       </c>
       <c r="CK6">
-        <v>0.0001206910458220724</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.037392306915014</v>
+        <v>0.01293278417220497</v>
       </c>
       <c r="CM6">
-        <v>0.03350774338625926</v>
+        <v>0.006136770113512589</v>
       </c>
       <c r="CN6">
-        <v>0.02519014397164324</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.003446687825673967</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.001534663045495246</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.0188816194732402</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0004910756271179226</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.1211042825232054</v>
+        <v>0.1593862425602454</v>
       </c>
       <c r="CT6">
-        <v>0.03723427238010964</v>
+        <v>0.01265630396715263</v>
       </c>
       <c r="CU6">
-        <v>0.1122762319727184</v>
+        <v>0.1439416359248149</v>
       </c>
       <c r="CV6">
-        <v>2.18826300283937E-07</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.1207212059419259</v>
+        <v>0.1587160530234647</v>
       </c>
       <c r="CX6">
-        <v>0.0286779306238306</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01521582726947954</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.01054248206366118</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.00587468231352364</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.006749384387147781</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.008792124250053287</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.000503357666639423</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.001972028703693788</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.005270231014160762</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.002477041657308433</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0129233163084829</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.001339479555217731</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.001280843639323974</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.004550960643992668</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0001022347785816617</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.002468582595511672</v>
+        <v>0</v>
       </c>
       <c r="DN6">
         <v>0</v>
@@ -3228,100 +3228,100 @@
         <v>0</v>
       </c>
       <c r="CH7">
-        <v>0.2532391155057309</v>
+        <v>0.3918612947215527</v>
       </c>
       <c r="CI7">
-        <v>0.04447334778652063</v>
+        <v>0.02540569465047757</v>
       </c>
       <c r="CJ7">
-        <v>0.1905812226695157</v>
+        <v>0.2818751798075055</v>
       </c>
       <c r="CK7">
-        <v>0.01041160995326073</v>
+        <v>0</v>
       </c>
       <c r="CL7">
-        <v>0.0102449082371535</v>
+        <v>0</v>
       </c>
       <c r="CM7">
-        <v>0.06234902140424754</v>
+        <v>0.05678363929066113</v>
       </c>
       <c r="CN7">
-        <v>0.002776040593503857</v>
+        <v>0</v>
       </c>
       <c r="CO7">
-        <v>0.007446147438323871</v>
+        <v>0</v>
       </c>
       <c r="CP7">
-        <v>0.0002360193314504686</v>
+        <v>0</v>
       </c>
       <c r="CQ7">
-        <v>0.0241304055070446</v>
+        <v>0</v>
       </c>
       <c r="CR7">
-        <v>0.01403719128473547</v>
+        <v>0</v>
       </c>
       <c r="CS7">
-        <v>0.1104810316203824</v>
+        <v>0.1412718428840023</v>
       </c>
       <c r="CT7">
-        <v>0.013734491341096</v>
+        <v>0</v>
       </c>
       <c r="CU7">
-        <v>0.04835991025596051</v>
+        <v>0.03222794619828845</v>
       </c>
       <c r="CV7">
-        <v>0.00416964577285128</v>
+        <v>0</v>
       </c>
       <c r="CW7">
-        <v>0.0702054691084591</v>
+        <v>0.07057440244751247</v>
       </c>
       <c r="CX7">
-        <v>0.0162821826587384</v>
+        <v>0</v>
       </c>
       <c r="CY7">
-        <v>0.02464533148433878</v>
+        <v>0</v>
       </c>
       <c r="CZ7">
-        <v>0.003197731653662381</v>
+        <v>0</v>
       </c>
       <c r="DA7">
-        <v>0.00101894769655745</v>
+        <v>0</v>
       </c>
       <c r="DB7">
-        <v>0.02142946727820063</v>
+        <v>0</v>
       </c>
       <c r="DC7">
-        <v>0.006775600652958178</v>
+        <v>0</v>
       </c>
       <c r="DD7">
-        <v>0.01515499375460635</v>
+        <v>0</v>
       </c>
       <c r="DE7">
-        <v>0.002500264862940761</v>
+        <v>0</v>
       </c>
       <c r="DF7">
-        <v>0.003352775509006984</v>
+        <v>0</v>
       </c>
       <c r="DG7">
-        <v>0.00290802737837411</v>
+        <v>0</v>
       </c>
       <c r="DH7">
-        <v>0.02234980464525121</v>
+        <v>0</v>
       </c>
       <c r="DI7">
-        <v>0.002933116282797513</v>
+        <v>0</v>
       </c>
       <c r="DJ7">
-        <v>1.86415826941827E-06</v>
+        <v>0</v>
       </c>
       <c r="DK7">
-        <v>0.00455591723235476</v>
+        <v>0</v>
       </c>
       <c r="DL7">
-        <v>0.006007758747740272</v>
+        <v>0</v>
       </c>
       <c r="DM7">
-        <v>1.063819396663898E-05</v>
+        <v>0</v>
       </c>
       <c r="DN7">
         <v>0</v>
@@ -3587,100 +3587,100 @@
         <v>0</v>
       </c>
       <c r="CH8">
-        <v>0.198081402365918</v>
+        <v>0.317780110200292</v>
       </c>
       <c r="CI8">
-        <v>0.004275706466927469</v>
+        <v>0</v>
       </c>
       <c r="CJ8">
-        <v>0.1934919918114391</v>
+        <v>0.3091032228633953</v>
       </c>
       <c r="CK8">
-        <v>0.01686852772817523</v>
+        <v>0</v>
       </c>
       <c r="CL8">
-        <v>0.006590067771226634</v>
+        <v>0</v>
       </c>
       <c r="CM8">
-        <v>0.05839702573721122</v>
+        <v>0.05368833101764572</v>
       </c>
       <c r="CN8">
-        <v>0.0374291362228065</v>
+        <v>0.01404576410206781</v>
       </c>
       <c r="CO8">
-        <v>0.02258294158335281</v>
+        <v>0</v>
       </c>
       <c r="CP8">
-        <v>0.0007036054836352561</v>
+        <v>0</v>
       </c>
       <c r="CQ8">
-        <v>0.02265979853463983</v>
+        <v>0</v>
       </c>
       <c r="CR8">
-        <v>0.01729803091249707</v>
+        <v>0</v>
       </c>
       <c r="CS8">
-        <v>0.08092237989986947</v>
+        <v>0.09627549073521362</v>
       </c>
       <c r="CT8">
-        <v>0.04623434684471471</v>
+        <v>0.03069317876175267</v>
       </c>
       <c r="CU8">
-        <v>0.02671116066661588</v>
+        <v>0</v>
       </c>
       <c r="CV8">
-        <v>0.0249107451131393</v>
+        <v>0</v>
       </c>
       <c r="CW8">
-        <v>0.1031214873628684</v>
+        <v>0.138245837939851</v>
       </c>
       <c r="CX8">
-        <v>0.0006169866489721357</v>
+        <v>0</v>
       </c>
       <c r="CY8">
-        <v>0.05124583752904758</v>
+        <v>0.04016806437978199</v>
       </c>
       <c r="CZ8">
-        <v>0.001199490293247548</v>
+        <v>0</v>
       </c>
       <c r="DA8">
-        <v>0.0002152097591175756</v>
+        <v>0</v>
       </c>
       <c r="DB8">
-        <v>0.01764720393013972</v>
+        <v>0</v>
       </c>
       <c r="DC8">
-        <v>0.0002446395464405495</v>
+        <v>0</v>
       </c>
       <c r="DD8">
-        <v>0.01046016001895371</v>
+        <v>0</v>
       </c>
       <c r="DE8">
-        <v>0.005155446242268155</v>
+        <v>0</v>
       </c>
       <c r="DF8">
-        <v>0.008042341793698161</v>
+        <v>0</v>
       </c>
       <c r="DG8">
-        <v>0.005112826021677111</v>
+        <v>0</v>
       </c>
       <c r="DH8">
-        <v>0.01531746791801691</v>
+        <v>0</v>
       </c>
       <c r="DI8">
-        <v>0.00747528236025918</v>
+        <v>0</v>
       </c>
       <c r="DJ8">
-        <v>0.0008255348898943177</v>
+        <v>0</v>
       </c>
       <c r="DK8">
-        <v>0.01037510840258359</v>
+        <v>0</v>
       </c>
       <c r="DL8">
-        <v>0.005768379599390617</v>
+        <v>0</v>
       </c>
       <c r="DM8">
-        <v>1.973054125632185E-05</v>
+        <v>0</v>
       </c>
       <c r="DN8">
         <v>0</v>
@@ -3832,100 +3832,100 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.05059154123310714</v>
+        <v>0.04380071559665513</v>
       </c>
       <c r="AW9">
-        <v>0.1100674843873066</v>
+        <v>0.1703132889610737</v>
       </c>
       <c r="AX9">
-        <v>0.1846234502978343</v>
+        <v>0.328902906994642</v>
       </c>
       <c r="AY9">
-        <v>0.05572003142312925</v>
+        <v>0.05470963871758357</v>
       </c>
       <c r="AZ9">
-        <v>0.005287254379638884</v>
+        <v>0</v>
       </c>
       <c r="BA9">
-        <v>0.01818882998534225</v>
+        <v>0</v>
       </c>
       <c r="BB9">
-        <v>0.05093977113935689</v>
+        <v>0.04454144301055903</v>
       </c>
       <c r="BC9">
-        <v>0.00323001095478042</v>
+        <v>0</v>
       </c>
       <c r="BD9">
-        <v>0.01088811197514997</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>0.02073495949203113</v>
+        <v>0</v>
       </c>
       <c r="BF9">
-        <v>0.02083752163738676</v>
+        <v>0</v>
       </c>
       <c r="BG9">
-        <v>0.05681884362381847</v>
+        <v>0.057046946068776</v>
       </c>
       <c r="BH9">
-        <v>0.1173771122826847</v>
+        <v>0.1858617575743928</v>
       </c>
       <c r="BI9">
-        <v>0.0005994637995832678</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0.03798717808821047</v>
+        <v>0.0169897003775056</v>
       </c>
       <c r="BK9">
-        <v>0.02639768722254921</v>
+        <v>0</v>
       </c>
       <c r="BL9">
-        <v>0.06868910485839307</v>
+        <v>0.08229643713444054</v>
       </c>
       <c r="BM9">
-        <v>0.03730431411921496</v>
+        <v>0.01553716556437144</v>
       </c>
       <c r="BN9">
-        <v>0.001834871306532972</v>
+        <v>0</v>
       </c>
       <c r="BO9">
-        <v>0.007956842224582305</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>0.005998475634110493</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
-        <v>0.007239940676348388</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>0.003610876776551087</v>
+        <v>0</v>
       </c>
       <c r="BS9">
-        <v>0.003501475050870057</v>
+        <v>0</v>
       </c>
       <c r="BT9">
-        <v>0.001560497169733459</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>0.01191646480042355</v>
+        <v>0</v>
       </c>
       <c r="BV9">
-        <v>0.02021145892283963</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>0.02607794925575022</v>
+        <v>0</v>
       </c>
       <c r="BX9">
-        <v>0.004992021753053369</v>
+        <v>0</v>
       </c>
       <c r="BY9">
-        <v>0.01012181556186766</v>
+        <v>0</v>
       </c>
       <c r="BZ9">
-        <v>0.01674908906938557</v>
+        <v>0</v>
       </c>
       <c r="CA9">
-        <v>0.001945550898433526</v>
+        <v>0</v>
       </c>
       <c r="CB9">
         <v>0</v>
@@ -4059,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05644232829206049</v>
+        <v>0.05117150718014198</v>
       </c>
       <c r="E10">
-        <v>0.09467701459934753</v>
+        <v>0.1239108651785945</v>
       </c>
       <c r="F10">
-        <v>0.003669866939727705</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.007304816395099724</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02826572764390175</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.004304138299309938</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03103977458490679</v>
+        <v>0.002844565687034677</v>
       </c>
       <c r="M10">
-        <v>0.04713893059754778</v>
+        <v>0.03347231200264254</v>
       </c>
       <c r="N10">
-        <v>5.040408960125007E-05</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -4101,58 +4101,58 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01474426401225366</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.02877092040651047</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.06810655340400486</v>
+        <v>0.07336204483418199</v>
       </c>
       <c r="U10">
-        <v>0.01444418594018261</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.01532609011181746</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.1213548001516441</v>
+        <v>0.1746638641256424</v>
       </c>
       <c r="X10">
-        <v>0.1574168608086315</v>
+        <v>0.2432699230117744</v>
       </c>
       <c r="Y10">
-        <v>0.1400691554302283</v>
+        <v>0.2102668811709196</v>
       </c>
       <c r="Z10">
-        <v>0.05891621135983128</v>
+        <v>0.05587793172529624</v>
       </c>
       <c r="AA10">
-        <v>0.01149010348393166</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.004251762577489132</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.002366976837269733</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.006597604513331674</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.002118927917615176</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.01350703871765859</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.02170199978512899</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.04592354310096787</v>
+        <v>0.0311601050837716</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -4670,100 +4670,100 @@
         <v>0</v>
       </c>
       <c r="CJ11">
-        <v>0.2617457971327486</v>
+        <v>0.4217467650485255</v>
       </c>
       <c r="CK11">
-        <v>0.02072714234559451</v>
+        <v>0</v>
       </c>
       <c r="CL11">
-        <v>0.1895715914300729</v>
+        <v>0.2903992361972725</v>
       </c>
       <c r="CM11">
-        <v>0.03481669400221733</v>
+        <v>0.008765747378366259</v>
       </c>
       <c r="CN11">
-        <v>0.02796351029202453</v>
+        <v>0</v>
       </c>
       <c r="CO11">
-        <v>0.02436487501259955</v>
+        <v>0</v>
       </c>
       <c r="CP11">
-        <v>0.01436690785828741</v>
+        <v>0</v>
       </c>
       <c r="CQ11">
-        <v>0.009898095935438309</v>
+        <v>0</v>
       </c>
       <c r="CR11">
-        <v>0.0005388689754388296</v>
+        <v>0</v>
       </c>
       <c r="CS11">
-        <v>0.005761496737508212</v>
+        <v>0</v>
       </c>
       <c r="CT11">
-        <v>0.03924866323684714</v>
+        <v>0.01683134645556988</v>
       </c>
       <c r="CU11">
-        <v>0.1017147401970358</v>
+        <v>0.1305113622710927</v>
       </c>
       <c r="CV11">
-        <v>0.01005816936779222</v>
+        <v>0</v>
       </c>
       <c r="CW11">
-        <v>0.0486536908738668</v>
+        <v>0.03394725548253232</v>
       </c>
       <c r="CX11">
-        <v>0.01372697411824402</v>
+        <v>0</v>
       </c>
       <c r="CY11">
-        <v>0.05609863301572932</v>
+        <v>0.04749606759973922</v>
       </c>
       <c r="CZ11">
-        <v>0.01334196203113425</v>
+        <v>0</v>
       </c>
       <c r="DA11">
-        <v>0.05764058657269579</v>
+        <v>0.05030221956690162</v>
       </c>
       <c r="DB11">
-        <v>3.860252651799622E-05</v>
+        <v>0</v>
       </c>
       <c r="DC11">
-        <v>0.0008383843049554961</v>
+        <v>0</v>
       </c>
       <c r="DD11">
-        <v>0.01110280299437544</v>
+        <v>0</v>
       </c>
       <c r="DE11">
-        <v>0.002581093408670482</v>
+        <v>0</v>
       </c>
       <c r="DF11">
-        <v>0.01567040008988011</v>
+        <v>0</v>
       </c>
       <c r="DG11">
-        <v>0.01111525066986863</v>
+        <v>0</v>
       </c>
       <c r="DH11">
-        <v>0.0003659886794237279</v>
+        <v>0</v>
       </c>
       <c r="DI11">
-        <v>0.001869527999785427</v>
+        <v>0</v>
       </c>
       <c r="DJ11">
-        <v>0.01369434023900183</v>
+        <v>0</v>
       </c>
       <c r="DK11">
-        <v>0.004439701961061493</v>
+        <v>0</v>
       </c>
       <c r="DL11">
-        <v>0.0008454600438758443</v>
+        <v>0</v>
       </c>
       <c r="DM11">
-        <v>0.003871851741447134</v>
+        <v>0</v>
       </c>
       <c r="DN11">
-        <v>0.002795286808893945</v>
+        <v>0</v>
       </c>
       <c r="DO11">
-        <v>0.0005329093969666564</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5395,106 +5395,106 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.2249777582959693</v>
+        <v>0.3047491211860124</v>
       </c>
       <c r="CI2">
-        <v>0.4945540160456422</v>
+        <v>0.6792054419701443</v>
       </c>
       <c r="CJ2">
-        <v>0.596791837741518</v>
+        <v>0.7921127441701877</v>
       </c>
       <c r="CK2">
-        <v>0.6060965009447933</v>
+        <v>0.7921127441701877</v>
       </c>
       <c r="CL2">
-        <v>0.6435529006681757</v>
+        <v>0.8037670542964901</v>
       </c>
       <c r="CM2">
-        <v>0.6464107235358506</v>
+        <v>0.8037670542964901</v>
       </c>
       <c r="CN2">
-        <v>0.6513362094553584</v>
+        <v>0.8037670542964901</v>
       </c>
       <c r="CO2">
-        <v>0.6564190819534125</v>
+        <v>0.8037670542964901</v>
       </c>
       <c r="CP2">
-        <v>0.6681827523307784</v>
+        <v>0.8037670542964901</v>
       </c>
       <c r="CQ2">
-        <v>0.6681963875218829</v>
+        <v>0.8037670542964901</v>
       </c>
       <c r="CR2">
-        <v>0.6795900556243498</v>
+        <v>0.8037670542964901</v>
       </c>
       <c r="CS2">
-        <v>0.8143637124523496</v>
+        <v>0.9675276807434803</v>
       </c>
       <c r="CT2">
-        <v>0.8145393491975141</v>
+        <v>0.9675276807434803</v>
       </c>
       <c r="CU2">
-        <v>0.8653150613330143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV2">
-        <v>0.8724144076614189</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW2">
-        <v>0.886209818161878</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX2">
-        <v>0.9106504043751427</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY2">
-        <v>0.9106588220181923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ2">
-        <v>0.9164407297522597</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA2">
-        <v>0.9304360488468972</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB2">
-        <v>0.9305006605245574</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC2">
-        <v>0.9573620955669377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD2">
-        <v>0.9600353747636616</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE2">
-        <v>0.9656150768952828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF2">
-        <v>0.9672720029699751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG2">
-        <v>0.9805394372037868</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH2">
-        <v>0.9893230807107933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI2">
-        <v>0.9899075419276595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.990088222259177</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.9939790423512329</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.9997951347037699</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:119">
@@ -5754,97 +5754,97 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.1479818478787089</v>
+        <v>0.208813990958931</v>
       </c>
       <c r="CI3">
-        <v>0.4130575313292739</v>
+        <v>0.6256156386369657</v>
       </c>
       <c r="CJ3">
-        <v>0.4896475872716364</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CK3">
-        <v>0.5033074694108111</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CL3">
-        <v>0.5265198359728273</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CM3">
-        <v>0.5298768007816999</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CN3">
-        <v>0.5545283398302185</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CO3">
-        <v>0.5650741229293228</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CP3">
-        <v>0.5890526971042148</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CQ3">
-        <v>0.5901524386967536</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CR3">
-        <v>0.6147892472182865</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="CS3">
-        <v>0.7576194513916251</v>
+        <v>0.9072835186536428</v>
       </c>
       <c r="CT3">
-        <v>0.7647080787946177</v>
+        <v>0.9072835186536428</v>
       </c>
       <c r="CU3">
-        <v>0.8302273868702849</v>
+        <v>0.9696236125284237</v>
       </c>
       <c r="CV3">
-        <v>0.8501468798849484</v>
+        <v>0.9696236125284237</v>
       </c>
       <c r="CW3">
-        <v>0.8565086767895899</v>
+        <v>0.9696236125284237</v>
       </c>
       <c r="CX3">
-        <v>0.90403291226872</v>
+        <v>1</v>
       </c>
       <c r="CY3">
-        <v>0.9043070056429939</v>
+        <v>1</v>
       </c>
       <c r="CZ3">
-        <v>0.9102325369320728</v>
+        <v>1</v>
       </c>
       <c r="DA3">
-        <v>0.9280792395559316</v>
+        <v>1</v>
       </c>
       <c r="DB3">
-        <v>0.928135870423403</v>
+        <v>1</v>
       </c>
       <c r="DC3">
-        <v>0.9543837453501868</v>
+        <v>1</v>
       </c>
       <c r="DD3">
-        <v>0.9592557923221939</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.9599647388704261</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.9620243316497529</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.9781554474034441</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.9890639997678735</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.9891414357323454</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.9906383567164156</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.9950222979490453</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.997812883188535</v>
+        <v>1</v>
       </c>
       <c r="DM3">
         <v>1</v>
@@ -6116,103 +6116,103 @@
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.1196721865236701</v>
+        <v>0.1671051085991076</v>
       </c>
       <c r="CJ4">
-        <v>0.1234629700227281</v>
+        <v>0.1671051085991076</v>
       </c>
       <c r="CK4">
-        <v>0.3745739030257618</v>
+        <v>0.5791477709263932</v>
       </c>
       <c r="CL4">
-        <v>0.38522211932303</v>
+        <v>0.5791477709263932</v>
       </c>
       <c r="CM4">
-        <v>0.3954793298857723</v>
+        <v>0.5791477709263932</v>
       </c>
       <c r="CN4">
-        <v>0.423713954661739</v>
+        <v>0.5791477709263932</v>
       </c>
       <c r="CO4">
-        <v>0.4307319314278081</v>
+        <v>0.5791477709263932</v>
       </c>
       <c r="CP4">
-        <v>0.4471987407531126</v>
+        <v>0.5791477709263932</v>
       </c>
       <c r="CQ4">
-        <v>0.4472547846074042</v>
+        <v>0.5791477709263932</v>
       </c>
       <c r="CR4">
-        <v>0.4899106411668127</v>
+        <v>0.6027320992087916</v>
       </c>
       <c r="CS4">
-        <v>0.4899721126562827</v>
+        <v>0.6027320992087916</v>
       </c>
       <c r="CT4">
-        <v>0.5935404464725584</v>
+        <v>0.7398275006750992</v>
       </c>
       <c r="CU4">
-        <v>0.7109084531338365</v>
+        <v>0.9026387446873847</v>
       </c>
       <c r="CV4">
-        <v>0.7487329525366648</v>
+        <v>0.9172197856225037</v>
       </c>
       <c r="CW4">
-        <v>0.7714318341212829</v>
+        <v>0.9172197856225037</v>
       </c>
       <c r="CX4">
-        <v>0.8350982804078538</v>
+        <v>0.9799575795914113</v>
       </c>
       <c r="CY4">
-        <v>0.8352826235073261</v>
+        <v>0.9799575795914113</v>
       </c>
       <c r="CZ4">
-        <v>0.8701241754037894</v>
+        <v>0.9889798649489024</v>
       </c>
       <c r="DA4">
-        <v>0.876738720774722</v>
+        <v>0.9889798649489024</v>
       </c>
       <c r="DB4">
-        <v>0.876914980616332</v>
+        <v>0.9889798649489024</v>
       </c>
       <c r="DC4">
-        <v>0.9075427803747935</v>
+        <v>0.990149776722923</v>
       </c>
       <c r="DD4">
-        <v>0.909646252059508</v>
+        <v>0.990149776722923</v>
       </c>
       <c r="DE4">
-        <v>0.9179719989927615</v>
+        <v>0.990149776722923</v>
       </c>
       <c r="DF4">
-        <v>0.9184770461055256</v>
+        <v>0.990149776722923</v>
       </c>
       <c r="DG4">
-        <v>0.922530807459612</v>
+        <v>0.990149776722923</v>
       </c>
       <c r="DH4">
-        <v>0.944159526658391</v>
+        <v>0.990149776722923</v>
       </c>
       <c r="DI4">
-        <v>0.9794453678059579</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DJ4">
-        <v>0.9855671243330087</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DK4">
-        <v>0.9867226460112584</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DL4">
-        <v>0.9935245280596047</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DM4">
-        <v>0.9994784333918144</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DN4">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DO4">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:119">
@@ -6475,97 +6475,97 @@
         <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.1681583925085048</v>
+        <v>0.2609878969724378</v>
       </c>
       <c r="CJ5">
-        <v>0.1715401089298946</v>
+        <v>0.2609878969724378</v>
       </c>
       <c r="CK5">
-        <v>0.4209912278218294</v>
+        <v>0.6755416925685236</v>
       </c>
       <c r="CL5">
-        <v>0.4389947919682559</v>
+        <v>0.6755416925685236</v>
       </c>
       <c r="CM5">
-        <v>0.478303288763446</v>
+        <v>0.693125893994447</v>
       </c>
       <c r="CN5">
-        <v>0.5112661015894928</v>
+        <v>0.6987227909657645</v>
       </c>
       <c r="CO5">
-        <v>0.5112697023056428</v>
+        <v>0.6987227909657645</v>
       </c>
       <c r="CP5">
-        <v>0.5220743121209661</v>
+        <v>0.6987227909657645</v>
       </c>
       <c r="CQ5">
-        <v>0.5361187330652557</v>
+        <v>0.6987227909657645</v>
       </c>
       <c r="CR5">
-        <v>0.55411242562772</v>
+        <v>0.6987227909657645</v>
       </c>
       <c r="CS5">
-        <v>0.5546159454378217</v>
+        <v>0.6987227909657645</v>
       </c>
       <c r="CT5">
-        <v>0.6303352516728519</v>
+        <v>0.7850887754613128</v>
       </c>
       <c r="CU5">
-        <v>0.7033332573165157</v>
+        <v>0.8663140912976856</v>
       </c>
       <c r="CV5">
-        <v>0.7477619868649547</v>
+        <v>0.8935706604604986</v>
       </c>
       <c r="CW5">
-        <v>0.7622170608315877</v>
+        <v>0.8935706604604986</v>
       </c>
       <c r="CX5">
-        <v>0.8485572460934055</v>
+        <v>1</v>
       </c>
       <c r="CY5">
-        <v>0.8503853915592965</v>
+        <v>1</v>
       </c>
       <c r="CZ5">
-        <v>0.8675221580193664</v>
+        <v>1</v>
       </c>
       <c r="DA5">
-        <v>0.8910857661961618</v>
+        <v>1</v>
       </c>
       <c r="DB5">
-        <v>0.8915472771807349</v>
+        <v>1</v>
       </c>
       <c r="DC5">
-        <v>0.910867452492105</v>
+        <v>1</v>
       </c>
       <c r="DD5">
-        <v>0.9252441687962409</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.9443181854575203</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.9481641397363502</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.9487786579035111</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.9551736659204682</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.9838227847328037</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.9883106370430359</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.9883139938447217</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.9917693953641075</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.9993328965094552</v>
+        <v>1</v>
       </c>
       <c r="DN5">
         <v>1</v>
@@ -6831,97 +6831,97 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.2303706899218832</v>
+        <v>0.3505469830983896</v>
       </c>
       <c r="CI6">
-        <v>0.2709352030469159</v>
+        <v>0.3690295176713222</v>
       </c>
       <c r="CJ6">
-        <v>0.3793583495948656</v>
+        <v>0.506230210238605</v>
       </c>
       <c r="CK6">
-        <v>0.3794790406406877</v>
+        <v>0.506230210238605</v>
       </c>
       <c r="CL6">
-        <v>0.4168713475557017</v>
+        <v>0.51916299441081</v>
       </c>
       <c r="CM6">
-        <v>0.4503790909419609</v>
+        <v>0.5252997645243226</v>
       </c>
       <c r="CN6">
-        <v>0.4755692349136042</v>
+        <v>0.5252997645243226</v>
       </c>
       <c r="CO6">
-        <v>0.4790159227392782</v>
+        <v>0.5252997645243226</v>
       </c>
       <c r="CP6">
-        <v>0.4805505857847734</v>
+        <v>0.5252997645243226</v>
       </c>
       <c r="CQ6">
-        <v>0.4994322052580136</v>
+        <v>0.5252997645243226</v>
       </c>
       <c r="CR6">
-        <v>0.4999232808851315</v>
+        <v>0.5252997645243226</v>
       </c>
       <c r="CS6">
-        <v>0.6210275634083369</v>
+        <v>0.6846860070845679</v>
       </c>
       <c r="CT6">
-        <v>0.6582618357884465</v>
+        <v>0.6973423110517206</v>
       </c>
       <c r="CU6">
-        <v>0.7705380677611648</v>
+        <v>0.8412839469765355</v>
       </c>
       <c r="CV6">
-        <v>0.7705382865874651</v>
+        <v>0.8412839469765355</v>
       </c>
       <c r="CW6">
-        <v>0.8912594925293911</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.9199374231532217</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.9351532504227013</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.9456957324863624</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.951570414799886</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.9583197991870338</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.9671119234370871</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.9676152811037265</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.9695873098074204</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.9748575408215812</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.9773345824788896</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.9902578987873725</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.9915973783425902</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.9928782219819142</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.9974291826259069</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.9975314174044885</v>
+        <v>1</v>
       </c>
       <c r="DM6">
         <v>1</v>
@@ -7190,97 +7190,97 @@
         <v>0</v>
       </c>
       <c r="CH7">
-        <v>0.2532391155057309</v>
+        <v>0.3918612947215527</v>
       </c>
       <c r="CI7">
-        <v>0.2977124632922515</v>
+        <v>0.4172669893720303</v>
       </c>
       <c r="CJ7">
-        <v>0.4882936859617672</v>
+        <v>0.6991421691795358</v>
       </c>
       <c r="CK7">
-        <v>0.4987052959150279</v>
+        <v>0.6991421691795358</v>
       </c>
       <c r="CL7">
-        <v>0.5089502041521814</v>
+        <v>0.6991421691795358</v>
       </c>
       <c r="CM7">
-        <v>0.571299225556429</v>
+        <v>0.7559258084701969</v>
       </c>
       <c r="CN7">
-        <v>0.5740752661499329</v>
+        <v>0.7559258084701969</v>
       </c>
       <c r="CO7">
-        <v>0.5815214135882567</v>
+        <v>0.7559258084701969</v>
       </c>
       <c r="CP7">
-        <v>0.5817574329197072</v>
+        <v>0.7559258084701969</v>
       </c>
       <c r="CQ7">
-        <v>0.6058878384267518</v>
+        <v>0.7559258084701969</v>
       </c>
       <c r="CR7">
-        <v>0.6199250297114872</v>
+        <v>0.7559258084701969</v>
       </c>
       <c r="CS7">
-        <v>0.7304060613318696</v>
+        <v>0.8971976513541992</v>
       </c>
       <c r="CT7">
-        <v>0.7441405526729655</v>
+        <v>0.8971976513541992</v>
       </c>
       <c r="CU7">
-        <v>0.7925004629289261</v>
+        <v>0.9294255975524877</v>
       </c>
       <c r="CV7">
-        <v>0.7966701087017773</v>
+        <v>0.9294255975524877</v>
       </c>
       <c r="CW7">
-        <v>0.8668755778102364</v>
+        <v>1</v>
       </c>
       <c r="CX7">
-        <v>0.8831577604689748</v>
+        <v>1</v>
       </c>
       <c r="CY7">
-        <v>0.9078030919533135</v>
+        <v>1</v>
       </c>
       <c r="CZ7">
-        <v>0.9110008236069759</v>
+        <v>1</v>
       </c>
       <c r="DA7">
-        <v>0.9120197713035333</v>
+        <v>1</v>
       </c>
       <c r="DB7">
-        <v>0.9334492385817339</v>
+        <v>1</v>
       </c>
       <c r="DC7">
-        <v>0.940224839234692</v>
+        <v>1</v>
       </c>
       <c r="DD7">
-        <v>0.9553798329892984</v>
+        <v>1</v>
       </c>
       <c r="DE7">
-        <v>0.9578800978522392</v>
+        <v>1</v>
       </c>
       <c r="DF7">
-        <v>0.9612328733612462</v>
+        <v>1</v>
       </c>
       <c r="DG7">
-        <v>0.9641409007396203</v>
+        <v>1</v>
       </c>
       <c r="DH7">
-        <v>0.9864907053848715</v>
+        <v>1</v>
       </c>
       <c r="DI7">
-        <v>0.989423821667669</v>
+        <v>1</v>
       </c>
       <c r="DJ7">
-        <v>0.9894256858259384</v>
+        <v>1</v>
       </c>
       <c r="DK7">
-        <v>0.9939816030582931</v>
+        <v>1</v>
       </c>
       <c r="DL7">
-        <v>0.9999893618060334</v>
+        <v>1</v>
       </c>
       <c r="DM7">
         <v>1</v>
@@ -7549,106 +7549,106 @@
         <v>0</v>
       </c>
       <c r="CH8">
-        <v>0.198081402365918</v>
+        <v>0.317780110200292</v>
       </c>
       <c r="CI8">
-        <v>0.2023571088328455</v>
+        <v>0.317780110200292</v>
       </c>
       <c r="CJ8">
-        <v>0.3958491006442846</v>
+        <v>0.6268833330636873</v>
       </c>
       <c r="CK8">
-        <v>0.4127176283724598</v>
+        <v>0.6268833330636873</v>
       </c>
       <c r="CL8">
-        <v>0.4193076961436864</v>
+        <v>0.6268833330636873</v>
       </c>
       <c r="CM8">
-        <v>0.4777047218808976</v>
+        <v>0.680571664081333</v>
       </c>
       <c r="CN8">
-        <v>0.5151338581037042</v>
+        <v>0.6946174281834008</v>
       </c>
       <c r="CO8">
-        <v>0.537716799687057</v>
+        <v>0.6946174281834008</v>
       </c>
       <c r="CP8">
-        <v>0.5384204051706922</v>
+        <v>0.6946174281834008</v>
       </c>
       <c r="CQ8">
-        <v>0.5610802037053321</v>
+        <v>0.6946174281834008</v>
       </c>
       <c r="CR8">
-        <v>0.5783782346178291</v>
+        <v>0.6946174281834008</v>
       </c>
       <c r="CS8">
-        <v>0.6593006145176986</v>
+        <v>0.7908929189186144</v>
       </c>
       <c r="CT8">
-        <v>0.7055349613624133</v>
+        <v>0.8215860976803671</v>
       </c>
       <c r="CU8">
-        <v>0.7322461220290292</v>
+        <v>0.8215860976803671</v>
       </c>
       <c r="CV8">
-        <v>0.7571568671421685</v>
+        <v>0.8215860976803671</v>
       </c>
       <c r="CW8">
-        <v>0.8602783545050369</v>
+        <v>0.9598319356202181</v>
       </c>
       <c r="CX8">
-        <v>0.860895341154009</v>
+        <v>0.9598319356202181</v>
       </c>
       <c r="CY8">
-        <v>0.9121411786830566</v>
+        <v>1</v>
       </c>
       <c r="CZ8">
-        <v>0.9133406689763041</v>
+        <v>1</v>
       </c>
       <c r="DA8">
-        <v>0.9135558787354217</v>
+        <v>1</v>
       </c>
       <c r="DB8">
-        <v>0.9312030826655614</v>
+        <v>1</v>
       </c>
       <c r="DC8">
-        <v>0.9314477222120019</v>
+        <v>1</v>
       </c>
       <c r="DD8">
-        <v>0.9419078822309556</v>
+        <v>1</v>
       </c>
       <c r="DE8">
-        <v>0.9470633284732237</v>
+        <v>1</v>
       </c>
       <c r="DF8">
-        <v>0.9551056702669218</v>
+        <v>1</v>
       </c>
       <c r="DG8">
-        <v>0.9602184962885989</v>
+        <v>1</v>
       </c>
       <c r="DH8">
-        <v>0.9755359642066158</v>
+        <v>1</v>
       </c>
       <c r="DI8">
-        <v>0.983011246566875</v>
+        <v>1</v>
       </c>
       <c r="DJ8">
-        <v>0.9838367814567693</v>
+        <v>1</v>
       </c>
       <c r="DK8">
-        <v>0.9942118898593529</v>
+        <v>1</v>
       </c>
       <c r="DL8">
-        <v>0.9999802694587435</v>
+        <v>1</v>
       </c>
       <c r="DM8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DN8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DO8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:119">
@@ -7794,97 +7794,97 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.05059154123310714</v>
+        <v>0.04380071559665513</v>
       </c>
       <c r="AW9">
-        <v>0.1606590256204138</v>
+        <v>0.2141140045577289</v>
       </c>
       <c r="AX9">
-        <v>0.3452824759182481</v>
+        <v>0.5430169115523709</v>
       </c>
       <c r="AY9">
-        <v>0.4010025073413773</v>
+        <v>0.5977265502699545</v>
       </c>
       <c r="AZ9">
-        <v>0.4062897617210162</v>
+        <v>0.5977265502699545</v>
       </c>
       <c r="BA9">
-        <v>0.4244785917063585</v>
+        <v>0.5977265502699545</v>
       </c>
       <c r="BB9">
-        <v>0.4754183628457154</v>
+        <v>0.6422679932805135</v>
       </c>
       <c r="BC9">
-        <v>0.4786483738004958</v>
+        <v>0.6422679932805135</v>
       </c>
       <c r="BD9">
-        <v>0.4895364857756458</v>
+        <v>0.6422679932805135</v>
       </c>
       <c r="BE9">
-        <v>0.5102714452676769</v>
+        <v>0.6422679932805135</v>
       </c>
       <c r="BF9">
-        <v>0.5311089669050636</v>
+        <v>0.6422679932805135</v>
       </c>
       <c r="BG9">
-        <v>0.5879278105288821</v>
+        <v>0.6993149393492896</v>
       </c>
       <c r="BH9">
-        <v>0.7053049228115669</v>
+        <v>0.8851766969236824</v>
       </c>
       <c r="BI9">
-        <v>0.7059043866111502</v>
+        <v>0.8851766969236824</v>
       </c>
       <c r="BJ9">
-        <v>0.7438915646993607</v>
+        <v>0.902166397301188</v>
       </c>
       <c r="BK9">
-        <v>0.7702892519219099</v>
+        <v>0.902166397301188</v>
       </c>
       <c r="BL9">
-        <v>0.838978356780303</v>
+        <v>0.9844628344356285</v>
       </c>
       <c r="BM9">
-        <v>0.8762826708995179</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0.8781175422060509</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>0.8860743844306331</v>
+        <v>1</v>
       </c>
       <c r="BP9">
-        <v>0.8920728600647436</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0.899312800741092</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>0.9029236775176431</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>0.9064251525685132</v>
+        <v>1</v>
       </c>
       <c r="BT9">
-        <v>0.9079856497382467</v>
+        <v>1</v>
       </c>
       <c r="BU9">
-        <v>0.9199021145386702</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>0.9401135734615098</v>
+        <v>1</v>
       </c>
       <c r="BW9">
-        <v>0.9661915227172601</v>
+        <v>1</v>
       </c>
       <c r="BX9">
-        <v>0.9711835444703134</v>
+        <v>1</v>
       </c>
       <c r="BY9">
-        <v>0.9813053600321811</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
-        <v>0.9980544491015666</v>
+        <v>1</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -8021,97 +8021,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05644232829206049</v>
+        <v>0.05117150718014198</v>
       </c>
       <c r="E10">
-        <v>0.151119342891408</v>
+        <v>0.1750823723587365</v>
       </c>
       <c r="F10">
-        <v>0.1547892098311357</v>
+        <v>0.1750823723587365</v>
       </c>
       <c r="G10">
-        <v>0.1547892098311357</v>
+        <v>0.1750823723587365</v>
       </c>
       <c r="H10">
-        <v>0.1547892098311357</v>
+        <v>0.1750823723587365</v>
       </c>
       <c r="I10">
-        <v>0.1620940262262354</v>
+        <v>0.1750823723587365</v>
       </c>
       <c r="J10">
-        <v>0.1903597538701372</v>
+        <v>0.1750823723587365</v>
       </c>
       <c r="K10">
-        <v>0.1946638921694472</v>
+        <v>0.1750823723587365</v>
       </c>
       <c r="L10">
-        <v>0.2257036667543539</v>
+        <v>0.1779269380457712</v>
       </c>
       <c r="M10">
-        <v>0.2728425973519017</v>
+        <v>0.2113992500484137</v>
       </c>
       <c r="N10">
-        <v>0.272893001441503</v>
+        <v>0.2113992500484137</v>
       </c>
       <c r="O10">
-        <v>0.272893001441503</v>
+        <v>0.2113992500484137</v>
       </c>
       <c r="P10">
-        <v>0.272893001441503</v>
+        <v>0.2113992500484137</v>
       </c>
       <c r="Q10">
-        <v>0.272893001441503</v>
+        <v>0.2113992500484137</v>
       </c>
       <c r="R10">
-        <v>0.2876372654537566</v>
+        <v>0.2113992500484137</v>
       </c>
       <c r="S10">
-        <v>0.3164081858602671</v>
+        <v>0.2113992500484137</v>
       </c>
       <c r="T10">
-        <v>0.3845147392642719</v>
+        <v>0.2847612948825957</v>
       </c>
       <c r="U10">
-        <v>0.3989589252044545</v>
+        <v>0.2847612948825957</v>
       </c>
       <c r="V10">
-        <v>0.414285015316272</v>
+        <v>0.2847612948825957</v>
       </c>
       <c r="W10">
-        <v>0.5356398154679161</v>
+        <v>0.4594251590082381</v>
       </c>
       <c r="X10">
-        <v>0.6930566762765475</v>
+        <v>0.7026950820200125</v>
       </c>
       <c r="Y10">
-        <v>0.8331258317067759</v>
+        <v>0.9129619631909321</v>
       </c>
       <c r="Z10">
-        <v>0.8920420430666072</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AA10">
-        <v>0.9035321465505388</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AB10">
-        <v>0.907783909128028</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AC10">
-        <v>0.907783909128028</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AD10">
-        <v>0.9101508859652977</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AE10">
-        <v>0.9167484904786294</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AF10">
-        <v>0.9188674183962445</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AG10">
-        <v>0.9323744571139031</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AH10">
-        <v>0.9540764568990321</v>
+        <v>0.9688398949162284</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -8632,97 +8632,97 @@
         <v>0</v>
       </c>
       <c r="CJ11">
-        <v>0.2617457971327486</v>
+        <v>0.4217467650485255</v>
       </c>
       <c r="CK11">
-        <v>0.2824729394783432</v>
+        <v>0.4217467650485255</v>
       </c>
       <c r="CL11">
-        <v>0.4720445309084161</v>
+        <v>0.7121460012457981</v>
       </c>
       <c r="CM11">
-        <v>0.5068612249106335</v>
+        <v>0.7209117486241643</v>
       </c>
       <c r="CN11">
-        <v>0.5348247352026579</v>
+        <v>0.7209117486241643</v>
       </c>
       <c r="CO11">
-        <v>0.5591896102152575</v>
+        <v>0.7209117486241643</v>
       </c>
       <c r="CP11">
-        <v>0.5735565180735449</v>
+        <v>0.7209117486241643</v>
       </c>
       <c r="CQ11">
-        <v>0.5834546140089832</v>
+        <v>0.7209117486241643</v>
       </c>
       <c r="CR11">
-        <v>0.5839934829844221</v>
+        <v>0.7209117486241643</v>
       </c>
       <c r="CS11">
-        <v>0.5897549797219304</v>
+        <v>0.7209117486241643</v>
       </c>
       <c r="CT11">
-        <v>0.6290036429587775</v>
+        <v>0.7377430950797341</v>
       </c>
       <c r="CU11">
-        <v>0.7307183831558134</v>
+        <v>0.8682544573508268</v>
       </c>
       <c r="CV11">
-        <v>0.7407765525236056</v>
+        <v>0.8682544573508268</v>
       </c>
       <c r="CW11">
-        <v>0.7894302433974725</v>
+        <v>0.9022017128333591</v>
       </c>
       <c r="CX11">
-        <v>0.8031572175157164</v>
+        <v>0.9022017128333591</v>
       </c>
       <c r="CY11">
-        <v>0.8592558505314458</v>
+        <v>0.9496977804330984</v>
       </c>
       <c r="CZ11">
-        <v>0.8725978125625801</v>
+        <v>0.9496977804330984</v>
       </c>
       <c r="DA11">
-        <v>0.9302383991352758</v>
+        <v>1</v>
       </c>
       <c r="DB11">
-        <v>0.9302770016617938</v>
+        <v>1</v>
       </c>
       <c r="DC11">
-        <v>0.9311153859667494</v>
+        <v>1</v>
       </c>
       <c r="DD11">
-        <v>0.9422181889611247</v>
+        <v>1</v>
       </c>
       <c r="DE11">
-        <v>0.9447992823697953</v>
+        <v>1</v>
       </c>
       <c r="DF11">
-        <v>0.9604696824596753</v>
+        <v>1</v>
       </c>
       <c r="DG11">
-        <v>0.971584933129544</v>
+        <v>1</v>
       </c>
       <c r="DH11">
-        <v>0.9719509218089677</v>
+        <v>1</v>
       </c>
       <c r="DI11">
-        <v>0.9738204498087532</v>
+        <v>1</v>
       </c>
       <c r="DJ11">
-        <v>0.987514790047755</v>
+        <v>1</v>
       </c>
       <c r="DK11">
-        <v>0.9919544920088165</v>
+        <v>1</v>
       </c>
       <c r="DL11">
-        <v>0.9927999520526923</v>
+        <v>1</v>
       </c>
       <c r="DM11">
-        <v>0.9966718037941394</v>
+        <v>1</v>
       </c>
       <c r="DN11">
-        <v>0.9994670906030334</v>
+        <v>1</v>
       </c>
       <c r="DO11">
         <v>1</v>
@@ -8787,34 +8787,34 @@
         <v>119</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>83</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6792054419701443</v>
       </c>
       <c r="F2">
-        <v>0.596791837741518</v>
+        <v>86</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2">
         <v>12</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>143</v>
@@ -8828,34 +8828,34 @@
         <v>120</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>83</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6256156386369657</v>
       </c>
       <c r="F3">
-        <v>0.5033074694108111</v>
+        <v>86</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3">
         <v>12</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>142</v>
       </c>
       <c r="L3" t="s">
         <v>143</v>
@@ -8869,34 +8869,34 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>84</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5791477709263932</v>
       </c>
       <c r="F4">
-        <v>0.5935404464725584</v>
+        <v>88</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4">
         <v>12</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" t="s">
-        <v>142</v>
       </c>
       <c r="L4" t="s">
         <v>143</v>
@@ -8910,34 +8910,34 @@
         <v>122</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>84</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.6755416925685236</v>
       </c>
       <c r="F5">
-        <v>0.5112661015894928</v>
+        <v>88</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5">
         <v>12</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" t="s">
-        <v>142</v>
       </c>
       <c r="L5" t="s">
         <v>143</v>
@@ -8951,34 +8951,34 @@
         <v>123</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>83</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.506230210238605</v>
       </c>
       <c r="F6">
-        <v>0.6210275634083369</v>
+        <v>87</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6">
         <v>12</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" t="s">
-        <v>142</v>
       </c>
       <c r="L6" t="s">
         <v>143</v>
@@ -8992,34 +8992,34 @@
         <v>124</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>83</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.6991421691795358</v>
       </c>
       <c r="F7">
-        <v>0.5089502041521814</v>
+        <v>87</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7">
         <v>12</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" t="s">
-        <v>142</v>
       </c>
       <c r="L7" t="s">
         <v>143</v>
@@ -9033,34 +9033,34 @@
         <v>125</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>83</v>
       </c>
       <c r="D8">
-        <v>91</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.6268833330636873</v>
       </c>
       <c r="F8">
-        <v>0.5151338581037042</v>
+        <v>87</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8">
         <v>12</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" t="s">
-        <v>142</v>
       </c>
       <c r="L8" t="s">
         <v>143</v>
@@ -9074,34 +9074,34 @@
         <v>126</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>56</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5430169115523709</v>
       </c>
       <c r="F9">
-        <v>0.5102714452676769</v>
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9">
         <v>12</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" t="s">
-        <v>142</v>
       </c>
       <c r="L9" t="s">
         <v>143</v>
@@ -9115,34 +9115,34 @@
         <v>127</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7026950820200125</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5356398154679161</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
-      </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10">
         <v>12</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" t="s">
-        <v>142</v>
       </c>
       <c r="L10" t="s">
         <v>143</v>
@@ -9156,34 +9156,34 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7121460012457981</v>
       </c>
       <c r="F11">
-        <v>0.5068612249106335</v>
+        <v>89</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11">
         <v>12</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" t="s">
-        <v>142</v>
       </c>
       <c r="L11" t="s">
         <v>143</v>
@@ -9251,34 +9251,34 @@
         <v>119</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>83</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7921127441701877</v>
       </c>
       <c r="F2">
-        <v>0.8143637124523496</v>
+        <v>87</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2">
         <v>12</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>143</v>
@@ -9292,34 +9292,34 @@
         <v>120</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>83</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.707620123004011</v>
       </c>
       <c r="F3">
-        <v>0.7576194513916251</v>
+        <v>87</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3">
         <v>12</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>142</v>
       </c>
       <c r="L3" t="s">
         <v>143</v>
@@ -9333,34 +9333,34 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>84</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7398275006750992</v>
       </c>
       <c r="F4">
-        <v>0.7109084531338365</v>
+        <v>97</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4">
         <v>12</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" t="s">
-        <v>142</v>
       </c>
       <c r="L4" t="s">
         <v>143</v>
@@ -9374,34 +9374,34 @@
         <v>122</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>84</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7850887754613128</v>
       </c>
       <c r="F5">
-        <v>0.7033332573165157</v>
+        <v>97</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5">
         <v>12</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" t="s">
-        <v>142</v>
       </c>
       <c r="L5" t="s">
         <v>143</v>
@@ -9415,34 +9415,34 @@
         <v>123</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>83</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.8412839469765355</v>
+      </c>
+      <c r="F6">
         <v>98</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7705380677611648</v>
-      </c>
       <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6">
         <v>12</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" t="s">
-        <v>142</v>
       </c>
       <c r="L6" t="s">
         <v>143</v>
@@ -9456,34 +9456,34 @@
         <v>124</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>83</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7559258084701969</v>
       </c>
       <c r="F7">
-        <v>0.7304060613318696</v>
+        <v>90</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7">
         <v>12</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" t="s">
-        <v>142</v>
       </c>
       <c r="L7" t="s">
         <v>143</v>
@@ -9497,34 +9497,34 @@
         <v>125</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>83</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7908929189186144</v>
       </c>
       <c r="F8">
-        <v>0.7055349613624133</v>
+        <v>96</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8">
         <v>12</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" t="s">
-        <v>142</v>
       </c>
       <c r="L8" t="s">
         <v>143</v>
@@ -9538,34 +9538,34 @@
         <v>126</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.8851766969236824</v>
+      </c>
+      <c r="F9">
         <v>59</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7053049228115669</v>
-      </c>
       <c r="G9">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9">
         <v>12</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" t="s">
-        <v>142</v>
       </c>
       <c r="L9" t="s">
         <v>143</v>
@@ -9579,34 +9579,34 @@
         <v>127</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7026950820200125</v>
       </c>
       <c r="F10">
-        <v>0.8331258317067759</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10">
         <v>12</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" t="s">
-        <v>142</v>
       </c>
       <c r="L10" t="s">
         <v>143</v>
@@ -9620,34 +9620,34 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7121460012457981</v>
       </c>
       <c r="F11">
-        <v>0.7307183831558134</v>
+        <v>89</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11">
         <v>12</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" t="s">
-        <v>142</v>
       </c>
       <c r="L11" t="s">
         <v>143</v>
@@ -9715,34 +9715,34 @@
         <v>119</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>83</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8037670542964901</v>
       </c>
       <c r="F2">
-        <v>0.8143637124523496</v>
+        <v>89</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2">
         <v>12</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>143</v>
@@ -9756,34 +9756,34 @@
         <v>120</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>83</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9072835186536428</v>
       </c>
       <c r="F3">
-        <v>0.8302273868702849</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3">
         <v>12</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>142</v>
       </c>
       <c r="L3" t="s">
         <v>143</v>
@@ -9797,34 +9797,34 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>84</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9026387446873847</v>
       </c>
       <c r="F4">
-        <v>0.8350982804078538</v>
+        <v>98</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4">
         <v>12</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" t="s">
-        <v>142</v>
       </c>
       <c r="L4" t="s">
         <v>143</v>
@@ -9838,34 +9838,34 @@
         <v>122</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>84</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8663140912976856</v>
       </c>
       <c r="F5">
-        <v>0.8485572460934055</v>
+        <v>98</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5">
         <v>12</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" t="s">
-        <v>142</v>
       </c>
       <c r="L5" t="s">
         <v>143</v>
@@ -9879,34 +9879,34 @@
         <v>123</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>83</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8412839469765355</v>
       </c>
       <c r="F6">
-        <v>0.8912594925293911</v>
+        <v>98</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6">
         <v>12</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" t="s">
-        <v>142</v>
       </c>
       <c r="L6" t="s">
         <v>143</v>
@@ -9920,34 +9920,34 @@
         <v>124</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>83</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8971976513541992</v>
       </c>
       <c r="F7">
-        <v>0.8668755778102364</v>
+        <v>96</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7">
         <v>12</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" t="s">
-        <v>142</v>
       </c>
       <c r="L7" t="s">
         <v>143</v>
@@ -9961,34 +9961,34 @@
         <v>125</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>83</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8215860976803671</v>
       </c>
       <c r="F8">
-        <v>0.8602783545050369</v>
+        <v>97</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8">
         <v>12</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" t="s">
-        <v>142</v>
       </c>
       <c r="L8" t="s">
         <v>143</v>
@@ -10002,34 +10002,34 @@
         <v>126</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>63</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8851766969236824</v>
       </c>
       <c r="F9">
-        <v>0.838978356780303</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9">
         <v>12</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" t="s">
-        <v>142</v>
       </c>
       <c r="L9" t="s">
         <v>143</v>
@@ -10043,34 +10043,34 @@
         <v>127</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9129619631909321</v>
+      </c>
+      <c r="F10">
         <v>24</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8331258317067759</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10">
         <v>12</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" t="s">
-        <v>142</v>
       </c>
       <c r="L10" t="s">
         <v>143</v>
@@ -10084,34 +10084,34 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8682544573508268</v>
       </c>
       <c r="F11">
-        <v>0.8031572175157164</v>
+        <v>98</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11">
         <v>12</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" t="s">
-        <v>142</v>
       </c>
       <c r="L11" t="s">
         <v>143</v>
@@ -10179,34 +10179,34 @@
         <v>119</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>83</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9675276807434803</v>
       </c>
       <c r="F2">
-        <v>0.9106504043751427</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2">
         <v>12</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>143</v>
@@ -10220,34 +10220,34 @@
         <v>120</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>83</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9072835186536428</v>
       </c>
       <c r="F3">
-        <v>0.90403291226872</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3">
         <v>12</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>142</v>
       </c>
       <c r="L3" t="s">
         <v>143</v>
@@ -10261,34 +10261,34 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>84</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9026387446873847</v>
       </c>
       <c r="F4">
-        <v>0.9075427803747935</v>
+        <v>98</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4">
         <v>12</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" t="s">
-        <v>142</v>
       </c>
       <c r="L4" t="s">
         <v>143</v>
@@ -10302,34 +10302,34 @@
         <v>122</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>84</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.910867452492105</v>
+        <v>101</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5">
         <v>12</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" t="s">
-        <v>142</v>
       </c>
       <c r="L5" t="s">
         <v>143</v>
@@ -10343,34 +10343,34 @@
         <v>123</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>83</v>
       </c>
       <c r="D6">
-        <v>101</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.9199374231532217</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6">
         <v>12</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" t="s">
-        <v>142</v>
       </c>
       <c r="L6" t="s">
         <v>143</v>
@@ -10384,34 +10384,34 @@
         <v>124</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>83</v>
       </c>
       <c r="D7">
-        <v>102</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9294255975524877</v>
       </c>
       <c r="F7">
-        <v>0.9078030919533135</v>
+        <v>98</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7">
         <v>12</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" t="s">
-        <v>142</v>
       </c>
       <c r="L7" t="s">
         <v>143</v>
@@ -10425,34 +10425,34 @@
         <v>125</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>83</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9598319356202181</v>
       </c>
       <c r="F8">
-        <v>0.9121411786830566</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8">
         <v>12</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" t="s">
-        <v>142</v>
       </c>
       <c r="L8" t="s">
         <v>143</v>
@@ -10466,34 +10466,34 @@
         <v>126</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>69</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.902166397301188</v>
       </c>
       <c r="F9">
-        <v>0.9029236775176431</v>
+        <v>61</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9">
         <v>12</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" t="s">
-        <v>142</v>
       </c>
       <c r="L9" t="s">
         <v>143</v>
@@ -10507,34 +10507,34 @@
         <v>127</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9129619631909321</v>
       </c>
       <c r="F10">
-        <v>0.9035321465505388</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10">
         <v>12</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" t="s">
-        <v>142</v>
       </c>
       <c r="L10" t="s">
         <v>143</v>
@@ -10548,34 +10548,34 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9022017128333591</v>
       </c>
       <c r="F11">
-        <v>0.9302383991352758</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11">
         <v>12</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" t="s">
-        <v>142</v>
       </c>
       <c r="L11" t="s">
         <v>143</v>
